--- a/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8880439437592644</v>
+        <v>0.888043943759264</v>
       </c>
       <c r="D2">
-        <v>0.8978548633363375</v>
+        <v>0.897854863336337</v>
       </c>
       <c r="E2">
-        <v>0.9083392701746505</v>
+        <v>0.9083392701746503</v>
       </c>
       <c r="F2">
-        <v>0.8869582656023532</v>
+        <v>0.8869582656023525</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.026765501628344</v>
       </c>
       <c r="J2">
-        <v>0.9141799288457334</v>
+        <v>0.9141799288457331</v>
       </c>
       <c r="K2">
-        <v>0.9109479927769238</v>
+        <v>0.9109479927769236</v>
       </c>
       <c r="L2">
-        <v>0.9212427407276729</v>
+        <v>0.9212427407276725</v>
       </c>
       <c r="M2">
-        <v>0.9002547229304085</v>
+        <v>0.9002547229304081</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9101722690043232</v>
+        <v>0.9101722690043245</v>
       </c>
       <c r="D3">
-        <v>0.9189186834329653</v>
+        <v>0.9189186834329663</v>
       </c>
       <c r="E3">
-        <v>0.9274726250970834</v>
+        <v>0.9274726250970843</v>
       </c>
       <c r="F3">
-        <v>0.9099699527728644</v>
+        <v>0.9099699527728652</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.031086739464597</v>
       </c>
       <c r="J3">
-        <v>0.9334520740862254</v>
+        <v>0.9334520740862263</v>
       </c>
       <c r="K3">
-        <v>0.9307061049961687</v>
+        <v>0.9307061049961696</v>
       </c>
       <c r="L3">
-        <v>0.9391260845286936</v>
+        <v>0.9391260845286945</v>
       </c>
       <c r="M3">
-        <v>0.9219009811315877</v>
+        <v>0.9219009811315886</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9231027026023044</v>
+        <v>0.9231027026023071</v>
       </c>
       <c r="D4">
-        <v>0.931239414214908</v>
+        <v>0.9312394142149105</v>
       </c>
       <c r="E4">
-        <v>0.9386735350012368</v>
+        <v>0.9386735350012393</v>
       </c>
       <c r="F4">
-        <v>0.9234360847313252</v>
+        <v>0.9234360847313278</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.033580060272748</v>
       </c>
       <c r="J4">
-        <v>0.9447012968013162</v>
+        <v>0.9447012968013188</v>
       </c>
       <c r="K4">
-        <v>0.9422452467975796</v>
+        <v>0.9422452467975823</v>
       </c>
       <c r="L4">
-        <v>0.9495731641701367</v>
+        <v>0.9495731641701394</v>
       </c>
       <c r="M4">
-        <v>0.9345557311947211</v>
+        <v>0.9345557311947236</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9282651126514077</v>
+        <v>0.9282651126514074</v>
       </c>
       <c r="D5">
-        <v>0.9361607274983075</v>
+        <v>0.9361607274983071</v>
       </c>
       <c r="E5">
-        <v>0.9431495257947319</v>
+        <v>0.9431495257947314</v>
       </c>
       <c r="F5">
-        <v>0.9288170438330667</v>
+        <v>0.9288170438330662</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.034566595132067</v>
       </c>
       <c r="J5">
-        <v>0.9491891317595564</v>
+        <v>0.9491891317595561</v>
       </c>
       <c r="K5">
-        <v>0.9468502079225943</v>
+        <v>0.9468502079225942</v>
       </c>
       <c r="L5">
-        <v>0.9537429414986607</v>
+        <v>0.9537429414986603</v>
       </c>
       <c r="M5">
-        <v>0.9396094358804118</v>
+        <v>0.9396094358804112</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9291172333331226</v>
+        <v>0.9291172333331215</v>
       </c>
       <c r="D6">
-        <v>0.9369731740873729</v>
+        <v>0.936973174087372</v>
       </c>
       <c r="E6">
-        <v>0.9438885649861688</v>
+        <v>0.9438885649861679</v>
       </c>
       <c r="F6">
-        <v>0.9297055138803141</v>
+        <v>0.9297055138803133</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034728877766047</v>
+        <v>1.034728877766046</v>
       </c>
       <c r="J6">
-        <v>0.9499296972818178</v>
+        <v>0.9499296972818168</v>
       </c>
       <c r="K6">
-        <v>0.9476101865838182</v>
+        <v>0.9476101865838172</v>
       </c>
       <c r="L6">
-        <v>0.9544311355312598</v>
+        <v>0.9544311355312588</v>
       </c>
       <c r="M6">
-        <v>0.9404436915304056</v>
+        <v>0.9404436915304045</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9231726938300698</v>
+        <v>0.9231726938300685</v>
       </c>
       <c r="D7">
-        <v>0.9313061280836635</v>
+        <v>0.9313061280836621</v>
       </c>
       <c r="E7">
-        <v>0.9387342044364945</v>
+        <v>0.9387342044364932</v>
       </c>
       <c r="F7">
-        <v>0.9235090203048956</v>
+        <v>0.9235090203048945</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033593472785472</v>
+        <v>1.033593472785471</v>
       </c>
       <c r="J7">
-        <v>0.944762156171905</v>
+        <v>0.9447621561719038</v>
       </c>
       <c r="K7">
-        <v>0.9423076886852775</v>
+        <v>0.9423076886852764</v>
       </c>
       <c r="L7">
-        <v>0.9496297026349679</v>
+        <v>0.9496297026349667</v>
       </c>
       <c r="M7">
-        <v>0.9346242432553902</v>
+        <v>0.934624243255389</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8958520318900677</v>
+        <v>0.8958520318900709</v>
       </c>
       <c r="D8">
-        <v>0.9052841178362492</v>
+        <v>0.9052841178362526</v>
       </c>
       <c r="E8">
-        <v>0.9150853668448763</v>
+        <v>0.9150853668448795</v>
       </c>
       <c r="F8">
-        <v>0.8950737310534445</v>
+        <v>0.8950737310534479</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.028296336104878</v>
       </c>
       <c r="J8">
-        <v>0.9209825795901967</v>
+        <v>0.9209825795901997</v>
       </c>
       <c r="K8">
-        <v>0.9179207638620883</v>
+        <v>0.9179207638620918</v>
       </c>
       <c r="L8">
-        <v>0.9275532235241756</v>
+        <v>0.9275532235241783</v>
       </c>
       <c r="M8">
-        <v>0.9078913208288543</v>
+        <v>0.9078913208288574</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8325794821701458</v>
+        <v>0.8325794821701439</v>
       </c>
       <c r="D9">
-        <v>0.8451991605296021</v>
+        <v>0.8451991605296003</v>
       </c>
       <c r="E9">
-        <v>0.8605961778235357</v>
+        <v>0.8605961778235339</v>
       </c>
       <c r="F9">
-        <v>0.8294082935818681</v>
+        <v>0.8294082935818664</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.015829991140298</v>
       </c>
       <c r="J9">
-        <v>0.8658326728744781</v>
+        <v>0.8658326728744763</v>
       </c>
       <c r="K9">
-        <v>0.8614268205213099</v>
+        <v>0.8614268205213079</v>
       </c>
       <c r="L9">
-        <v>0.8764441470698158</v>
+        <v>0.8764441470698141</v>
       </c>
       <c r="M9">
-        <v>0.8460452623586713</v>
+        <v>0.8460452623586694</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,13 +725,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7643527630184216</v>
+        <v>0.7643527630184218</v>
       </c>
       <c r="D10">
-        <v>0.7807900162160604</v>
+        <v>0.7807900162160605</v>
       </c>
       <c r="E10">
-        <v>0.8023705356320325</v>
+        <v>0.8023705356320328</v>
       </c>
       <c r="F10">
         <v>0.758717449727033</v>
@@ -743,16 +743,16 @@
         <v>1.002637787702709</v>
       </c>
       <c r="J10">
-        <v>0.8064810856246244</v>
+        <v>0.8064810856246246</v>
       </c>
       <c r="K10">
-        <v>0.8006899881064941</v>
+        <v>0.8006899881064942</v>
       </c>
       <c r="L10">
-        <v>0.8215390611375835</v>
+        <v>0.8215390611375837</v>
       </c>
       <c r="M10">
-        <v>0.7794264654390696</v>
+        <v>0.7794264654390698</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7064275186729808</v>
+        <v>0.7064275186729757</v>
       </c>
       <c r="D11">
-        <v>0.7265429057151466</v>
+        <v>0.7265429057151416</v>
       </c>
       <c r="E11">
-        <v>0.7534966533114932</v>
+        <v>0.7534966533114886</v>
       </c>
       <c r="F11">
-        <v>0.6986257163214739</v>
+        <v>0.6986257163214686</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9920415040274858</v>
+        <v>0.9920415040274851</v>
       </c>
       <c r="J11">
-        <v>0.7564061388834329</v>
+        <v>0.7564061388834282</v>
       </c>
       <c r="K11">
-        <v>0.7494690102572835</v>
+        <v>0.7494690102572785</v>
       </c>
       <c r="L11">
-        <v>0.7752644408332059</v>
+        <v>0.7752644408332016</v>
       </c>
       <c r="M11">
-        <v>0.722888979295774</v>
+        <v>0.7228889792957691</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7064275186729808</v>
+        <v>0.7064275186729757</v>
       </c>
       <c r="D12">
-        <v>0.7265429057151466</v>
+        <v>0.7265429057151416</v>
       </c>
       <c r="E12">
-        <v>0.7534966533114932</v>
+        <v>0.7534966533114886</v>
       </c>
       <c r="F12">
-        <v>0.6986257163214739</v>
+        <v>0.6986257163214686</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9920415040274858</v>
+        <v>0.9920415040274851</v>
       </c>
       <c r="J12">
-        <v>0.7564061388834329</v>
+        <v>0.7564061388834282</v>
       </c>
       <c r="K12">
-        <v>0.7494690102572835</v>
+        <v>0.7494690102572785</v>
       </c>
       <c r="L12">
-        <v>0.7752644408332059</v>
+        <v>0.7752644408332016</v>
       </c>
       <c r="M12">
-        <v>0.722888979295774</v>
+        <v>0.7228889792957691</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7064275186729808</v>
+        <v>0.7064275186729757</v>
       </c>
       <c r="D13">
-        <v>0.7265429057151466</v>
+        <v>0.7265429057151416</v>
       </c>
       <c r="E13">
-        <v>0.7534966533114932</v>
+        <v>0.7534966533114886</v>
       </c>
       <c r="F13">
-        <v>0.6986257163214739</v>
+        <v>0.6986257163214686</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9920415040274858</v>
+        <v>0.9920415040274851</v>
       </c>
       <c r="J13">
-        <v>0.7564061388834329</v>
+        <v>0.7564061388834282</v>
       </c>
       <c r="K13">
-        <v>0.7494690102572835</v>
+        <v>0.7494690102572785</v>
       </c>
       <c r="L13">
-        <v>0.7752644408332059</v>
+        <v>0.7752644408332016</v>
       </c>
       <c r="M13">
-        <v>0.722888979295774</v>
+        <v>0.7228889792957691</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7064275186729808</v>
+        <v>0.7064275186729757</v>
       </c>
       <c r="D14">
-        <v>0.7265429057151466</v>
+        <v>0.7265429057151416</v>
       </c>
       <c r="E14">
-        <v>0.7534966533114932</v>
+        <v>0.7534966533114886</v>
       </c>
       <c r="F14">
-        <v>0.6986257163214739</v>
+        <v>0.6986257163214686</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9920415040274858</v>
+        <v>0.9920415040274851</v>
       </c>
       <c r="J14">
-        <v>0.7564061388834329</v>
+        <v>0.7564061388834282</v>
       </c>
       <c r="K14">
-        <v>0.7494690102572835</v>
+        <v>0.7494690102572785</v>
       </c>
       <c r="L14">
-        <v>0.7752644408332059</v>
+        <v>0.7752644408332016</v>
       </c>
       <c r="M14">
-        <v>0.722888979295774</v>
+        <v>0.7228889792957691</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7064275186729808</v>
+        <v>0.7064275186729757</v>
       </c>
       <c r="D15">
-        <v>0.7265429057151466</v>
+        <v>0.7265429057151416</v>
       </c>
       <c r="E15">
-        <v>0.7534966533114932</v>
+        <v>0.7534966533114886</v>
       </c>
       <c r="F15">
-        <v>0.6986257163214739</v>
+        <v>0.6986257163214686</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9920415040274858</v>
+        <v>0.9920415040274851</v>
       </c>
       <c r="J15">
-        <v>0.7564061388834329</v>
+        <v>0.7564061388834282</v>
       </c>
       <c r="K15">
-        <v>0.7494690102572835</v>
+        <v>0.7494690102572785</v>
       </c>
       <c r="L15">
-        <v>0.7752644408332059</v>
+        <v>0.7752644408332016</v>
       </c>
       <c r="M15">
-        <v>0.722888979295774</v>
+        <v>0.7228889792957691</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7064275186729808</v>
+        <v>0.7064275186729757</v>
       </c>
       <c r="D16">
-        <v>0.7265429057151466</v>
+        <v>0.7265429057151416</v>
       </c>
       <c r="E16">
-        <v>0.7534966533114932</v>
+        <v>0.7534966533114886</v>
       </c>
       <c r="F16">
-        <v>0.6986257163214739</v>
+        <v>0.6986257163214686</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9920415040274858</v>
+        <v>0.9920415040274851</v>
       </c>
       <c r="J16">
-        <v>0.7564061388834329</v>
+        <v>0.7564061388834282</v>
       </c>
       <c r="K16">
-        <v>0.7494690102572835</v>
+        <v>0.7494690102572785</v>
       </c>
       <c r="L16">
-        <v>0.7752644408332059</v>
+        <v>0.7752644408332016</v>
       </c>
       <c r="M16">
-        <v>0.722888979295774</v>
+        <v>0.7228889792957691</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7064275186729808</v>
+        <v>0.7064275186729757</v>
       </c>
       <c r="D17">
-        <v>0.7265429057151466</v>
+        <v>0.7265429057151416</v>
       </c>
       <c r="E17">
-        <v>0.7534966533114932</v>
+        <v>0.7534966533114886</v>
       </c>
       <c r="F17">
-        <v>0.6986257163214739</v>
+        <v>0.6986257163214686</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9920415040274858</v>
+        <v>0.9920415040274851</v>
       </c>
       <c r="J17">
-        <v>0.7564061388834329</v>
+        <v>0.7564061388834282</v>
       </c>
       <c r="K17">
-        <v>0.7494690102572835</v>
+        <v>0.7494690102572785</v>
       </c>
       <c r="L17">
-        <v>0.7752644408332059</v>
+        <v>0.7752644408332016</v>
       </c>
       <c r="M17">
-        <v>0.722888979295774</v>
+        <v>0.7228889792957691</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7064275186729808</v>
+        <v>0.7064275186729757</v>
       </c>
       <c r="D18">
-        <v>0.7265429057151466</v>
+        <v>0.7265429057151416</v>
       </c>
       <c r="E18">
-        <v>0.7534966533114932</v>
+        <v>0.7534966533114886</v>
       </c>
       <c r="F18">
-        <v>0.6986257163214739</v>
+        <v>0.6986257163214686</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9920415040274858</v>
+        <v>0.9920415040274851</v>
       </c>
       <c r="J18">
-        <v>0.7564061388834329</v>
+        <v>0.7564061388834282</v>
       </c>
       <c r="K18">
-        <v>0.7494690102572835</v>
+        <v>0.7494690102572785</v>
       </c>
       <c r="L18">
-        <v>0.7752644408332059</v>
+        <v>0.7752644408332016</v>
       </c>
       <c r="M18">
-        <v>0.722888979295774</v>
+        <v>0.7228889792957691</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7064275186729808</v>
+        <v>0.7064275186729757</v>
       </c>
       <c r="D19">
-        <v>0.7265429057151466</v>
+        <v>0.7265429057151416</v>
       </c>
       <c r="E19">
-        <v>0.7534966533114932</v>
+        <v>0.7534966533114886</v>
       </c>
       <c r="F19">
-        <v>0.6986257163214739</v>
+        <v>0.6986257163214686</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9920415040274858</v>
+        <v>0.9920415040274851</v>
       </c>
       <c r="J19">
-        <v>0.7564061388834329</v>
+        <v>0.7564061388834282</v>
       </c>
       <c r="K19">
-        <v>0.7494690102572835</v>
+        <v>0.7494690102572785</v>
       </c>
       <c r="L19">
-        <v>0.7752644408332059</v>
+        <v>0.7752644408332016</v>
       </c>
       <c r="M19">
-        <v>0.722888979295774</v>
+        <v>0.7228889792957691</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7064275186729808</v>
+        <v>0.7064275186729757</v>
       </c>
       <c r="D20">
-        <v>0.7265429057151466</v>
+        <v>0.7265429057151416</v>
       </c>
       <c r="E20">
-        <v>0.7534966533114932</v>
+        <v>0.7534966533114886</v>
       </c>
       <c r="F20">
-        <v>0.6986257163214739</v>
+        <v>0.6986257163214686</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9920415040274858</v>
+        <v>0.9920415040274851</v>
       </c>
       <c r="J20">
-        <v>0.7564061388834329</v>
+        <v>0.7564061388834282</v>
       </c>
       <c r="K20">
-        <v>0.7494690102572835</v>
+        <v>0.7494690102572785</v>
       </c>
       <c r="L20">
-        <v>0.7752644408332059</v>
+        <v>0.7752644408332016</v>
       </c>
       <c r="M20">
-        <v>0.722888979295774</v>
+        <v>0.7228889792957691</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7064275186729808</v>
+        <v>0.7064275186729757</v>
       </c>
       <c r="D21">
-        <v>0.7265429057151466</v>
+        <v>0.7265429057151416</v>
       </c>
       <c r="E21">
-        <v>0.7534966533114932</v>
+        <v>0.7534966533114886</v>
       </c>
       <c r="F21">
-        <v>0.6986257163214739</v>
+        <v>0.6986257163214686</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9920415040274858</v>
+        <v>0.9920415040274851</v>
       </c>
       <c r="J21">
-        <v>0.7564061388834329</v>
+        <v>0.7564061388834282</v>
       </c>
       <c r="K21">
-        <v>0.7494690102572835</v>
+        <v>0.7494690102572785</v>
       </c>
       <c r="L21">
-        <v>0.7752644408332059</v>
+        <v>0.7752644408332016</v>
       </c>
       <c r="M21">
-        <v>0.722888979295774</v>
+        <v>0.7228889792957691</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7064275186729808</v>
+        <v>0.7064275186729757</v>
       </c>
       <c r="D22">
-        <v>0.7265429057151466</v>
+        <v>0.7265429057151416</v>
       </c>
       <c r="E22">
-        <v>0.7534966533114932</v>
+        <v>0.7534966533114886</v>
       </c>
       <c r="F22">
-        <v>0.6986257163214739</v>
+        <v>0.6986257163214686</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9920415040274858</v>
+        <v>0.9920415040274851</v>
       </c>
       <c r="J22">
-        <v>0.7564061388834329</v>
+        <v>0.7564061388834282</v>
       </c>
       <c r="K22">
-        <v>0.7494690102572835</v>
+        <v>0.7494690102572785</v>
       </c>
       <c r="L22">
-        <v>0.7752644408332059</v>
+        <v>0.7752644408332016</v>
       </c>
       <c r="M22">
-        <v>0.722888979295774</v>
+        <v>0.7228889792957691</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7064275186729808</v>
+        <v>0.7064275186729757</v>
       </c>
       <c r="D23">
-        <v>0.7265429057151466</v>
+        <v>0.7265429057151416</v>
       </c>
       <c r="E23">
-        <v>0.7534966533114932</v>
+        <v>0.7534966533114886</v>
       </c>
       <c r="F23">
-        <v>0.6986257163214739</v>
+        <v>0.6986257163214686</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9920415040274858</v>
+        <v>0.9920415040274851</v>
       </c>
       <c r="J23">
-        <v>0.7564061388834329</v>
+        <v>0.7564061388834282</v>
       </c>
       <c r="K23">
-        <v>0.7494690102572835</v>
+        <v>0.7494690102572785</v>
       </c>
       <c r="L23">
-        <v>0.7752644408332059</v>
+        <v>0.7752644408332016</v>
       </c>
       <c r="M23">
-        <v>0.722888979295774</v>
+        <v>0.7228889792957691</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7064275186729808</v>
+        <v>0.7064275186729757</v>
       </c>
       <c r="D24">
-        <v>0.7265429057151466</v>
+        <v>0.7265429057151416</v>
       </c>
       <c r="E24">
-        <v>0.7534966533114932</v>
+        <v>0.7534966533114886</v>
       </c>
       <c r="F24">
-        <v>0.6986257163214739</v>
+        <v>0.6986257163214686</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9920415040274858</v>
+        <v>0.9920415040274851</v>
       </c>
       <c r="J24">
-        <v>0.7564061388834329</v>
+        <v>0.7564061388834282</v>
       </c>
       <c r="K24">
-        <v>0.7494690102572835</v>
+        <v>0.7494690102572785</v>
       </c>
       <c r="L24">
-        <v>0.7752644408332059</v>
+        <v>0.7752644408332016</v>
       </c>
       <c r="M24">
-        <v>0.722888979295774</v>
+        <v>0.7228889792957691</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7064275186729808</v>
+        <v>0.7064275186729757</v>
       </c>
       <c r="D25">
-        <v>0.7265429057151466</v>
+        <v>0.7265429057151416</v>
       </c>
       <c r="E25">
-        <v>0.7534966533114932</v>
+        <v>0.7534966533114886</v>
       </c>
       <c r="F25">
-        <v>0.6986257163214739</v>
+        <v>0.6986257163214686</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9920415040274858</v>
+        <v>0.9920415040274851</v>
       </c>
       <c r="J25">
-        <v>0.7564061388834329</v>
+        <v>0.7564061388834282</v>
       </c>
       <c r="K25">
-        <v>0.7494690102572835</v>
+        <v>0.7494690102572785</v>
       </c>
       <c r="L25">
-        <v>0.7752644408332059</v>
+        <v>0.7752644408332016</v>
       </c>
       <c r="M25">
-        <v>0.722888979295774</v>
+        <v>0.7228889792957691</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.888043943759264</v>
+        <v>0.8880439437592644</v>
       </c>
       <c r="D2">
-        <v>0.897854863336337</v>
+        <v>0.8978548633363375</v>
       </c>
       <c r="E2">
-        <v>0.9083392701746503</v>
+        <v>0.9083392701746505</v>
       </c>
       <c r="F2">
-        <v>0.8869582656023525</v>
+        <v>0.8869582656023532</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.026765501628344</v>
       </c>
       <c r="J2">
-        <v>0.9141799288457331</v>
+        <v>0.9141799288457334</v>
       </c>
       <c r="K2">
-        <v>0.9109479927769236</v>
+        <v>0.9109479927769238</v>
       </c>
       <c r="L2">
-        <v>0.9212427407276725</v>
+        <v>0.9212427407276729</v>
       </c>
       <c r="M2">
-        <v>0.9002547229304081</v>
+        <v>0.9002547229304085</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9101722690043245</v>
+        <v>0.9101722690043232</v>
       </c>
       <c r="D3">
-        <v>0.9189186834329663</v>
+        <v>0.9189186834329653</v>
       </c>
       <c r="E3">
-        <v>0.9274726250970843</v>
+        <v>0.9274726250970834</v>
       </c>
       <c r="F3">
-        <v>0.9099699527728652</v>
+        <v>0.9099699527728644</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.031086739464597</v>
       </c>
       <c r="J3">
-        <v>0.9334520740862263</v>
+        <v>0.9334520740862254</v>
       </c>
       <c r="K3">
-        <v>0.9307061049961696</v>
+        <v>0.9307061049961687</v>
       </c>
       <c r="L3">
-        <v>0.9391260845286945</v>
+        <v>0.9391260845286936</v>
       </c>
       <c r="M3">
-        <v>0.9219009811315886</v>
+        <v>0.9219009811315877</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9231027026023071</v>
+        <v>0.9231027026023044</v>
       </c>
       <c r="D4">
-        <v>0.9312394142149105</v>
+        <v>0.931239414214908</v>
       </c>
       <c r="E4">
-        <v>0.9386735350012393</v>
+        <v>0.9386735350012368</v>
       </c>
       <c r="F4">
-        <v>0.9234360847313278</v>
+        <v>0.9234360847313252</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.033580060272748</v>
       </c>
       <c r="J4">
-        <v>0.9447012968013188</v>
+        <v>0.9447012968013162</v>
       </c>
       <c r="K4">
-        <v>0.9422452467975823</v>
+        <v>0.9422452467975796</v>
       </c>
       <c r="L4">
-        <v>0.9495731641701394</v>
+        <v>0.9495731641701367</v>
       </c>
       <c r="M4">
-        <v>0.9345557311947236</v>
+        <v>0.9345557311947211</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9282651126514074</v>
+        <v>0.9282651126514077</v>
       </c>
       <c r="D5">
-        <v>0.9361607274983071</v>
+        <v>0.9361607274983075</v>
       </c>
       <c r="E5">
-        <v>0.9431495257947314</v>
+        <v>0.9431495257947319</v>
       </c>
       <c r="F5">
-        <v>0.9288170438330662</v>
+        <v>0.9288170438330667</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.034566595132067</v>
       </c>
       <c r="J5">
-        <v>0.9491891317595561</v>
+        <v>0.9491891317595564</v>
       </c>
       <c r="K5">
-        <v>0.9468502079225942</v>
+        <v>0.9468502079225943</v>
       </c>
       <c r="L5">
-        <v>0.9537429414986603</v>
+        <v>0.9537429414986607</v>
       </c>
       <c r="M5">
-        <v>0.9396094358804112</v>
+        <v>0.9396094358804118</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9291172333331215</v>
+        <v>0.9291172333331226</v>
       </c>
       <c r="D6">
-        <v>0.936973174087372</v>
+        <v>0.9369731740873729</v>
       </c>
       <c r="E6">
-        <v>0.9438885649861679</v>
+        <v>0.9438885649861688</v>
       </c>
       <c r="F6">
-        <v>0.9297055138803133</v>
+        <v>0.9297055138803141</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034728877766046</v>
+        <v>1.034728877766047</v>
       </c>
       <c r="J6">
-        <v>0.9499296972818168</v>
+        <v>0.9499296972818178</v>
       </c>
       <c r="K6">
-        <v>0.9476101865838172</v>
+        <v>0.9476101865838182</v>
       </c>
       <c r="L6">
-        <v>0.9544311355312588</v>
+        <v>0.9544311355312598</v>
       </c>
       <c r="M6">
-        <v>0.9404436915304045</v>
+        <v>0.9404436915304056</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9231726938300685</v>
+        <v>0.9231726938300698</v>
       </c>
       <c r="D7">
-        <v>0.9313061280836621</v>
+        <v>0.9313061280836635</v>
       </c>
       <c r="E7">
-        <v>0.9387342044364932</v>
+        <v>0.9387342044364945</v>
       </c>
       <c r="F7">
-        <v>0.9235090203048945</v>
+        <v>0.9235090203048956</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033593472785471</v>
+        <v>1.033593472785472</v>
       </c>
       <c r="J7">
-        <v>0.9447621561719038</v>
+        <v>0.944762156171905</v>
       </c>
       <c r="K7">
-        <v>0.9423076886852764</v>
+        <v>0.9423076886852775</v>
       </c>
       <c r="L7">
-        <v>0.9496297026349667</v>
+        <v>0.9496297026349679</v>
       </c>
       <c r="M7">
-        <v>0.934624243255389</v>
+        <v>0.9346242432553902</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8958520318900709</v>
+        <v>0.8958520318900677</v>
       </c>
       <c r="D8">
-        <v>0.9052841178362526</v>
+        <v>0.9052841178362492</v>
       </c>
       <c r="E8">
-        <v>0.9150853668448795</v>
+        <v>0.9150853668448763</v>
       </c>
       <c r="F8">
-        <v>0.8950737310534479</v>
+        <v>0.8950737310534445</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.028296336104878</v>
       </c>
       <c r="J8">
-        <v>0.9209825795901997</v>
+        <v>0.9209825795901967</v>
       </c>
       <c r="K8">
-        <v>0.9179207638620918</v>
+        <v>0.9179207638620883</v>
       </c>
       <c r="L8">
-        <v>0.9275532235241783</v>
+        <v>0.9275532235241756</v>
       </c>
       <c r="M8">
-        <v>0.9078913208288574</v>
+        <v>0.9078913208288543</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8325794821701439</v>
+        <v>0.8325794821701458</v>
       </c>
       <c r="D9">
-        <v>0.8451991605296003</v>
+        <v>0.8451991605296021</v>
       </c>
       <c r="E9">
-        <v>0.8605961778235339</v>
+        <v>0.8605961778235357</v>
       </c>
       <c r="F9">
-        <v>0.8294082935818664</v>
+        <v>0.8294082935818681</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.015829991140298</v>
       </c>
       <c r="J9">
-        <v>0.8658326728744763</v>
+        <v>0.8658326728744781</v>
       </c>
       <c r="K9">
-        <v>0.8614268205213079</v>
+        <v>0.8614268205213099</v>
       </c>
       <c r="L9">
-        <v>0.8764441470698141</v>
+        <v>0.8764441470698158</v>
       </c>
       <c r="M9">
-        <v>0.8460452623586694</v>
+        <v>0.8460452623586713</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,13 +725,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7643527630184218</v>
+        <v>0.7643527630184216</v>
       </c>
       <c r="D10">
-        <v>0.7807900162160605</v>
+        <v>0.7807900162160604</v>
       </c>
       <c r="E10">
-        <v>0.8023705356320328</v>
+        <v>0.8023705356320325</v>
       </c>
       <c r="F10">
         <v>0.758717449727033</v>
@@ -743,16 +743,16 @@
         <v>1.002637787702709</v>
       </c>
       <c r="J10">
-        <v>0.8064810856246246</v>
+        <v>0.8064810856246244</v>
       </c>
       <c r="K10">
-        <v>0.8006899881064942</v>
+        <v>0.8006899881064941</v>
       </c>
       <c r="L10">
-        <v>0.8215390611375837</v>
+        <v>0.8215390611375835</v>
       </c>
       <c r="M10">
-        <v>0.7794264654390698</v>
+        <v>0.7794264654390696</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7064275186729757</v>
+        <v>0.7064275186729808</v>
       </c>
       <c r="D11">
-        <v>0.7265429057151416</v>
+        <v>0.7265429057151466</v>
       </c>
       <c r="E11">
-        <v>0.7534966533114886</v>
+        <v>0.7534966533114932</v>
       </c>
       <c r="F11">
-        <v>0.6986257163214686</v>
+        <v>0.6986257163214739</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9920415040274851</v>
+        <v>0.9920415040274858</v>
       </c>
       <c r="J11">
-        <v>0.7564061388834282</v>
+        <v>0.7564061388834329</v>
       </c>
       <c r="K11">
-        <v>0.7494690102572785</v>
+        <v>0.7494690102572835</v>
       </c>
       <c r="L11">
-        <v>0.7752644408332016</v>
+        <v>0.7752644408332059</v>
       </c>
       <c r="M11">
-        <v>0.7228889792957691</v>
+        <v>0.722888979295774</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7064275186729757</v>
+        <v>0.7064275186729808</v>
       </c>
       <c r="D12">
-        <v>0.7265429057151416</v>
+        <v>0.7265429057151466</v>
       </c>
       <c r="E12">
-        <v>0.7534966533114886</v>
+        <v>0.7534966533114932</v>
       </c>
       <c r="F12">
-        <v>0.6986257163214686</v>
+        <v>0.6986257163214739</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9920415040274851</v>
+        <v>0.9920415040274858</v>
       </c>
       <c r="J12">
-        <v>0.7564061388834282</v>
+        <v>0.7564061388834329</v>
       </c>
       <c r="K12">
-        <v>0.7494690102572785</v>
+        <v>0.7494690102572835</v>
       </c>
       <c r="L12">
-        <v>0.7752644408332016</v>
+        <v>0.7752644408332059</v>
       </c>
       <c r="M12">
-        <v>0.7228889792957691</v>
+        <v>0.722888979295774</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7064275186729757</v>
+        <v>0.7064275186729808</v>
       </c>
       <c r="D13">
-        <v>0.7265429057151416</v>
+        <v>0.7265429057151466</v>
       </c>
       <c r="E13">
-        <v>0.7534966533114886</v>
+        <v>0.7534966533114932</v>
       </c>
       <c r="F13">
-        <v>0.6986257163214686</v>
+        <v>0.6986257163214739</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9920415040274851</v>
+        <v>0.9920415040274858</v>
       </c>
       <c r="J13">
-        <v>0.7564061388834282</v>
+        <v>0.7564061388834329</v>
       </c>
       <c r="K13">
-        <v>0.7494690102572785</v>
+        <v>0.7494690102572835</v>
       </c>
       <c r="L13">
-        <v>0.7752644408332016</v>
+        <v>0.7752644408332059</v>
       </c>
       <c r="M13">
-        <v>0.7228889792957691</v>
+        <v>0.722888979295774</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7064275186729757</v>
+        <v>0.7064275186729808</v>
       </c>
       <c r="D14">
-        <v>0.7265429057151416</v>
+        <v>0.7265429057151466</v>
       </c>
       <c r="E14">
-        <v>0.7534966533114886</v>
+        <v>0.7534966533114932</v>
       </c>
       <c r="F14">
-        <v>0.6986257163214686</v>
+        <v>0.6986257163214739</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9920415040274851</v>
+        <v>0.9920415040274858</v>
       </c>
       <c r="J14">
-        <v>0.7564061388834282</v>
+        <v>0.7564061388834329</v>
       </c>
       <c r="K14">
-        <v>0.7494690102572785</v>
+        <v>0.7494690102572835</v>
       </c>
       <c r="L14">
-        <v>0.7752644408332016</v>
+        <v>0.7752644408332059</v>
       </c>
       <c r="M14">
-        <v>0.7228889792957691</v>
+        <v>0.722888979295774</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7064275186729757</v>
+        <v>0.7064275186729808</v>
       </c>
       <c r="D15">
-        <v>0.7265429057151416</v>
+        <v>0.7265429057151466</v>
       </c>
       <c r="E15">
-        <v>0.7534966533114886</v>
+        <v>0.7534966533114932</v>
       </c>
       <c r="F15">
-        <v>0.6986257163214686</v>
+        <v>0.6986257163214739</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9920415040274851</v>
+        <v>0.9920415040274858</v>
       </c>
       <c r="J15">
-        <v>0.7564061388834282</v>
+        <v>0.7564061388834329</v>
       </c>
       <c r="K15">
-        <v>0.7494690102572785</v>
+        <v>0.7494690102572835</v>
       </c>
       <c r="L15">
-        <v>0.7752644408332016</v>
+        <v>0.7752644408332059</v>
       </c>
       <c r="M15">
-        <v>0.7228889792957691</v>
+        <v>0.722888979295774</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7064275186729757</v>
+        <v>0.7064275186729808</v>
       </c>
       <c r="D16">
-        <v>0.7265429057151416</v>
+        <v>0.7265429057151466</v>
       </c>
       <c r="E16">
-        <v>0.7534966533114886</v>
+        <v>0.7534966533114932</v>
       </c>
       <c r="F16">
-        <v>0.6986257163214686</v>
+        <v>0.6986257163214739</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9920415040274851</v>
+        <v>0.9920415040274858</v>
       </c>
       <c r="J16">
-        <v>0.7564061388834282</v>
+        <v>0.7564061388834329</v>
       </c>
       <c r="K16">
-        <v>0.7494690102572785</v>
+        <v>0.7494690102572835</v>
       </c>
       <c r="L16">
-        <v>0.7752644408332016</v>
+        <v>0.7752644408332059</v>
       </c>
       <c r="M16">
-        <v>0.7228889792957691</v>
+        <v>0.722888979295774</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7064275186729757</v>
+        <v>0.7064275186729808</v>
       </c>
       <c r="D17">
-        <v>0.7265429057151416</v>
+        <v>0.7265429057151466</v>
       </c>
       <c r="E17">
-        <v>0.7534966533114886</v>
+        <v>0.7534966533114932</v>
       </c>
       <c r="F17">
-        <v>0.6986257163214686</v>
+        <v>0.6986257163214739</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9920415040274851</v>
+        <v>0.9920415040274858</v>
       </c>
       <c r="J17">
-        <v>0.7564061388834282</v>
+        <v>0.7564061388834329</v>
       </c>
       <c r="K17">
-        <v>0.7494690102572785</v>
+        <v>0.7494690102572835</v>
       </c>
       <c r="L17">
-        <v>0.7752644408332016</v>
+        <v>0.7752644408332059</v>
       </c>
       <c r="M17">
-        <v>0.7228889792957691</v>
+        <v>0.722888979295774</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7064275186729757</v>
+        <v>0.7064275186729808</v>
       </c>
       <c r="D18">
-        <v>0.7265429057151416</v>
+        <v>0.7265429057151466</v>
       </c>
       <c r="E18">
-        <v>0.7534966533114886</v>
+        <v>0.7534966533114932</v>
       </c>
       <c r="F18">
-        <v>0.6986257163214686</v>
+        <v>0.6986257163214739</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9920415040274851</v>
+        <v>0.9920415040274858</v>
       </c>
       <c r="J18">
-        <v>0.7564061388834282</v>
+        <v>0.7564061388834329</v>
       </c>
       <c r="K18">
-        <v>0.7494690102572785</v>
+        <v>0.7494690102572835</v>
       </c>
       <c r="L18">
-        <v>0.7752644408332016</v>
+        <v>0.7752644408332059</v>
       </c>
       <c r="M18">
-        <v>0.7228889792957691</v>
+        <v>0.722888979295774</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7064275186729757</v>
+        <v>0.7064275186729808</v>
       </c>
       <c r="D19">
-        <v>0.7265429057151416</v>
+        <v>0.7265429057151466</v>
       </c>
       <c r="E19">
-        <v>0.7534966533114886</v>
+        <v>0.7534966533114932</v>
       </c>
       <c r="F19">
-        <v>0.6986257163214686</v>
+        <v>0.6986257163214739</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9920415040274851</v>
+        <v>0.9920415040274858</v>
       </c>
       <c r="J19">
-        <v>0.7564061388834282</v>
+        <v>0.7564061388834329</v>
       </c>
       <c r="K19">
-        <v>0.7494690102572785</v>
+        <v>0.7494690102572835</v>
       </c>
       <c r="L19">
-        <v>0.7752644408332016</v>
+        <v>0.7752644408332059</v>
       </c>
       <c r="M19">
-        <v>0.7228889792957691</v>
+        <v>0.722888979295774</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7064275186729757</v>
+        <v>0.7064275186729808</v>
       </c>
       <c r="D20">
-        <v>0.7265429057151416</v>
+        <v>0.7265429057151466</v>
       </c>
       <c r="E20">
-        <v>0.7534966533114886</v>
+        <v>0.7534966533114932</v>
       </c>
       <c r="F20">
-        <v>0.6986257163214686</v>
+        <v>0.6986257163214739</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9920415040274851</v>
+        <v>0.9920415040274858</v>
       </c>
       <c r="J20">
-        <v>0.7564061388834282</v>
+        <v>0.7564061388834329</v>
       </c>
       <c r="K20">
-        <v>0.7494690102572785</v>
+        <v>0.7494690102572835</v>
       </c>
       <c r="L20">
-        <v>0.7752644408332016</v>
+        <v>0.7752644408332059</v>
       </c>
       <c r="M20">
-        <v>0.7228889792957691</v>
+        <v>0.722888979295774</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7064275186729757</v>
+        <v>0.7064275186729808</v>
       </c>
       <c r="D21">
-        <v>0.7265429057151416</v>
+        <v>0.7265429057151466</v>
       </c>
       <c r="E21">
-        <v>0.7534966533114886</v>
+        <v>0.7534966533114932</v>
       </c>
       <c r="F21">
-        <v>0.6986257163214686</v>
+        <v>0.6986257163214739</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9920415040274851</v>
+        <v>0.9920415040274858</v>
       </c>
       <c r="J21">
-        <v>0.7564061388834282</v>
+        <v>0.7564061388834329</v>
       </c>
       <c r="K21">
-        <v>0.7494690102572785</v>
+        <v>0.7494690102572835</v>
       </c>
       <c r="L21">
-        <v>0.7752644408332016</v>
+        <v>0.7752644408332059</v>
       </c>
       <c r="M21">
-        <v>0.7228889792957691</v>
+        <v>0.722888979295774</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7064275186729757</v>
+        <v>0.7064275186729808</v>
       </c>
       <c r="D22">
-        <v>0.7265429057151416</v>
+        <v>0.7265429057151466</v>
       </c>
       <c r="E22">
-        <v>0.7534966533114886</v>
+        <v>0.7534966533114932</v>
       </c>
       <c r="F22">
-        <v>0.6986257163214686</v>
+        <v>0.6986257163214739</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9920415040274851</v>
+        <v>0.9920415040274858</v>
       </c>
       <c r="J22">
-        <v>0.7564061388834282</v>
+        <v>0.7564061388834329</v>
       </c>
       <c r="K22">
-        <v>0.7494690102572785</v>
+        <v>0.7494690102572835</v>
       </c>
       <c r="L22">
-        <v>0.7752644408332016</v>
+        <v>0.7752644408332059</v>
       </c>
       <c r="M22">
-        <v>0.7228889792957691</v>
+        <v>0.722888979295774</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7064275186729757</v>
+        <v>0.7064275186729808</v>
       </c>
       <c r="D23">
-        <v>0.7265429057151416</v>
+        <v>0.7265429057151466</v>
       </c>
       <c r="E23">
-        <v>0.7534966533114886</v>
+        <v>0.7534966533114932</v>
       </c>
       <c r="F23">
-        <v>0.6986257163214686</v>
+        <v>0.6986257163214739</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9920415040274851</v>
+        <v>0.9920415040274858</v>
       </c>
       <c r="J23">
-        <v>0.7564061388834282</v>
+        <v>0.7564061388834329</v>
       </c>
       <c r="K23">
-        <v>0.7494690102572785</v>
+        <v>0.7494690102572835</v>
       </c>
       <c r="L23">
-        <v>0.7752644408332016</v>
+        <v>0.7752644408332059</v>
       </c>
       <c r="M23">
-        <v>0.7228889792957691</v>
+        <v>0.722888979295774</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7064275186729757</v>
+        <v>0.7064275186729808</v>
       </c>
       <c r="D24">
-        <v>0.7265429057151416</v>
+        <v>0.7265429057151466</v>
       </c>
       <c r="E24">
-        <v>0.7534966533114886</v>
+        <v>0.7534966533114932</v>
       </c>
       <c r="F24">
-        <v>0.6986257163214686</v>
+        <v>0.6986257163214739</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9920415040274851</v>
+        <v>0.9920415040274858</v>
       </c>
       <c r="J24">
-        <v>0.7564061388834282</v>
+        <v>0.7564061388834329</v>
       </c>
       <c r="K24">
-        <v>0.7494690102572785</v>
+        <v>0.7494690102572835</v>
       </c>
       <c r="L24">
-        <v>0.7752644408332016</v>
+        <v>0.7752644408332059</v>
       </c>
       <c r="M24">
-        <v>0.7228889792957691</v>
+        <v>0.722888979295774</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7064275186729757</v>
+        <v>0.7064275186729808</v>
       </c>
       <c r="D25">
-        <v>0.7265429057151416</v>
+        <v>0.7265429057151466</v>
       </c>
       <c r="E25">
-        <v>0.7534966533114886</v>
+        <v>0.7534966533114932</v>
       </c>
       <c r="F25">
-        <v>0.6986257163214686</v>
+        <v>0.6986257163214739</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9920415040274851</v>
+        <v>0.9920415040274858</v>
       </c>
       <c r="J25">
-        <v>0.7564061388834282</v>
+        <v>0.7564061388834329</v>
       </c>
       <c r="K25">
-        <v>0.7494690102572785</v>
+        <v>0.7494690102572835</v>
       </c>
       <c r="L25">
-        <v>0.7752644408332016</v>
+        <v>0.7752644408332059</v>
       </c>
       <c r="M25">
-        <v>0.7228889792957691</v>
+        <v>0.722888979295774</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8880439437592644</v>
+        <v>0.8881864158578167</v>
       </c>
       <c r="D2">
-        <v>0.8978548633363375</v>
+        <v>0.8979950761891002</v>
       </c>
       <c r="E2">
-        <v>0.9083392701746505</v>
+        <v>0.9084649166414732</v>
       </c>
       <c r="F2">
-        <v>0.8869582656023532</v>
+        <v>0.8870986961686318</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026765501628344</v>
+        <v>1.026786638843804</v>
       </c>
       <c r="J2">
-        <v>0.9141799288457334</v>
+        <v>0.9143164614698555</v>
       </c>
       <c r="K2">
-        <v>0.9109479927769238</v>
+        <v>0.9110856311757036</v>
       </c>
       <c r="L2">
-        <v>0.9212427407276729</v>
+        <v>0.9213661487554542</v>
       </c>
       <c r="M2">
-        <v>0.9002547229304085</v>
+        <v>0.9003924915583049</v>
+      </c>
+      <c r="N2">
+        <v>0.9440077110661896</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9101722690043232</v>
+        <v>0.9102816779479971</v>
       </c>
       <c r="D3">
-        <v>0.9189186834329653</v>
+        <v>0.9190266913616318</v>
       </c>
       <c r="E3">
-        <v>0.9274726250970834</v>
+        <v>0.9275694475659382</v>
       </c>
       <c r="F3">
-        <v>0.9099699527728644</v>
+        <v>0.9100774821622313</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031086739464597</v>
+        <v>1.031102823291752</v>
       </c>
       <c r="J3">
-        <v>0.9334520740862254</v>
+        <v>0.9335576157971225</v>
       </c>
       <c r="K3">
-        <v>0.9307061049961687</v>
+        <v>0.9308124015195376</v>
       </c>
       <c r="L3">
-        <v>0.9391260845286936</v>
+        <v>0.9392214087367742</v>
       </c>
       <c r="M3">
-        <v>0.9219009811315877</v>
+        <v>0.9220067633878729</v>
+      </c>
+      <c r="N3">
+        <v>0.957099514642246</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9231027026023044</v>
+        <v>0.9231947199956555</v>
       </c>
       <c r="D4">
-        <v>0.931239414214908</v>
+        <v>0.9313304047354019</v>
       </c>
       <c r="E4">
-        <v>0.9386735350012368</v>
+        <v>0.9387551359252598</v>
       </c>
       <c r="F4">
-        <v>0.9234360847313252</v>
+        <v>0.9235263842671256</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033580060272748</v>
+        <v>1.033593520095572</v>
       </c>
       <c r="J4">
-        <v>0.9447012968013162</v>
+        <v>0.9447903845312073</v>
       </c>
       <c r="K4">
-        <v>0.9422452467975796</v>
+        <v>0.9423349244480548</v>
       </c>
       <c r="L4">
-        <v>0.9495731641701367</v>
+        <v>0.9496536111467416</v>
       </c>
       <c r="M4">
-        <v>0.9345557311947211</v>
+        <v>0.934644699715057</v>
+      </c>
+      <c r="N4">
+        <v>0.9647411528317531</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9282651126514077</v>
+        <v>0.9283505222814353</v>
       </c>
       <c r="D5">
-        <v>0.9361607274983075</v>
+        <v>0.9362452378144502</v>
       </c>
       <c r="E5">
-        <v>0.9431495257947319</v>
+        <v>0.9432253324851914</v>
       </c>
       <c r="F5">
-        <v>0.9288170438330667</v>
+        <v>0.9289008118553443</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034566595132067</v>
+        <v>1.034579064671061</v>
       </c>
       <c r="J5">
-        <v>0.9491891317595564</v>
+        <v>0.9492719384502252</v>
       </c>
       <c r="K5">
-        <v>0.9468502079225943</v>
+        <v>0.9469335457954963</v>
       </c>
       <c r="L5">
-        <v>0.9537429414986607</v>
+        <v>0.9538177160097612</v>
       </c>
       <c r="M5">
-        <v>0.9396094358804118</v>
+        <v>0.9396920184112311</v>
+      </c>
+      <c r="N5">
+        <v>0.9677895677763673</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9291172333331226</v>
+        <v>0.9292015693300055</v>
       </c>
       <c r="D6">
-        <v>0.9369731740873729</v>
+        <v>0.9370566307252339</v>
       </c>
       <c r="E6">
-        <v>0.9438885649861688</v>
+        <v>0.9439634296579028</v>
       </c>
       <c r="F6">
-        <v>0.9297055138803141</v>
+        <v>0.9297882214521566</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034728877766047</v>
+        <v>1.03474118676019</v>
       </c>
       <c r="J6">
-        <v>0.9499296972818178</v>
+        <v>0.9500114818483485</v>
       </c>
       <c r="K6">
-        <v>0.9476101865838182</v>
+        <v>0.9476924930003103</v>
       </c>
       <c r="L6">
-        <v>0.9544311355312598</v>
+        <v>0.9545049873159382</v>
       </c>
       <c r="M6">
-        <v>0.9404436915304056</v>
+        <v>0.9405252365830631</v>
+      </c>
+      <c r="N6">
+        <v>0.9682925908355243</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9231726938300698</v>
+        <v>0.9232646204214778</v>
       </c>
       <c r="D7">
-        <v>0.9313061280836635</v>
+        <v>0.9313970296101682</v>
       </c>
       <c r="E7">
-        <v>0.9387342044364945</v>
+        <v>0.938815725778689</v>
       </c>
       <c r="F7">
-        <v>0.9235090203048956</v>
+        <v>0.9235992300301189</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033593472785472</v>
+        <v>1.033606918974673</v>
       </c>
       <c r="J7">
-        <v>0.944762156171905</v>
+        <v>0.9448511577018471</v>
       </c>
       <c r="K7">
-        <v>0.9423076886852775</v>
+        <v>0.9423972793136371</v>
       </c>
       <c r="L7">
-        <v>0.9496297026349679</v>
+        <v>0.9497100717379104</v>
       </c>
       <c r="M7">
-        <v>0.9346242432553902</v>
+        <v>0.934713124012754</v>
+      </c>
+      <c r="N7">
+        <v>0.9647824932096026</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8958520318900677</v>
+        <v>0.8959823052638189</v>
       </c>
       <c r="D8">
-        <v>0.9052841178362492</v>
+        <v>0.9054124702963755</v>
       </c>
       <c r="E8">
-        <v>0.9150853668448763</v>
+        <v>0.915200395731589</v>
       </c>
       <c r="F8">
-        <v>0.8950737310534445</v>
+        <v>0.8952020015130362</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028296336104878</v>
+        <v>1.028315599572621</v>
       </c>
       <c r="J8">
-        <v>0.9209825795901967</v>
+        <v>0.9211077201542414</v>
       </c>
       <c r="K8">
-        <v>0.9179207638620883</v>
+        <v>0.9180468753562242</v>
       </c>
       <c r="L8">
-        <v>0.9275532235241756</v>
+        <v>0.9276662991828821</v>
       </c>
       <c r="M8">
-        <v>0.9078913208288543</v>
+        <v>0.9080172848717746</v>
+      </c>
+      <c r="N8">
+        <v>0.9486287253199602</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8325794821701458</v>
+        <v>0.8328328999691959</v>
       </c>
       <c r="D9">
-        <v>0.8451991605296021</v>
+        <v>0.8454462423902711</v>
       </c>
       <c r="E9">
-        <v>0.8605961778235357</v>
+        <v>0.8608175674478736</v>
       </c>
       <c r="F9">
-        <v>0.8294082935818681</v>
+        <v>0.8296602634836197</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015829991140298</v>
+        <v>1.015868543493112</v>
       </c>
       <c r="J9">
-        <v>0.8658326728744781</v>
+        <v>0.8660709574866671</v>
       </c>
       <c r="K9">
-        <v>0.8614268205213099</v>
+        <v>0.8616676618649989</v>
       </c>
       <c r="L9">
-        <v>0.8764441470698158</v>
+        <v>0.8766602102189462</v>
       </c>
       <c r="M9">
-        <v>0.8460452623586713</v>
+        <v>0.8462905348843746</v>
+      </c>
+      <c r="N9">
+        <v>0.9111811163202412</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7643527630184216</v>
+        <v>0.7648727495369668</v>
       </c>
       <c r="D10">
-        <v>0.7807900162160604</v>
+        <v>0.781289206573778</v>
       </c>
       <c r="E10">
-        <v>0.8023705356320325</v>
+        <v>0.8028179370199245</v>
       </c>
       <c r="F10">
-        <v>0.758717449727033</v>
+        <v>0.7592417306478997</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.002637787702709</v>
+        <v>1.002719376706252</v>
       </c>
       <c r="J10">
-        <v>0.8064810856246244</v>
+        <v>0.8069557906703705</v>
       </c>
       <c r="K10">
-        <v>0.8006899881064941</v>
+        <v>0.8011716197888358</v>
       </c>
       <c r="L10">
-        <v>0.8215390611375835</v>
+        <v>0.8219718752980446</v>
       </c>
       <c r="M10">
-        <v>0.7794264654390696</v>
+        <v>0.7799307594740512</v>
+      </c>
+      <c r="N10">
+        <v>0.8709873232144378</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7064275186729808</v>
+        <v>0.7076800412817223</v>
       </c>
       <c r="D11">
-        <v>0.7265429057151466</v>
+        <v>0.7277237637317068</v>
       </c>
       <c r="E11">
-        <v>0.7534966533114932</v>
+        <v>0.7545551562985038</v>
       </c>
       <c r="F11">
-        <v>0.6986257163214739</v>
+        <v>0.6999088621434406</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9920415040274858</v>
+        <v>0.9922422543566596</v>
       </c>
       <c r="J11">
-        <v>0.7564061388834329</v>
+        <v>0.7575131199517585</v>
       </c>
       <c r="K11">
-        <v>0.7494690102572835</v>
+        <v>0.7505965415158879</v>
       </c>
       <c r="L11">
-        <v>0.7752644408332059</v>
+        <v>0.7762798473206699</v>
       </c>
       <c r="M11">
-        <v>0.722888979295774</v>
+        <v>0.7241072724340173</v>
+      </c>
+      <c r="N11">
+        <v>0.8374194558882883</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7064275186729808</v>
+        <v>0.7076800412817223</v>
       </c>
       <c r="D12">
-        <v>0.7265429057151466</v>
+        <v>0.7277237637317068</v>
       </c>
       <c r="E12">
-        <v>0.7534966533114932</v>
+        <v>0.7545551562985038</v>
       </c>
       <c r="F12">
-        <v>0.6986257163214739</v>
+        <v>0.6999088621434406</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9920415040274858</v>
+        <v>0.9922422543566596</v>
       </c>
       <c r="J12">
-        <v>0.7564061388834329</v>
+        <v>0.7575131199517585</v>
       </c>
       <c r="K12">
-        <v>0.7494690102572835</v>
+        <v>0.7505965415158879</v>
       </c>
       <c r="L12">
-        <v>0.7752644408332059</v>
+        <v>0.7762798473206699</v>
       </c>
       <c r="M12">
-        <v>0.722888979295774</v>
+        <v>0.7241072724340173</v>
+      </c>
+      <c r="N12">
+        <v>0.8374194558882883</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7064275186729808</v>
+        <v>0.7076800412817223</v>
       </c>
       <c r="D13">
-        <v>0.7265429057151466</v>
+        <v>0.7277237637317068</v>
       </c>
       <c r="E13">
-        <v>0.7534966533114932</v>
+        <v>0.7545551562985038</v>
       </c>
       <c r="F13">
-        <v>0.6986257163214739</v>
+        <v>0.6999088621434406</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9920415040274858</v>
+        <v>0.9922422543566596</v>
       </c>
       <c r="J13">
-        <v>0.7564061388834329</v>
+        <v>0.7575131199517585</v>
       </c>
       <c r="K13">
-        <v>0.7494690102572835</v>
+        <v>0.7505965415158879</v>
       </c>
       <c r="L13">
-        <v>0.7752644408332059</v>
+        <v>0.7762798473206699</v>
       </c>
       <c r="M13">
-        <v>0.722888979295774</v>
+        <v>0.7241072724340173</v>
+      </c>
+      <c r="N13">
+        <v>0.8374194558882883</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7064275186729808</v>
+        <v>0.7076800412817223</v>
       </c>
       <c r="D14">
-        <v>0.7265429057151466</v>
+        <v>0.7277237637317068</v>
       </c>
       <c r="E14">
-        <v>0.7534966533114932</v>
+        <v>0.7545551562985038</v>
       </c>
       <c r="F14">
-        <v>0.6986257163214739</v>
+        <v>0.6999088621434406</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9920415040274858</v>
+        <v>0.9922422543566596</v>
       </c>
       <c r="J14">
-        <v>0.7564061388834329</v>
+        <v>0.7575131199517585</v>
       </c>
       <c r="K14">
-        <v>0.7494690102572835</v>
+        <v>0.7505965415158879</v>
       </c>
       <c r="L14">
-        <v>0.7752644408332059</v>
+        <v>0.7762798473206699</v>
       </c>
       <c r="M14">
-        <v>0.722888979295774</v>
+        <v>0.7241072724340173</v>
+      </c>
+      <c r="N14">
+        <v>0.8374194558882883</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7064275186729808</v>
+        <v>0.7076800412817223</v>
       </c>
       <c r="D15">
-        <v>0.7265429057151466</v>
+        <v>0.7277237637317068</v>
       </c>
       <c r="E15">
-        <v>0.7534966533114932</v>
+        <v>0.7545551562985038</v>
       </c>
       <c r="F15">
-        <v>0.6986257163214739</v>
+        <v>0.6999088621434406</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9920415040274858</v>
+        <v>0.9922422543566596</v>
       </c>
       <c r="J15">
-        <v>0.7564061388834329</v>
+        <v>0.7575131199517585</v>
       </c>
       <c r="K15">
-        <v>0.7494690102572835</v>
+        <v>0.7505965415158879</v>
       </c>
       <c r="L15">
-        <v>0.7752644408332059</v>
+        <v>0.7762798473206699</v>
       </c>
       <c r="M15">
-        <v>0.722888979295774</v>
+        <v>0.7241072724340173</v>
+      </c>
+      <c r="N15">
+        <v>0.8374194558882883</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7064275186729808</v>
+        <v>0.7076800412817223</v>
       </c>
       <c r="D16">
-        <v>0.7265429057151466</v>
+        <v>0.7277237637317068</v>
       </c>
       <c r="E16">
-        <v>0.7534966533114932</v>
+        <v>0.7545551562985038</v>
       </c>
       <c r="F16">
-        <v>0.6986257163214739</v>
+        <v>0.6999088621434406</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9920415040274858</v>
+        <v>0.9922422543566596</v>
       </c>
       <c r="J16">
-        <v>0.7564061388834329</v>
+        <v>0.7575131199517585</v>
       </c>
       <c r="K16">
-        <v>0.7494690102572835</v>
+        <v>0.7505965415158879</v>
       </c>
       <c r="L16">
-        <v>0.7752644408332059</v>
+        <v>0.7762798473206699</v>
       </c>
       <c r="M16">
-        <v>0.722888979295774</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.7241072724340173</v>
+      </c>
+      <c r="N16">
+        <v>0.8374194558882883</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7064275186729808</v>
+        <v>0.7076800412817223</v>
       </c>
       <c r="D17">
-        <v>0.7265429057151466</v>
+        <v>0.7277237637317068</v>
       </c>
       <c r="E17">
-        <v>0.7534966533114932</v>
+        <v>0.7545551562985038</v>
       </c>
       <c r="F17">
-        <v>0.6986257163214739</v>
+        <v>0.6999088621434406</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9920415040274858</v>
+        <v>0.9922422543566596</v>
       </c>
       <c r="J17">
-        <v>0.7564061388834329</v>
+        <v>0.7575131199517585</v>
       </c>
       <c r="K17">
-        <v>0.7494690102572835</v>
+        <v>0.7505965415158879</v>
       </c>
       <c r="L17">
-        <v>0.7752644408332059</v>
+        <v>0.7762798473206699</v>
       </c>
       <c r="M17">
-        <v>0.722888979295774</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.7241072724340173</v>
+      </c>
+      <c r="N17">
+        <v>0.8374194558882883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7064275186729808</v>
+        <v>0.7076800412817223</v>
       </c>
       <c r="D18">
-        <v>0.7265429057151466</v>
+        <v>0.7277237637317068</v>
       </c>
       <c r="E18">
-        <v>0.7534966533114932</v>
+        <v>0.7545551562985038</v>
       </c>
       <c r="F18">
-        <v>0.6986257163214739</v>
+        <v>0.6999088621434406</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9920415040274858</v>
+        <v>0.9922422543566596</v>
       </c>
       <c r="J18">
-        <v>0.7564061388834329</v>
+        <v>0.7575131199517585</v>
       </c>
       <c r="K18">
-        <v>0.7494690102572835</v>
+        <v>0.7505965415158879</v>
       </c>
       <c r="L18">
-        <v>0.7752644408332059</v>
+        <v>0.7762798473206699</v>
       </c>
       <c r="M18">
-        <v>0.722888979295774</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.7241072724340173</v>
+      </c>
+      <c r="N18">
+        <v>0.8374194558882883</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7064275186729808</v>
+        <v>0.7076800412817223</v>
       </c>
       <c r="D19">
-        <v>0.7265429057151466</v>
+        <v>0.7277237637317068</v>
       </c>
       <c r="E19">
-        <v>0.7534966533114932</v>
+        <v>0.7545551562985038</v>
       </c>
       <c r="F19">
-        <v>0.6986257163214739</v>
+        <v>0.6999088621434406</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9920415040274858</v>
+        <v>0.9922422543566596</v>
       </c>
       <c r="J19">
-        <v>0.7564061388834329</v>
+        <v>0.7575131199517585</v>
       </c>
       <c r="K19">
-        <v>0.7494690102572835</v>
+        <v>0.7505965415158879</v>
       </c>
       <c r="L19">
-        <v>0.7752644408332059</v>
+        <v>0.7762798473206699</v>
       </c>
       <c r="M19">
-        <v>0.722888979295774</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.7241072724340173</v>
+      </c>
+      <c r="N19">
+        <v>0.8374194558882883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7064275186729808</v>
+        <v>0.7076800412817223</v>
       </c>
       <c r="D20">
-        <v>0.7265429057151466</v>
+        <v>0.7277237637317068</v>
       </c>
       <c r="E20">
-        <v>0.7534966533114932</v>
+        <v>0.7545551562985038</v>
       </c>
       <c r="F20">
-        <v>0.6986257163214739</v>
+        <v>0.6999088621434406</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9920415040274858</v>
+        <v>0.9922422543566596</v>
       </c>
       <c r="J20">
-        <v>0.7564061388834329</v>
+        <v>0.7575131199517585</v>
       </c>
       <c r="K20">
-        <v>0.7494690102572835</v>
+        <v>0.7505965415158879</v>
       </c>
       <c r="L20">
-        <v>0.7752644408332059</v>
+        <v>0.7762798473206699</v>
       </c>
       <c r="M20">
-        <v>0.722888979295774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.7241072724340173</v>
+      </c>
+      <c r="N20">
+        <v>0.8374194558882883</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7064275186729808</v>
+        <v>0.7076800412817223</v>
       </c>
       <c r="D21">
-        <v>0.7265429057151466</v>
+        <v>0.7277237637317068</v>
       </c>
       <c r="E21">
-        <v>0.7534966533114932</v>
+        <v>0.7545551562985038</v>
       </c>
       <c r="F21">
-        <v>0.6986257163214739</v>
+        <v>0.6999088621434406</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9920415040274858</v>
+        <v>0.9922422543566596</v>
       </c>
       <c r="J21">
-        <v>0.7564061388834329</v>
+        <v>0.7575131199517585</v>
       </c>
       <c r="K21">
-        <v>0.7494690102572835</v>
+        <v>0.7505965415158879</v>
       </c>
       <c r="L21">
-        <v>0.7752644408332059</v>
+        <v>0.7762798473206699</v>
       </c>
       <c r="M21">
-        <v>0.722888979295774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7241072724340173</v>
+      </c>
+      <c r="N21">
+        <v>0.8374194558882883</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7064275186729808</v>
+        <v>0.7076800412817223</v>
       </c>
       <c r="D22">
-        <v>0.7265429057151466</v>
+        <v>0.7277237637317068</v>
       </c>
       <c r="E22">
-        <v>0.7534966533114932</v>
+        <v>0.7545551562985038</v>
       </c>
       <c r="F22">
-        <v>0.6986257163214739</v>
+        <v>0.6999088621434406</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9920415040274858</v>
+        <v>0.9922422543566596</v>
       </c>
       <c r="J22">
-        <v>0.7564061388834329</v>
+        <v>0.7575131199517585</v>
       </c>
       <c r="K22">
-        <v>0.7494690102572835</v>
+        <v>0.7505965415158879</v>
       </c>
       <c r="L22">
-        <v>0.7752644408332059</v>
+        <v>0.7762798473206699</v>
       </c>
       <c r="M22">
-        <v>0.722888979295774</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7241072724340173</v>
+      </c>
+      <c r="N22">
+        <v>0.8374194558882883</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7064275186729808</v>
+        <v>0.7076800412817223</v>
       </c>
       <c r="D23">
-        <v>0.7265429057151466</v>
+        <v>0.7277237637317068</v>
       </c>
       <c r="E23">
-        <v>0.7534966533114932</v>
+        <v>0.7545551562985038</v>
       </c>
       <c r="F23">
-        <v>0.6986257163214739</v>
+        <v>0.6999088621434406</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9920415040274858</v>
+        <v>0.9922422543566596</v>
       </c>
       <c r="J23">
-        <v>0.7564061388834329</v>
+        <v>0.7575131199517585</v>
       </c>
       <c r="K23">
-        <v>0.7494690102572835</v>
+        <v>0.7505965415158879</v>
       </c>
       <c r="L23">
-        <v>0.7752644408332059</v>
+        <v>0.7762798473206699</v>
       </c>
       <c r="M23">
-        <v>0.722888979295774</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7241072724340173</v>
+      </c>
+      <c r="N23">
+        <v>0.8374194558882883</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7064275186729808</v>
+        <v>0.7076800412817223</v>
       </c>
       <c r="D24">
-        <v>0.7265429057151466</v>
+        <v>0.7277237637317068</v>
       </c>
       <c r="E24">
-        <v>0.7534966533114932</v>
+        <v>0.7545551562985038</v>
       </c>
       <c r="F24">
-        <v>0.6986257163214739</v>
+        <v>0.6999088621434406</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9920415040274858</v>
+        <v>0.9922422543566596</v>
       </c>
       <c r="J24">
-        <v>0.7564061388834329</v>
+        <v>0.7575131199517585</v>
       </c>
       <c r="K24">
-        <v>0.7494690102572835</v>
+        <v>0.7505965415158879</v>
       </c>
       <c r="L24">
-        <v>0.7752644408332059</v>
+        <v>0.7762798473206699</v>
       </c>
       <c r="M24">
-        <v>0.722888979295774</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7241072724340173</v>
+      </c>
+      <c r="N24">
+        <v>0.8374194558882883</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7064275186729808</v>
+        <v>0.7076800412817223</v>
       </c>
       <c r="D25">
-        <v>0.7265429057151466</v>
+        <v>0.7277237637317068</v>
       </c>
       <c r="E25">
-        <v>0.7534966533114932</v>
+        <v>0.7545551562985038</v>
       </c>
       <c r="F25">
-        <v>0.6986257163214739</v>
+        <v>0.6999088621434406</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9920415040274858</v>
+        <v>0.9922422543566596</v>
       </c>
       <c r="J25">
-        <v>0.7564061388834329</v>
+        <v>0.7575131199517585</v>
       </c>
       <c r="K25">
-        <v>0.7494690102572835</v>
+        <v>0.7505965415158879</v>
       </c>
       <c r="L25">
-        <v>0.7752644408332059</v>
+        <v>0.7762798473206699</v>
       </c>
       <c r="M25">
-        <v>0.722888979295774</v>
+        <v>0.7241072724340173</v>
+      </c>
+      <c r="N25">
+        <v>0.8374194558882883</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
@@ -418,40 +418,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.8881864158578167</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8979950761891002</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.9084649166414732</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8870986961686318</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.026786638843804</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.9143164614698555</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9110856311757036</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9213661487554542</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9003924915583049</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9440077110661896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +465,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9102816779479971</v>
+        <v>0.9098563192556833</v>
       </c>
       <c r="D3">
-        <v>0.9190266913616318</v>
+        <v>0.9232601651129982</v>
       </c>
       <c r="E3">
-        <v>0.9275694475659382</v>
+        <v>0.929125513862071</v>
       </c>
       <c r="F3">
-        <v>0.9100774821622313</v>
+        <v>0.9261206557085275</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031102823291752</v>
+        <v>1.031053498880402</v>
       </c>
       <c r="J3">
-        <v>0.9335576157971225</v>
+        <v>0.9331472993913724</v>
       </c>
       <c r="K3">
-        <v>0.9308124015195376</v>
+        <v>0.934979198556539</v>
       </c>
       <c r="L3">
-        <v>0.9392214087367742</v>
+        <v>0.9407534506678136</v>
       </c>
       <c r="M3">
-        <v>0.9220067633878729</v>
+        <v>0.9377950777509824</v>
       </c>
       <c r="N3">
-        <v>0.957099514642246</v>
+        <v>0.9344724755899996</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +506,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9231947199956555</v>
+        <v>0.9524425344644252</v>
       </c>
       <c r="D4">
-        <v>0.9313304047354019</v>
+        <v>0.9648979869898765</v>
       </c>
       <c r="E4">
-        <v>0.9387551359252598</v>
+        <v>0.9673667615940126</v>
       </c>
       <c r="F4">
-        <v>0.9235263842671256</v>
+        <v>0.9671542931718483</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033593520095572</v>
+        <v>1.037159856106778</v>
       </c>
       <c r="J4">
-        <v>0.9447903845312073</v>
+        <v>0.9731462900705323</v>
       </c>
       <c r="K4">
-        <v>0.9423349244480548</v>
+        <v>0.9754393749847968</v>
       </c>
       <c r="L4">
-        <v>0.9496536111467416</v>
+        <v>0.9778756787432746</v>
       </c>
       <c r="M4">
-        <v>0.934644699715057</v>
+        <v>0.9776659966658101</v>
       </c>
       <c r="N4">
-        <v>0.9647411528317531</v>
+        <v>0.9745282694238719</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +547,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9283505222814353</v>
+        <v>0.9672815328173516</v>
       </c>
       <c r="D5">
-        <v>0.9362452378144502</v>
+        <v>0.9794131273920191</v>
       </c>
       <c r="E5">
-        <v>0.9432253324851914</v>
+        <v>0.9807025482966629</v>
       </c>
       <c r="F5">
-        <v>0.9289008118553443</v>
+        <v>0.9814541081083253</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034579064671061</v>
+        <v>1.039302594600755</v>
       </c>
       <c r="J5">
-        <v>0.9492719384502252</v>
+        <v>0.9870815225683155</v>
       </c>
       <c r="K5">
-        <v>0.9469335457954963</v>
+        <v>0.9895355164373328</v>
       </c>
       <c r="L5">
-        <v>0.9538177160097612</v>
+        <v>0.9908089877546314</v>
       </c>
       <c r="M5">
-        <v>0.9396920184112311</v>
+        <v>0.9915512751509089</v>
       </c>
       <c r="N5">
-        <v>0.9677895677763673</v>
+        <v>0.9884832915501957</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +588,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9292015693300055</v>
+        <v>0.969645874484153</v>
       </c>
       <c r="D6">
-        <v>0.9370566307252339</v>
+        <v>0.9817260867098729</v>
       </c>
       <c r="E6">
-        <v>0.9439634296579028</v>
+        <v>0.9828277785762365</v>
       </c>
       <c r="F6">
-        <v>0.9297882214521566</v>
+        <v>0.9837324088021685</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03474118676019</v>
+        <v>1.03964435834997</v>
       </c>
       <c r="J6">
-        <v>0.9500114818483485</v>
+        <v>0.9893016276706081</v>
       </c>
       <c r="K6">
-        <v>0.9476924930003103</v>
+        <v>0.9917812452815226</v>
       </c>
       <c r="L6">
-        <v>0.9545049873159382</v>
+        <v>0.9928694449253076</v>
       </c>
       <c r="M6">
-        <v>0.9405252365830631</v>
+        <v>0.9937630243950926</v>
       </c>
       <c r="N6">
-        <v>0.9682925908355243</v>
+        <v>0.990706549456383</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +629,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9232646204214778</v>
+        <v>0.9526501825236916</v>
       </c>
       <c r="D7">
-        <v>0.9313970296101682</v>
+        <v>0.9651010847963682</v>
       </c>
       <c r="E7">
-        <v>0.938815725778689</v>
+        <v>0.9675533423455948</v>
       </c>
       <c r="F7">
-        <v>0.9235992300301189</v>
+        <v>0.9673544013875023</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033606918974673</v>
+        <v>1.037189805765713</v>
       </c>
       <c r="J7">
-        <v>0.9448511577018471</v>
+        <v>0.9733413062954263</v>
       </c>
       <c r="K7">
-        <v>0.9423972793136371</v>
+        <v>0.9756366434246743</v>
       </c>
       <c r="L7">
-        <v>0.9497100717379104</v>
+        <v>0.9780566746184133</v>
       </c>
       <c r="M7">
-        <v>0.934713124012754</v>
+        <v>0.977860340412096</v>
       </c>
       <c r="N7">
-        <v>0.9647824932096026</v>
+        <v>0.9747235625941741</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +670,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8959823052638189</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D8">
-        <v>0.9054124702963755</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E8">
-        <v>0.915200395731589</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F8">
-        <v>0.8952020015130362</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028315599572621</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J8">
-        <v>0.9211077201542414</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K8">
-        <v>0.9180468753562242</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L8">
-        <v>0.9276662991828821</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M8">
-        <v>0.9080172848717746</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N8">
-        <v>0.9486287253199602</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +711,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8328328999691959</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D9">
-        <v>0.8454462423902711</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E9">
-        <v>0.8608175674478736</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F9">
-        <v>0.8296602634836197</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.015868543493112</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J9">
-        <v>0.8660709574866671</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K9">
-        <v>0.8616676618649989</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L9">
-        <v>0.8766602102189462</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M9">
-        <v>0.8462905348843746</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N9">
-        <v>0.9111811163202412</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +752,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7648727495369668</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D10">
-        <v>0.781289206573778</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E10">
-        <v>0.8028179370199245</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F10">
-        <v>0.7592417306478997</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.002719376706252</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J10">
-        <v>0.8069557906703705</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K10">
-        <v>0.8011716197888358</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L10">
-        <v>0.8219718752980446</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M10">
-        <v>0.7799307594740512</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N10">
-        <v>0.8709873232144378</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +793,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7076800412817223</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D11">
-        <v>0.7277237637317068</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E11">
-        <v>0.7545551562985038</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F11">
-        <v>0.6999088621434406</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9922422543566596</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J11">
-        <v>0.7575131199517585</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K11">
-        <v>0.7505965415158879</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L11">
-        <v>0.7762798473206699</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M11">
-        <v>0.7241072724340173</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N11">
-        <v>0.8374194558882883</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +834,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7076800412817223</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D12">
-        <v>0.7277237637317068</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E12">
-        <v>0.7545551562985038</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F12">
-        <v>0.6999088621434406</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9922422543566596</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J12">
-        <v>0.7575131199517585</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K12">
-        <v>0.7505965415158879</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L12">
-        <v>0.7762798473206699</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M12">
-        <v>0.7241072724340173</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N12">
-        <v>0.8374194558882883</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +875,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7076800412817223</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D13">
-        <v>0.7277237637317068</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E13">
-        <v>0.7545551562985038</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F13">
-        <v>0.6999088621434406</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9922422543566596</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J13">
-        <v>0.7575131199517585</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K13">
-        <v>0.7505965415158879</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L13">
-        <v>0.7762798473206699</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M13">
-        <v>0.7241072724340173</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N13">
-        <v>0.8374194558882883</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +916,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7076800412817223</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D14">
-        <v>0.7277237637317068</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E14">
-        <v>0.7545551562985038</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F14">
-        <v>0.6999088621434406</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9922422543566596</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J14">
-        <v>0.7575131199517585</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K14">
-        <v>0.7505965415158879</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L14">
-        <v>0.7762798473206699</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M14">
-        <v>0.7241072724340173</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N14">
-        <v>0.8374194558882883</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +957,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7076800412817223</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D15">
-        <v>0.7277237637317068</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E15">
-        <v>0.7545551562985038</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F15">
-        <v>0.6999088621434406</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9922422543566596</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J15">
-        <v>0.7575131199517585</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K15">
-        <v>0.7505965415158879</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L15">
-        <v>0.7762798473206699</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M15">
-        <v>0.7241072724340173</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N15">
-        <v>0.8374194558882883</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +998,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7076800412817223</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D16">
-        <v>0.7277237637317068</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E16">
-        <v>0.7545551562985038</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F16">
-        <v>0.6999088621434406</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9922422543566596</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J16">
-        <v>0.7575131199517585</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K16">
-        <v>0.7505965415158879</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L16">
-        <v>0.7762798473206699</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M16">
-        <v>0.7241072724340173</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N16">
-        <v>0.8374194558882883</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1039,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7076800412817223</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D17">
-        <v>0.7277237637317068</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E17">
-        <v>0.7545551562985038</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F17">
-        <v>0.6999088621434406</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0.9922422543566596</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J17">
-        <v>0.7575131199517585</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K17">
-        <v>0.7505965415158879</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L17">
-        <v>0.7762798473206699</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M17">
-        <v>0.7241072724340173</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N17">
-        <v>0.8374194558882883</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1080,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.7076800412817223</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D18">
-        <v>0.7277237637317068</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E18">
-        <v>0.7545551562985038</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F18">
-        <v>0.6999088621434406</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0.9922422543566596</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J18">
-        <v>0.7575131199517585</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K18">
-        <v>0.7505965415158879</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L18">
-        <v>0.7762798473206699</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M18">
-        <v>0.7241072724340173</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N18">
-        <v>0.8374194558882883</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1121,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.7076800412817223</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D19">
-        <v>0.7277237637317068</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E19">
-        <v>0.7545551562985038</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F19">
-        <v>0.6999088621434406</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0.9922422543566596</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J19">
-        <v>0.7575131199517585</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K19">
-        <v>0.7505965415158879</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L19">
-        <v>0.7762798473206699</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M19">
-        <v>0.7241072724340173</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N19">
-        <v>0.8374194558882883</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1162,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7076800412817223</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D20">
-        <v>0.7277237637317068</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E20">
-        <v>0.7545551562985038</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F20">
-        <v>0.6999088621434406</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0.9922422543566596</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J20">
-        <v>0.7575131199517585</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K20">
-        <v>0.7505965415158879</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L20">
-        <v>0.7762798473206699</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M20">
-        <v>0.7241072724340173</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N20">
-        <v>0.8374194558882883</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1203,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7076800412817223</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D21">
-        <v>0.7277237637317068</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E21">
-        <v>0.7545551562985038</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F21">
-        <v>0.6999088621434406</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9922422543566596</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J21">
-        <v>0.7575131199517585</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K21">
-        <v>0.7505965415158879</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L21">
-        <v>0.7762798473206699</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M21">
-        <v>0.7241072724340173</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N21">
-        <v>0.8374194558882883</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1244,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7076800412817223</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D22">
-        <v>0.7277237637317068</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E22">
-        <v>0.7545551562985038</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F22">
-        <v>0.6999088621434406</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9922422543566596</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J22">
-        <v>0.7575131199517585</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K22">
-        <v>0.7505965415158879</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L22">
-        <v>0.7762798473206699</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M22">
-        <v>0.7241072724340173</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N22">
-        <v>0.8374194558882883</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1285,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7076800412817223</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D23">
-        <v>0.7277237637317068</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E23">
-        <v>0.7545551562985038</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F23">
-        <v>0.6999088621434406</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9922422543566596</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J23">
-        <v>0.7575131199517585</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K23">
-        <v>0.7505965415158879</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L23">
-        <v>0.7762798473206699</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M23">
-        <v>0.7241072724340173</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N23">
-        <v>0.8374194558882883</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1326,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7076800412817223</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D24">
-        <v>0.7277237637317068</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E24">
-        <v>0.7545551562985038</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F24">
-        <v>0.6999088621434406</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9922422543566596</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J24">
-        <v>0.7575131199517585</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K24">
-        <v>0.7505965415158879</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L24">
-        <v>0.7762798473206699</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M24">
-        <v>0.7241072724340173</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N24">
-        <v>0.8374194558882883</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1367,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7076800412817223</v>
+        <v>0.8416041122495734</v>
       </c>
       <c r="D25">
-        <v>0.7277237637317068</v>
+        <v>0.8566265766754461</v>
       </c>
       <c r="E25">
-        <v>0.7545551562985038</v>
+        <v>0.8679803674827742</v>
       </c>
       <c r="F25">
-        <v>0.6999088621434406</v>
+        <v>0.8604594108808707</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9922422543566596</v>
+        <v>1.021525201609892</v>
       </c>
       <c r="J25">
-        <v>0.7575131199517585</v>
+        <v>0.8690721458743942</v>
       </c>
       <c r="K25">
-        <v>0.7505965415158879</v>
+        <v>0.8701764828037828</v>
       </c>
       <c r="L25">
-        <v>0.7762798473206699</v>
+        <v>0.881305160587306</v>
       </c>
       <c r="M25">
-        <v>0.7241072724340173</v>
+        <v>0.8739324495047973</v>
       </c>
       <c r="N25">
-        <v>0.8374194558882883</v>
+        <v>0.870306328005504</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
@@ -418,43 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9892431606847334</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.997732459574161</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9971782079666002</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.9978860855766711</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.039756466638764</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.011750437137771</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.00922347549305</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.008676995324949</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.0093749493576</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.007864228144587</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9098563192556833</v>
+        <v>0.9934510519752141</v>
       </c>
       <c r="D3">
-        <v>0.9232601651129982</v>
+        <v>1.001287246373024</v>
       </c>
       <c r="E3">
-        <v>0.929125513862071</v>
+        <v>1.00050258346334</v>
       </c>
       <c r="F3">
-        <v>0.9261206557085275</v>
+        <v>1.002842625025613</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031053498880402</v>
+        <v>1.040608740943407</v>
       </c>
       <c r="J3">
-        <v>0.9331472993913724</v>
+        <v>1.014121854134143</v>
       </c>
       <c r="K3">
-        <v>0.934979198556539</v>
+        <v>1.011903683095483</v>
       </c>
       <c r="L3">
-        <v>0.9407534506678136</v>
+        <v>1.011129037676805</v>
       </c>
       <c r="M3">
-        <v>0.9377950777509824</v>
+        <v>1.013439262686632</v>
       </c>
       <c r="N3">
-        <v>0.9344724755899996</v>
+        <v>1.008664797884361</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -506,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9524425344644252</v>
+        <v>0.9961197605630014</v>
       </c>
       <c r="D4">
-        <v>0.9648979869898765</v>
+        <v>1.003546957317165</v>
       </c>
       <c r="E4">
-        <v>0.9673667615940126</v>
+        <v>1.002617112698982</v>
       </c>
       <c r="F4">
-        <v>0.9671542931718483</v>
+        <v>1.005986107298029</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037159856106778</v>
+        <v>1.041137652801103</v>
       </c>
       <c r="J4">
-        <v>0.9731462900705323</v>
+        <v>1.015623246780191</v>
       </c>
       <c r="K4">
-        <v>0.9754393749847968</v>
+        <v>1.013602761364834</v>
       </c>
       <c r="L4">
-        <v>0.9778756787432746</v>
+        <v>1.012684053769319</v>
       </c>
       <c r="M4">
-        <v>0.9776659966658101</v>
+        <v>1.016012818200356</v>
       </c>
       <c r="N4">
-        <v>0.9745282694238719</v>
+        <v>1.00917142986072</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -547,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9672815328173516</v>
+        <v>0.9972291799517038</v>
       </c>
       <c r="D5">
-        <v>0.9794131273920191</v>
+        <v>1.004487564794871</v>
       </c>
       <c r="E5">
-        <v>0.9807025482966629</v>
+        <v>1.00349758868192</v>
       </c>
       <c r="F5">
-        <v>0.9814541081083253</v>
+        <v>1.007292929261272</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039302594600755</v>
+        <v>1.041354704870219</v>
       </c>
       <c r="J5">
-        <v>0.9870815225683155</v>
+        <v>1.016246744619303</v>
       </c>
       <c r="K5">
-        <v>0.9895355164373328</v>
+        <v>1.014308880062018</v>
       </c>
       <c r="L5">
-        <v>0.9908089877546314</v>
+        <v>1.013330437848594</v>
       </c>
       <c r="M5">
-        <v>0.9915512751509089</v>
+        <v>1.017081712270676</v>
       </c>
       <c r="N5">
-        <v>0.9884832915501957</v>
+        <v>1.00938176663395</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -588,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.969645874484153</v>
+        <v>0.9974147354282075</v>
       </c>
       <c r="D6">
-        <v>0.9817260867098729</v>
+        <v>1.004644956047103</v>
       </c>
       <c r="E6">
-        <v>0.9828277785762365</v>
+        <v>1.003644935606153</v>
       </c>
       <c r="F6">
-        <v>0.9837324088021685</v>
+        <v>1.007511504252905</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03964435834997</v>
+        <v>1.041390840738647</v>
       </c>
       <c r="J6">
-        <v>0.9893016276706081</v>
+        <v>1.016350988325538</v>
       </c>
       <c r="K6">
-        <v>0.9917812452815226</v>
+        <v>1.014426968285727</v>
       </c>
       <c r="L6">
-        <v>0.9928694449253076</v>
+        <v>1.013438544227683</v>
       </c>
       <c r="M6">
-        <v>0.9937630243950926</v>
+        <v>1.017260433114675</v>
       </c>
       <c r="N6">
-        <v>0.990706549456383</v>
+        <v>1.009416929756948</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -629,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9526501825236916</v>
+        <v>0.9961346332494166</v>
       </c>
       <c r="D7">
-        <v>0.9651010847963682</v>
+        <v>1.003559562191225</v>
       </c>
       <c r="E7">
-        <v>0.9675533423455948</v>
+        <v>1.002628910587928</v>
       </c>
       <c r="F7">
-        <v>0.9673544013875023</v>
+        <v>1.006003626150114</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037189805765713</v>
+        <v>1.041140573767394</v>
       </c>
       <c r="J7">
-        <v>0.9733413062954263</v>
+        <v>1.015631607898902</v>
       </c>
       <c r="K7">
-        <v>0.9756366434246743</v>
+        <v>1.013612228349391</v>
       </c>
       <c r="L7">
-        <v>0.9780566746184133</v>
+        <v>1.012692719353886</v>
       </c>
       <c r="M7">
-        <v>0.977860340412096</v>
+        <v>1.016027151421407</v>
       </c>
       <c r="N7">
-        <v>0.9747235625941741</v>
+        <v>1.00917425071128</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -670,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.8416041122495734</v>
+        <v>0.9906767068559633</v>
       </c>
       <c r="D8">
-        <v>0.8566265766754461</v>
+        <v>0.9989423908990148</v>
       </c>
       <c r="E8">
-        <v>0.8679803674827742</v>
+        <v>0.9983094406726795</v>
       </c>
       <c r="F8">
-        <v>0.8604594108808707</v>
+        <v>0.9995747129024465</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.021525201609892</v>
+        <v>1.04004923120916</v>
       </c>
       <c r="J8">
-        <v>0.8690721458743942</v>
+        <v>1.012558858659268</v>
       </c>
       <c r="K8">
-        <v>0.8701764828037828</v>
+        <v>1.010136707255713</v>
       </c>
       <c r="L8">
-        <v>0.881305160587306</v>
+        <v>1.009512360459818</v>
       </c>
       <c r="M8">
-        <v>0.8739324495047973</v>
+        <v>1.010760448055132</v>
       </c>
       <c r="N8">
-        <v>0.870306328005504</v>
+        <v>1.008137189514066</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -711,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8416041122495734</v>
+        <v>0.9806240268895352</v>
       </c>
       <c r="D9">
-        <v>0.8566265766754461</v>
+        <v>0.9904814584889898</v>
       </c>
       <c r="E9">
-        <v>0.8679803674827742</v>
+        <v>0.9904046191115732</v>
       </c>
       <c r="F9">
-        <v>0.8604594108808707</v>
+        <v>0.9877314026203516</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.021525201609892</v>
+        <v>1.03794853899035</v>
       </c>
       <c r="J9">
-        <v>0.8690721458743942</v>
+        <v>1.006880056331779</v>
       </c>
       <c r="K9">
-        <v>0.8701764828037828</v>
+        <v>1.003730878552054</v>
       </c>
       <c r="L9">
-        <v>0.881305160587306</v>
+        <v>1.003655317015124</v>
       </c>
       <c r="M9">
-        <v>0.8739324495047973</v>
+        <v>1.001026715701687</v>
       </c>
       <c r="N9">
-        <v>0.870306328005504</v>
+        <v>1.006218930665516</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -752,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8416041122495734</v>
+        <v>0.9735985649685716</v>
       </c>
       <c r="D10">
-        <v>0.8566265766754461</v>
+        <v>0.9846003042363926</v>
       </c>
       <c r="E10">
-        <v>0.8679803674827742</v>
+        <v>0.9849177545359346</v>
       </c>
       <c r="F10">
-        <v>0.8604594108808707</v>
+        <v>0.9794500158471671</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021525201609892</v>
+        <v>1.03642153509844</v>
       </c>
       <c r="J10">
-        <v>0.8690721458743942</v>
+        <v>1.002900296680327</v>
       </c>
       <c r="K10">
-        <v>0.8701764828037828</v>
+        <v>0.9992532852750824</v>
       </c>
       <c r="L10">
-        <v>0.881305160587306</v>
+        <v>0.9995647698449733</v>
       </c>
       <c r="M10">
-        <v>0.8739324495047973</v>
+        <v>0.9942004912469947</v>
       </c>
       <c r="N10">
-        <v>0.870306328005504</v>
+        <v>1.004873689018634</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -793,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8416041122495734</v>
+        <v>0.9704721636254369</v>
       </c>
       <c r="D11">
-        <v>0.8566265766754461</v>
+        <v>0.981991324697695</v>
       </c>
       <c r="E11">
-        <v>0.8679803674827742</v>
+        <v>0.9824856644578313</v>
       </c>
       <c r="F11">
-        <v>0.8604594108808707</v>
+        <v>0.975762899004282</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021525201609892</v>
+        <v>1.035728578844058</v>
       </c>
       <c r="J11">
-        <v>0.8690721458743942</v>
+        <v>1.001127103203209</v>
       </c>
       <c r="K11">
-        <v>0.8701764828037828</v>
+        <v>0.9972610414270423</v>
       </c>
       <c r="L11">
-        <v>0.881305160587306</v>
+        <v>0.9977456104700845</v>
       </c>
       <c r="M11">
-        <v>0.8739324495047973</v>
+        <v>0.9911568381688448</v>
       </c>
       <c r="N11">
-        <v>0.870306328005504</v>
+        <v>1.004274144177888</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -834,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8416041122495734</v>
+        <v>0.9692975171698061</v>
       </c>
       <c r="D12">
-        <v>0.8566265766754461</v>
+        <v>0.9810123704296609</v>
       </c>
       <c r="E12">
-        <v>0.8679803674827742</v>
+        <v>0.9815733930016786</v>
       </c>
       <c r="F12">
-        <v>0.8604594108808707</v>
+        <v>0.9743772391895575</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021525201609892</v>
+        <v>1.035466253489546</v>
       </c>
       <c r="J12">
-        <v>0.8690721458743942</v>
+        <v>1.000460597822336</v>
       </c>
       <c r="K12">
-        <v>0.8701764828037828</v>
+        <v>0.996512614236898</v>
       </c>
       <c r="L12">
-        <v>0.881305160587306</v>
+        <v>0.9970623422051897</v>
       </c>
       <c r="M12">
-        <v>0.8739324495047973</v>
+        <v>0.9900123641170956</v>
       </c>
       <c r="N12">
-        <v>0.870306328005504</v>
+        <v>1.004048766843018</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -875,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8416041122495734</v>
+        <v>0.9695500991157403</v>
       </c>
       <c r="D13">
-        <v>0.8566265766754461</v>
+        <v>0.9812228139661873</v>
       </c>
       <c r="E13">
-        <v>0.8679803674827742</v>
+        <v>0.9817694876933472</v>
       </c>
       <c r="F13">
-        <v>0.8604594108808707</v>
+        <v>0.9746752115657131</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021525201609892</v>
+        <v>1.035522748979173</v>
       </c>
       <c r="J13">
-        <v>0.8690721458743942</v>
+        <v>1.000603927343691</v>
       </c>
       <c r="K13">
-        <v>0.8701764828037828</v>
+        <v>0.9966735420133166</v>
       </c>
       <c r="L13">
-        <v>0.881305160587306</v>
+        <v>0.9972092531893545</v>
       </c>
       <c r="M13">
-        <v>0.8739324495047973</v>
+        <v>0.9902585001113446</v>
       </c>
       <c r="N13">
-        <v>0.870306328005504</v>
+        <v>1.004097234303325</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -916,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8416041122495734</v>
+        <v>0.9703753437319952</v>
       </c>
       <c r="D14">
-        <v>0.8566265766754461</v>
+        <v>0.9819106081742158</v>
       </c>
       <c r="E14">
-        <v>0.8679803674827742</v>
+        <v>0.9824104396826698</v>
       </c>
       <c r="F14">
-        <v>0.8604594108808707</v>
+        <v>0.9756486937724007</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021525201609892</v>
+        <v>1.035706996494926</v>
       </c>
       <c r="J14">
-        <v>0.8690721458743942</v>
+        <v>1.001072172224062</v>
       </c>
       <c r="K14">
-        <v>0.8701764828037828</v>
+        <v>0.9971993503219692</v>
       </c>
       <c r="L14">
-        <v>0.881305160587306</v>
+        <v>0.9976892874648432</v>
       </c>
       <c r="M14">
-        <v>0.8739324495047973</v>
+        <v>0.9910625240586933</v>
       </c>
       <c r="N14">
-        <v>0.870306328005504</v>
+        <v>1.004255569796896</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -957,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8416041122495734</v>
+        <v>0.9708820120936069</v>
       </c>
       <c r="D15">
-        <v>0.8566265766754461</v>
+        <v>0.9823330587801612</v>
       </c>
       <c r="E15">
-        <v>0.8679803674827742</v>
+        <v>0.982804160515705</v>
       </c>
       <c r="F15">
-        <v>0.8604594108808707</v>
+        <v>0.9762463270019067</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021525201609892</v>
+        <v>1.035819859149881</v>
       </c>
       <c r="J15">
-        <v>0.8690721458743942</v>
+        <v>1.001359620299725</v>
       </c>
       <c r="K15">
-        <v>0.8701764828037828</v>
+        <v>0.9975221903251202</v>
       </c>
       <c r="L15">
-        <v>0.881305160587306</v>
+        <v>0.9979840408748637</v>
       </c>
       <c r="M15">
-        <v>0.8739324495047973</v>
+        <v>0.9915560418125925</v>
       </c>
       <c r="N15">
-        <v>0.870306328005504</v>
+        <v>1.004352766748534</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -998,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8416041122495734</v>
+        <v>0.9738042191945003</v>
       </c>
       <c r="D16">
-        <v>0.8566265766754461</v>
+        <v>0.9847720979740093</v>
       </c>
       <c r="E16">
-        <v>0.8679803674827742</v>
+        <v>0.9850779428956831</v>
       </c>
       <c r="F16">
-        <v>0.8604594108808707</v>
+        <v>0.9796925102737948</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021525201609892</v>
+        <v>1.036466841915555</v>
       </c>
       <c r="J16">
-        <v>0.8690721458743942</v>
+        <v>1.003016895460473</v>
       </c>
       <c r="K16">
-        <v>0.8701764828037828</v>
+        <v>0.9993843454960025</v>
       </c>
       <c r="L16">
-        <v>0.881305160587306</v>
+        <v>0.9996844622835321</v>
       </c>
       <c r="M16">
-        <v>0.8739324495047973</v>
+        <v>0.9944005766642312</v>
       </c>
       <c r="N16">
-        <v>0.870306328005504</v>
+        <v>1.004913109743172</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1039,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8416041122495734</v>
+        <v>0.9756141911302724</v>
       </c>
       <c r="D17">
-        <v>0.8566265766754461</v>
+        <v>0.9862850018005752</v>
       </c>
       <c r="E17">
-        <v>0.8679803674827742</v>
+        <v>0.9864888706412483</v>
       </c>
       <c r="F17">
-        <v>0.8604594108808707</v>
+        <v>0.9818264997965305</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021525201609892</v>
+        <v>1.03686406636842</v>
       </c>
       <c r="J17">
-        <v>0.8690721458743942</v>
+        <v>1.004042845297067</v>
       </c>
       <c r="K17">
-        <v>0.8701764828037828</v>
+        <v>1.000537855311967</v>
       </c>
       <c r="L17">
-        <v>0.881305160587306</v>
+        <v>1.000738020076285</v>
       </c>
       <c r="M17">
-        <v>0.8739324495047973</v>
+        <v>0.9961608606276933</v>
       </c>
       <c r="N17">
-        <v>0.870306328005504</v>
+        <v>1.005259953050449</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1080,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8416041122495734</v>
+        <v>0.9766618297280193</v>
       </c>
       <c r="D18">
-        <v>0.8566265766754461</v>
+        <v>0.9871614668525321</v>
       </c>
       <c r="E18">
-        <v>0.8679803674827742</v>
+        <v>0.987306445303034</v>
       </c>
       <c r="F18">
-        <v>0.8604594108808707</v>
+        <v>0.9830615170235384</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.021525201609892</v>
+        <v>1.037092708305379</v>
       </c>
       <c r="J18">
-        <v>0.8690721458743942</v>
+        <v>1.004636472467965</v>
       </c>
       <c r="K18">
-        <v>0.8701764828037828</v>
+        <v>1.001205552139505</v>
       </c>
       <c r="L18">
-        <v>0.881305160587306</v>
+        <v>1.001347943339056</v>
       </c>
       <c r="M18">
-        <v>0.8739324495047973</v>
+        <v>0.9971791797547315</v>
       </c>
       <c r="N18">
-        <v>0.870306328005504</v>
+        <v>1.005460624593076</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1121,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8416041122495734</v>
+        <v>0.9770176958949695</v>
       </c>
       <c r="D19">
-        <v>0.8566265766754461</v>
+        <v>0.9874593177243963</v>
       </c>
       <c r="E19">
-        <v>0.8679803674827742</v>
+        <v>0.987584314696531</v>
       </c>
       <c r="F19">
-        <v>0.8604594108808707</v>
+        <v>0.9834810062881839</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.021525201609892</v>
+        <v>1.037170156237174</v>
       </c>
       <c r="J19">
-        <v>0.8690721458743942</v>
+        <v>1.004838081739937</v>
       </c>
       <c r="K19">
-        <v>0.8701764828037828</v>
+        <v>1.001432361584961</v>
       </c>
       <c r="L19">
-        <v>0.881305160587306</v>
+        <v>1.001555141591775</v>
       </c>
       <c r="M19">
-        <v>0.8739324495047973</v>
+        <v>0.9975249925031673</v>
       </c>
       <c r="N19">
-        <v>0.870306328005504</v>
+        <v>1.005528774331845</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1162,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8416041122495734</v>
+        <v>0.9754208396400826</v>
       </c>
       <c r="D20">
-        <v>0.8566265766754461</v>
+        <v>0.9861233041383306</v>
       </c>
       <c r="E20">
-        <v>0.8679803674827742</v>
+        <v>0.9863380525963721</v>
       </c>
       <c r="F20">
-        <v>0.8604594108808707</v>
+        <v>0.9815985527646791</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021525201609892</v>
+        <v>1.036821764784828</v>
       </c>
       <c r="J20">
-        <v>0.8690721458743942</v>
+        <v>1.003933268778436</v>
       </c>
       <c r="K20">
-        <v>0.8701764828037828</v>
+        <v>1.000414627586905</v>
       </c>
       <c r="L20">
-        <v>0.881305160587306</v>
+        <v>1.000625461473213</v>
       </c>
       <c r="M20">
-        <v>0.8739324495047973</v>
+        <v>0.9959728753127309</v>
       </c>
       <c r="N20">
-        <v>0.870306328005504</v>
+        <v>1.005222910127151</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1203,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8416041122495734</v>
+        <v>0.9701327044131823</v>
       </c>
       <c r="D21">
-        <v>0.8566265766754461</v>
+        <v>0.9817083462766514</v>
       </c>
       <c r="E21">
-        <v>0.8679803674827742</v>
+        <v>0.9822219442047538</v>
       </c>
       <c r="F21">
-        <v>0.8604594108808707</v>
+        <v>0.9753624794798174</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.021525201609892</v>
+        <v>1.035652877642516</v>
       </c>
       <c r="J21">
-        <v>0.8690721458743942</v>
+        <v>1.000934505839414</v>
       </c>
       <c r="K21">
-        <v>0.8701764828037828</v>
+        <v>0.9970447485879188</v>
       </c>
       <c r="L21">
-        <v>0.881305160587306</v>
+        <v>0.9975481407333304</v>
       </c>
       <c r="M21">
-        <v>0.8739324495047973</v>
+        <v>0.9908261495695868</v>
       </c>
       <c r="N21">
-        <v>0.870306328005504</v>
+        <v>1.004209018907043</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1244,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8416041122495734</v>
+        <v>0.96673015803911</v>
       </c>
       <c r="D22">
-        <v>0.8566265766754461</v>
+        <v>0.9788751561734852</v>
       </c>
       <c r="E22">
-        <v>0.8679803674827742</v>
+        <v>0.9795823411483472</v>
       </c>
       <c r="F22">
-        <v>0.8604594108808707</v>
+        <v>0.9713479691124333</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.021525201609892</v>
+        <v>1.03488933764477</v>
       </c>
       <c r="J22">
-        <v>0.8690721458743942</v>
+        <v>0.9990033781936493</v>
       </c>
       <c r="K22">
-        <v>0.8701764828037828</v>
+        <v>0.9948770464348569</v>
       </c>
       <c r="L22">
-        <v>0.881305160587306</v>
+        <v>0.9955694248953493</v>
       </c>
       <c r="M22">
-        <v>0.8739324495047973</v>
+        <v>0.9875092290739509</v>
       </c>
       <c r="N22">
-        <v>0.870306328005504</v>
+        <v>1.003555976568556</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1285,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8416041122495734</v>
+        <v>0.9685415199128621</v>
       </c>
       <c r="D23">
-        <v>0.8566265766754461</v>
+        <v>0.9803826898091822</v>
       </c>
       <c r="E23">
-        <v>0.8679803674827742</v>
+        <v>0.9809866927653113</v>
       </c>
       <c r="F23">
-        <v>0.8604594108808707</v>
+        <v>0.9734853290667544</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021525201609892</v>
+        <v>1.035296873362227</v>
       </c>
       <c r="J23">
-        <v>0.8690721458743942</v>
+        <v>1.000031563090382</v>
       </c>
       <c r="K23">
-        <v>0.8701764828037828</v>
+        <v>0.9960309625965214</v>
       </c>
       <c r="L23">
-        <v>0.881305160587306</v>
+        <v>0.9966226627255929</v>
       </c>
       <c r="M23">
-        <v>0.8739324495047973</v>
+        <v>0.9892755232072427</v>
       </c>
       <c r="N23">
-        <v>0.870306328005504</v>
+        <v>1.003903684197498</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1326,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8416041122495734</v>
+        <v>0.9755082317979059</v>
       </c>
       <c r="D24">
-        <v>0.8566265766754461</v>
+        <v>0.9861963868154977</v>
       </c>
       <c r="E24">
-        <v>0.8679803674827742</v>
+        <v>0.9864062174217297</v>
       </c>
       <c r="F24">
-        <v>0.8604594108808707</v>
+        <v>0.981701582135695</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021525201609892</v>
+        <v>1.036840888470628</v>
       </c>
       <c r="J24">
-        <v>0.8690721458743942</v>
+        <v>1.003982796473126</v>
       </c>
       <c r="K24">
-        <v>0.8701764828037828</v>
+        <v>1.000470324703731</v>
       </c>
       <c r="L24">
-        <v>0.881305160587306</v>
+        <v>1.00067633604834</v>
       </c>
       <c r="M24">
-        <v>0.8739324495047973</v>
+        <v>0.9960578437666717</v>
       </c>
       <c r="N24">
-        <v>0.870306328005504</v>
+        <v>1.005239653277729</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1367,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8416041122495734</v>
+        <v>0.9832775320280128</v>
       </c>
       <c r="D25">
-        <v>0.8566265766754461</v>
+        <v>0.9927095048378504</v>
       </c>
       <c r="E25">
-        <v>0.8679803674827742</v>
+        <v>0.9924849290646258</v>
       </c>
       <c r="F25">
-        <v>0.8604594108808707</v>
+        <v>0.9908581118525719</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.021525201609892</v>
+        <v>1.038513370423014</v>
       </c>
       <c r="J25">
-        <v>0.8690721458743942</v>
+        <v>1.008381083868147</v>
       </c>
       <c r="K25">
-        <v>0.8701764828037828</v>
+        <v>1.005422060551484</v>
       </c>
       <c r="L25">
-        <v>0.881305160587306</v>
+        <v>1.005201037929518</v>
       </c>
       <c r="M25">
-        <v>0.8739324495047973</v>
+        <v>1.0036000212052</v>
       </c>
       <c r="N25">
-        <v>0.870306328005504</v>
+        <v>1.006726138344477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9892431606847334</v>
+        <v>1.02037819947043</v>
       </c>
       <c r="D2">
-        <v>0.997732459574161</v>
+        <v>1.023022984938293</v>
       </c>
       <c r="E2">
-        <v>0.9971782079666002</v>
+        <v>1.021392450590189</v>
       </c>
       <c r="F2">
-        <v>0.9978860855766711</v>
+        <v>1.031468292678807</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039756466638764</v>
+        <v>1.029715671014253</v>
       </c>
       <c r="J2">
-        <v>1.011750437137771</v>
+        <v>1.025575648424696</v>
       </c>
       <c r="K2">
-        <v>1.00922347549305</v>
+        <v>1.02585564403308</v>
       </c>
       <c r="L2">
-        <v>1.008676995324949</v>
+        <v>1.024229915697476</v>
       </c>
       <c r="M2">
-        <v>1.0093749493576</v>
+        <v>1.034276323527166</v>
       </c>
       <c r="N2">
-        <v>1.007864228144587</v>
+        <v>1.01259007378955</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9934510519752141</v>
+        <v>1.021267779614528</v>
       </c>
       <c r="D3">
-        <v>1.001287246373024</v>
+        <v>1.023824780390868</v>
       </c>
       <c r="E3">
-        <v>1.00050258346334</v>
+        <v>1.022145536458064</v>
       </c>
       <c r="F3">
-        <v>1.002842625025613</v>
+        <v>1.03257997390409</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040608740943407</v>
+        <v>1.029830438728</v>
       </c>
       <c r="J3">
-        <v>1.014121854134143</v>
+        <v>1.026102702764771</v>
       </c>
       <c r="K3">
-        <v>1.011903683095483</v>
+        <v>1.026464243744226</v>
       </c>
       <c r="L3">
-        <v>1.011129037676805</v>
+        <v>1.024789590829566</v>
       </c>
       <c r="M3">
-        <v>1.013439262686632</v>
+        <v>1.035195762422167</v>
       </c>
       <c r="N3">
-        <v>1.008664797884361</v>
+        <v>1.012766349669682</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9961197605630014</v>
+        <v>1.021843813588545</v>
       </c>
       <c r="D4">
-        <v>1.003546957317165</v>
+        <v>1.024344291939946</v>
       </c>
       <c r="E4">
-        <v>1.002617112698982</v>
+        <v>1.022633584061396</v>
       </c>
       <c r="F4">
-        <v>1.005986107298029</v>
+        <v>1.033299832761817</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041137652801103</v>
+        <v>1.02990331928466</v>
       </c>
       <c r="J4">
-        <v>1.015623246780191</v>
+        <v>1.026443547113487</v>
       </c>
       <c r="K4">
-        <v>1.013602761364834</v>
+        <v>1.026858094548972</v>
       </c>
       <c r="L4">
-        <v>1.012684053769319</v>
+        <v>1.02515182775153</v>
       </c>
       <c r="M4">
-        <v>1.016012818200356</v>
+        <v>1.035790645139107</v>
       </c>
       <c r="N4">
-        <v>1.00917142986072</v>
+        <v>1.012880291868348</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9972291799517038</v>
+        <v>1.022086076814971</v>
       </c>
       <c r="D5">
-        <v>1.004487564794871</v>
+        <v>1.024562859891592</v>
       </c>
       <c r="E5">
-        <v>1.00349758868192</v>
+        <v>1.022838937570022</v>
       </c>
       <c r="F5">
-        <v>1.007292929261272</v>
+        <v>1.033602587035742</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041354704870219</v>
+        <v>1.029933626966795</v>
       </c>
       <c r="J5">
-        <v>1.016246744619303</v>
+        <v>1.02658679043125</v>
       </c>
       <c r="K5">
-        <v>1.014308880062018</v>
+        <v>1.027023679372222</v>
       </c>
       <c r="L5">
-        <v>1.013330437848594</v>
+        <v>1.025304132570289</v>
       </c>
       <c r="M5">
-        <v>1.017081712270676</v>
+        <v>1.036040719908201</v>
       </c>
       <c r="N5">
-        <v>1.00938176663395</v>
+        <v>1.012928164051019</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9974147354282075</v>
+        <v>1.022126759624015</v>
       </c>
       <c r="D6">
-        <v>1.004644956047103</v>
+        <v>1.02459956806495</v>
       </c>
       <c r="E6">
-        <v>1.003644935606153</v>
+        <v>1.022873427741769</v>
       </c>
       <c r="F6">
-        <v>1.007511504252905</v>
+        <v>1.033653428161946</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041390840738647</v>
+        <v>1.029938696317892</v>
       </c>
       <c r="J6">
-        <v>1.016350988325538</v>
+        <v>1.026610838792959</v>
       </c>
       <c r="K6">
-        <v>1.014426968285727</v>
+        <v>1.027051482344123</v>
       </c>
       <c r="L6">
-        <v>1.013438544227683</v>
+        <v>1.02532970638611</v>
       </c>
       <c r="M6">
-        <v>1.017260433114675</v>
+        <v>1.036082707728859</v>
       </c>
       <c r="N6">
-        <v>1.009416929756948</v>
+        <v>1.012936200282912</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9961346332494166</v>
+        <v>1.021847050335772</v>
       </c>
       <c r="D7">
-        <v>1.003559562191225</v>
+        <v>1.024347211807863</v>
       </c>
       <c r="E7">
-        <v>1.002628910587928</v>
+        <v>1.022636327306234</v>
       </c>
       <c r="F7">
-        <v>1.006003626150114</v>
+        <v>1.033303877686303</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041140573767394</v>
+        <v>1.029903725559802</v>
       </c>
       <c r="J7">
-        <v>1.015631607898902</v>
+        <v>1.026445461326122</v>
       </c>
       <c r="K7">
-        <v>1.013612228349391</v>
+        <v>1.026860307063777</v>
       </c>
       <c r="L7">
-        <v>1.012692719353886</v>
+        <v>1.025153862777075</v>
       </c>
       <c r="M7">
-        <v>1.016027151421407</v>
+        <v>1.035793986705858</v>
       </c>
       <c r="N7">
-        <v>1.00917425071128</v>
+        <v>1.012880931653674</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9906767068559633</v>
+        <v>1.020678750431262</v>
       </c>
       <c r="D8">
-        <v>0.9989423908990148</v>
+        <v>1.023293810459198</v>
       </c>
       <c r="E8">
-        <v>0.9983094406726795</v>
+        <v>1.021646803196521</v>
       </c>
       <c r="F8">
-        <v>0.9995747129024465</v>
+        <v>1.031843881181392</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04004923120916</v>
+        <v>1.029754743121663</v>
       </c>
       <c r="J8">
-        <v>1.012558858659268</v>
+        <v>1.025753808722151</v>
       </c>
       <c r="K8">
-        <v>1.010136707255713</v>
+        <v>1.026061312955064</v>
       </c>
       <c r="L8">
-        <v>1.009512360459818</v>
+        <v>1.024419041324744</v>
       </c>
       <c r="M8">
-        <v>1.010760448055132</v>
+        <v>1.034587063394048</v>
       </c>
       <c r="N8">
-        <v>1.008137189514066</v>
+        <v>1.012649671690531</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9806240268895352</v>
+        <v>1.018623291498596</v>
       </c>
       <c r="D9">
-        <v>0.9904814584889898</v>
+        <v>1.021442976816771</v>
       </c>
       <c r="E9">
-        <v>0.9904046191115732</v>
+        <v>1.019908947326655</v>
       </c>
       <c r="F9">
-        <v>0.9877314026203516</v>
+        <v>1.02927523705095</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03794853899035</v>
+        <v>1.029481655546126</v>
       </c>
       <c r="J9">
-        <v>1.006880056331779</v>
+        <v>1.024533576495511</v>
       </c>
       <c r="K9">
-        <v>1.003730878552054</v>
+        <v>1.024653784370856</v>
       </c>
       <c r="L9">
-        <v>1.003655317015124</v>
+        <v>1.023124925432931</v>
       </c>
       <c r="M9">
-        <v>1.001026715701687</v>
+        <v>1.032459909061177</v>
       </c>
       <c r="N9">
-        <v>1.006218930665516</v>
+        <v>1.012241258678141</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9735985649685716</v>
+        <v>1.017255223530733</v>
       </c>
       <c r="D10">
-        <v>0.9846003042363926</v>
+        <v>1.020212796640013</v>
       </c>
       <c r="E10">
-        <v>0.9849177545359346</v>
+        <v>1.018754368387555</v>
       </c>
       <c r="F10">
-        <v>0.9794500158471671</v>
+        <v>1.027565561875635</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03642153509844</v>
+        <v>1.029292525111905</v>
       </c>
       <c r="J10">
-        <v>1.002900296680327</v>
+        <v>1.023719167971025</v>
       </c>
       <c r="K10">
-        <v>0.9992532852750824</v>
+        <v>1.023715765844001</v>
       </c>
       <c r="L10">
-        <v>0.9995647698449733</v>
+        <v>1.022262736734586</v>
       </c>
       <c r="M10">
-        <v>0.9942004912469947</v>
+        <v>1.031041568873264</v>
       </c>
       <c r="N10">
-        <v>1.004873689018634</v>
+        <v>1.011968397678806</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9704721636254369</v>
+        <v>1.016663378751254</v>
       </c>
       <c r="D11">
-        <v>0.981991324697695</v>
+        <v>1.01968101187794</v>
       </c>
       <c r="E11">
-        <v>0.9824856644578313</v>
+        <v>1.018255387271605</v>
       </c>
       <c r="F11">
-        <v>0.975762899004282</v>
+        <v>1.026825911843994</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035728578844058</v>
+        <v>1.029208958121526</v>
       </c>
       <c r="J11">
-        <v>1.001127103203209</v>
+        <v>1.023366313355069</v>
       </c>
       <c r="K11">
-        <v>0.9972610414270423</v>
+        <v>1.023309685975716</v>
       </c>
       <c r="L11">
-        <v>0.9977456104700845</v>
+        <v>1.021889544130142</v>
       </c>
       <c r="M11">
-        <v>0.9911568381688448</v>
+        <v>1.03042736182162</v>
       </c>
       <c r="N11">
-        <v>1.004274144177888</v>
+        <v>1.011850111460998</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9692975171698061</v>
+        <v>1.016443623024017</v>
       </c>
       <c r="D12">
-        <v>0.9810123704296609</v>
+        <v>1.019483618618724</v>
       </c>
       <c r="E12">
-        <v>0.9815733930016786</v>
+        <v>1.018070188976194</v>
       </c>
       <c r="F12">
-        <v>0.9743772391895575</v>
+        <v>1.02655127093686</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035466253489546</v>
+        <v>1.029177666832016</v>
       </c>
       <c r="J12">
-        <v>1.000460597822336</v>
+        <v>1.023235216739752</v>
       </c>
       <c r="K12">
-        <v>0.996512614236898</v>
+        <v>1.023158864151213</v>
       </c>
       <c r="L12">
-        <v>0.9970623422051897</v>
+        <v>1.021750945952768</v>
       </c>
       <c r="M12">
-        <v>0.9900123641170956</v>
+        <v>1.030199209917015</v>
       </c>
       <c r="N12">
-        <v>1.004048766843018</v>
+        <v>1.011806154674258</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9695500991157403</v>
+        <v>1.016490757656948</v>
       </c>
       <c r="D13">
-        <v>0.9812228139661873</v>
+        <v>1.019525953999397</v>
       </c>
       <c r="E13">
-        <v>0.9817694876933472</v>
+        <v>1.018109908032195</v>
       </c>
       <c r="F13">
-        <v>0.9746752115657131</v>
+        <v>1.026610177901975</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035522748979173</v>
+        <v>1.029184390261307</v>
       </c>
       <c r="J13">
-        <v>1.000603927343691</v>
+        <v>1.02326333878351</v>
       </c>
       <c r="K13">
-        <v>0.9966735420133166</v>
+        <v>1.02319121527977</v>
       </c>
       <c r="L13">
-        <v>0.9972092531893545</v>
+        <v>1.021780674712588</v>
       </c>
       <c r="M13">
-        <v>0.9902585001113446</v>
+        <v>1.03024814963299</v>
       </c>
       <c r="N13">
-        <v>1.004097234303325</v>
+        <v>1.011815584454437</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9703753437319952</v>
+        <v>1.016645212000317</v>
       </c>
       <c r="D14">
-        <v>0.9819106081742158</v>
+        <v>1.019664692522038</v>
       </c>
       <c r="E14">
-        <v>0.9824104396826698</v>
+        <v>1.018240075746311</v>
       </c>
       <c r="F14">
-        <v>0.9756486937724007</v>
+        <v>1.026803207939031</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035706996494926</v>
+        <v>1.029206376687175</v>
       </c>
       <c r="J14">
-        <v>1.001072172224062</v>
+        <v>1.023355477489004</v>
       </c>
       <c r="K14">
-        <v>0.9971993503219692</v>
+        <v>1.023297218698493</v>
       </c>
       <c r="L14">
-        <v>0.9976892874648432</v>
+        <v>1.02187808710336</v>
       </c>
       <c r="M14">
-        <v>0.9910625240586933</v>
+        <v>1.030408502875986</v>
       </c>
       <c r="N14">
-        <v>1.004255569796896</v>
+        <v>1.011846478385623</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9708820120936069</v>
+        <v>1.016740387284824</v>
       </c>
       <c r="D15">
-        <v>0.9823330587801612</v>
+        <v>1.019750191871263</v>
       </c>
       <c r="E15">
-        <v>0.982804160515705</v>
+        <v>1.018320295694195</v>
       </c>
       <c r="F15">
-        <v>0.9762463270019067</v>
+        <v>1.026922153117028</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035819859149881</v>
+        <v>1.029219890031374</v>
       </c>
       <c r="J15">
-        <v>1.001359620299725</v>
+        <v>1.02341224314536</v>
       </c>
       <c r="K15">
-        <v>0.9975221903251202</v>
+        <v>1.023362532832067</v>
       </c>
       <c r="L15">
-        <v>0.9979840408748637</v>
+        <v>1.021938109060873</v>
       </c>
       <c r="M15">
-        <v>0.9915560418125925</v>
+        <v>1.030507300746005</v>
       </c>
       <c r="N15">
-        <v>1.004352766748534</v>
+        <v>1.011865510514166</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9738042191945003</v>
+        <v>1.017294513732736</v>
       </c>
       <c r="D16">
-        <v>0.9847720979740093</v>
+        <v>1.020248108339631</v>
       </c>
       <c r="E16">
-        <v>0.9850779428956831</v>
+        <v>1.018787504449456</v>
       </c>
       <c r="F16">
-        <v>0.9796925102737948</v>
+        <v>1.027614663745351</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036466841915555</v>
+        <v>1.029298035983574</v>
       </c>
       <c r="J16">
-        <v>1.003016895460473</v>
+        <v>1.023742581415</v>
       </c>
       <c r="K16">
-        <v>0.9993843454960025</v>
+        <v>1.02374271797812</v>
       </c>
       <c r="L16">
-        <v>0.9996844622835321</v>
+        <v>1.022287507352063</v>
       </c>
       <c r="M16">
-        <v>0.9944005766642312</v>
+        <v>1.031082330619603</v>
       </c>
       <c r="N16">
-        <v>1.004913109743172</v>
+        <v>1.011976245118737</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9756141911302724</v>
+        <v>1.017642247267453</v>
       </c>
       <c r="D17">
-        <v>0.9862850018005752</v>
+        <v>1.020560677792003</v>
       </c>
       <c r="E17">
-        <v>0.9864888706412483</v>
+        <v>1.019080829949031</v>
       </c>
       <c r="F17">
-        <v>0.9818264997965305</v>
+        <v>1.028049231763005</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03686406636842</v>
+        <v>1.029346607479901</v>
       </c>
       <c r="J17">
-        <v>1.004042845297067</v>
+        <v>1.023949738204661</v>
       </c>
       <c r="K17">
-        <v>1.000537855311967</v>
+        <v>1.023981222467091</v>
       </c>
       <c r="L17">
-        <v>1.000738020076285</v>
+        <v>1.022506714083413</v>
       </c>
       <c r="M17">
-        <v>0.9961608606276933</v>
+        <v>1.031443016861081</v>
       </c>
       <c r="N17">
-        <v>1.005259953050449</v>
+        <v>1.012045669955724</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9766618297280193</v>
+        <v>1.017845126166322</v>
       </c>
       <c r="D18">
-        <v>0.9871614668525321</v>
+        <v>1.020743080178659</v>
       </c>
       <c r="E18">
-        <v>0.987306445303034</v>
+        <v>1.019252014203698</v>
       </c>
       <c r="F18">
-        <v>0.9830615170235384</v>
+        <v>1.028302770688478</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037092708305379</v>
+        <v>1.029374777032457</v>
       </c>
       <c r="J18">
-        <v>1.004636472467965</v>
+        <v>1.024070548898951</v>
       </c>
       <c r="K18">
-        <v>1.001205552139505</v>
+        <v>1.024120346554072</v>
       </c>
       <c r="L18">
-        <v>1.001347943339056</v>
+        <v>1.022634587177117</v>
       </c>
       <c r="M18">
-        <v>0.9971791797547315</v>
+        <v>1.031653393574545</v>
       </c>
       <c r="N18">
-        <v>1.005460624593076</v>
+        <v>1.012086151180967</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9770176958949695</v>
+        <v>1.017914311385814</v>
       </c>
       <c r="D19">
-        <v>0.9874593177243963</v>
+        <v>1.020805289209792</v>
       </c>
       <c r="E19">
-        <v>0.987584314696531</v>
+        <v>1.019310399249774</v>
       </c>
       <c r="F19">
-        <v>0.9834810062881839</v>
+        <v>1.028389231544927</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037170156237174</v>
+        <v>1.029384354735458</v>
       </c>
       <c r="J19">
-        <v>1.004838081739937</v>
+        <v>1.024111738743428</v>
       </c>
       <c r="K19">
-        <v>1.001432361584961</v>
+        <v>1.024167785674495</v>
       </c>
       <c r="L19">
-        <v>1.001555141591775</v>
+        <v>1.022678190859033</v>
       </c>
       <c r="M19">
-        <v>0.9975249925031673</v>
+        <v>1.031725125657066</v>
       </c>
       <c r="N19">
-        <v>1.005528774331845</v>
+        <v>1.012099951998584</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9754208396400826</v>
+        <v>1.017604933383788</v>
       </c>
       <c r="D20">
-        <v>0.9861233041383306</v>
+        <v>1.020527133151624</v>
       </c>
       <c r="E20">
-        <v>0.9863380525963721</v>
+        <v>1.019049349325899</v>
       </c>
       <c r="F20">
-        <v>0.9815985527646791</v>
+        <v>1.028002600234295</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036821764784828</v>
+        <v>1.029341412906997</v>
       </c>
       <c r="J20">
-        <v>1.003933268778436</v>
+        <v>1.023927514340648</v>
       </c>
       <c r="K20">
-        <v>1.000414627586905</v>
+        <v>1.023955632310617</v>
       </c>
       <c r="L20">
-        <v>1.000625461473213</v>
+        <v>1.022483193870283</v>
       </c>
       <c r="M20">
-        <v>0.9959728753127309</v>
+        <v>1.031404319203467</v>
       </c>
       <c r="N20">
-        <v>1.005222910127151</v>
+        <v>1.01203822268096</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9701327044131823</v>
+        <v>1.016599726780447</v>
       </c>
       <c r="D21">
-        <v>0.9817083462766514</v>
+        <v>1.019623833739801</v>
       </c>
       <c r="E21">
-        <v>0.9822219442047538</v>
+        <v>1.018201740570865</v>
       </c>
       <c r="F21">
-        <v>0.9753624794798174</v>
+        <v>1.026746362695224</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035652877642516</v>
+        <v>1.029199909152124</v>
       </c>
       <c r="J21">
-        <v>1.000934505839414</v>
+        <v>1.023328345776958</v>
       </c>
       <c r="K21">
-        <v>0.9970447485879188</v>
+        <v>1.02326600293006</v>
       </c>
       <c r="L21">
-        <v>0.9975481407333304</v>
+        <v>1.021849400961967</v>
       </c>
       <c r="M21">
-        <v>0.9908261495695868</v>
+        <v>1.030361283061721</v>
       </c>
       <c r="N21">
-        <v>1.004209018907043</v>
+        <v>1.011837381442673</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.96673015803911</v>
+        <v>1.015968187116833</v>
       </c>
       <c r="D22">
-        <v>0.9788751561734852</v>
+        <v>1.019056676903777</v>
       </c>
       <c r="E22">
-        <v>0.9795823411483472</v>
+        <v>1.017669657862973</v>
       </c>
       <c r="F22">
-        <v>0.9713479691124333</v>
+        <v>1.025957083720356</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03488933764477</v>
+        <v>1.029109489363877</v>
       </c>
       <c r="J22">
-        <v>0.9990033781936493</v>
+        <v>1.022951447545468</v>
       </c>
       <c r="K22">
-        <v>0.9948770464348569</v>
+        <v>1.022832488931914</v>
       </c>
       <c r="L22">
-        <v>0.9955694248953493</v>
+        <v>1.021451038991794</v>
       </c>
       <c r="M22">
-        <v>0.9875092290739509</v>
+        <v>1.029705438427794</v>
       </c>
       <c r="N22">
-        <v>1.003555976568556</v>
+        <v>1.011710988937483</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9685415199128621</v>
+        <v>1.01630293301425</v>
       </c>
       <c r="D23">
-        <v>0.9803826898091822</v>
+        <v>1.019357262766423</v>
       </c>
       <c r="E23">
-        <v>0.9809866927653113</v>
+        <v>1.017951644641509</v>
       </c>
       <c r="F23">
-        <v>0.9734853290667544</v>
+        <v>1.026375441551112</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035296873362227</v>
+        <v>1.029157559969292</v>
       </c>
       <c r="J23">
-        <v>1.000031563090382</v>
+        <v>1.023151264921867</v>
       </c>
       <c r="K23">
-        <v>0.9960309625965214</v>
+        <v>1.023062294653332</v>
       </c>
       <c r="L23">
-        <v>0.9966226627255929</v>
+        <v>1.021662205661634</v>
       </c>
       <c r="M23">
-        <v>0.9892755232072427</v>
+        <v>1.030053118337501</v>
       </c>
       <c r="N23">
-        <v>1.003903684197498</v>
+        <v>1.011778002839771</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9755082317979059</v>
+        <v>1.017621793761639</v>
       </c>
       <c r="D24">
-        <v>0.9861963868154977</v>
+        <v>1.020542290265381</v>
       </c>
       <c r="E24">
-        <v>0.9864062174217297</v>
+        <v>1.019063573778911</v>
       </c>
       <c r="F24">
-        <v>0.981701582135695</v>
+        <v>1.028023670820896</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036840888470628</v>
+        <v>1.029343760609568</v>
       </c>
       <c r="J24">
-        <v>1.003982796473126</v>
+        <v>1.023937556411157</v>
       </c>
       <c r="K24">
-        <v>1.000470324703731</v>
+        <v>1.023967195374789</v>
       </c>
       <c r="L24">
-        <v>1.00067633604834</v>
+        <v>1.022493821600518</v>
       </c>
       <c r="M24">
-        <v>0.9960578437666717</v>
+        <v>1.031421805026055</v>
       </c>
       <c r="N24">
-        <v>1.005239653277729</v>
+        <v>1.012041587824396</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9832775320280128</v>
+        <v>1.019154287071616</v>
       </c>
       <c r="D25">
-        <v>0.9927095048378504</v>
+        <v>1.021920813970251</v>
       </c>
       <c r="E25">
-        <v>0.9924849290646258</v>
+        <v>1.020357527310487</v>
       </c>
       <c r="F25">
-        <v>0.9908581118525719</v>
+        <v>1.029938809669431</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038513370423014</v>
+        <v>1.029553503844934</v>
       </c>
       <c r="J25">
-        <v>1.008381083868147</v>
+        <v>1.024849202084467</v>
       </c>
       <c r="K25">
-        <v>1.005422060551484</v>
+        <v>1.025017610098457</v>
       </c>
       <c r="L25">
-        <v>1.005201037929518</v>
+        <v>1.023459392093332</v>
       </c>
       <c r="M25">
-        <v>1.0036000212052</v>
+        <v>1.033009873658841</v>
       </c>
       <c r="N25">
-        <v>1.006726138344477</v>
+        <v>1.012346948047582</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02037819947043</v>
+        <v>0.9892431606847333</v>
       </c>
       <c r="D2">
-        <v>1.023022984938293</v>
+        <v>0.997732459574161</v>
       </c>
       <c r="E2">
-        <v>1.021392450590189</v>
+        <v>0.9971782079665999</v>
       </c>
       <c r="F2">
-        <v>1.031468292678807</v>
+        <v>0.9978860855766714</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029715671014253</v>
+        <v>1.039756466638764</v>
       </c>
       <c r="J2">
-        <v>1.025575648424696</v>
+        <v>1.011750437137771</v>
       </c>
       <c r="K2">
-        <v>1.02585564403308</v>
+        <v>1.00922347549305</v>
       </c>
       <c r="L2">
-        <v>1.024229915697476</v>
+        <v>1.008676995324948</v>
       </c>
       <c r="M2">
-        <v>1.034276323527166</v>
+        <v>1.0093749493576</v>
       </c>
       <c r="N2">
-        <v>1.01259007378955</v>
+        <v>1.007864228144587</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021267779614528</v>
+        <v>0.993451051975214</v>
       </c>
       <c r="D3">
-        <v>1.023824780390868</v>
+        <v>1.001287246373024</v>
       </c>
       <c r="E3">
-        <v>1.022145536458064</v>
+        <v>1.00050258346334</v>
       </c>
       <c r="F3">
-        <v>1.03257997390409</v>
+        <v>1.002842625025612</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029830438728</v>
+        <v>1.040608740943407</v>
       </c>
       <c r="J3">
-        <v>1.026102702764771</v>
+        <v>1.014121854134143</v>
       </c>
       <c r="K3">
-        <v>1.026464243744226</v>
+        <v>1.011903683095483</v>
       </c>
       <c r="L3">
-        <v>1.024789590829566</v>
+        <v>1.011129037676805</v>
       </c>
       <c r="M3">
-        <v>1.035195762422167</v>
+        <v>1.013439262686632</v>
       </c>
       <c r="N3">
-        <v>1.012766349669682</v>
+        <v>1.008664797884361</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021843813588545</v>
+        <v>0.9961197605630023</v>
       </c>
       <c r="D4">
-        <v>1.024344291939946</v>
+        <v>1.003546957317166</v>
       </c>
       <c r="E4">
-        <v>1.022633584061396</v>
+        <v>1.002617112698983</v>
       </c>
       <c r="F4">
-        <v>1.033299832761817</v>
+        <v>1.00598610729803</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.02990331928466</v>
+        <v>1.041137652801104</v>
       </c>
       <c r="J4">
-        <v>1.026443547113487</v>
+        <v>1.015623246780192</v>
       </c>
       <c r="K4">
-        <v>1.026858094548972</v>
+        <v>1.013602761364835</v>
       </c>
       <c r="L4">
-        <v>1.02515182775153</v>
+        <v>1.01268405376932</v>
       </c>
       <c r="M4">
-        <v>1.035790645139107</v>
+        <v>1.016012818200357</v>
       </c>
       <c r="N4">
-        <v>1.012880291868348</v>
+        <v>1.00917142986072</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022086076814971</v>
+        <v>0.997229179951704</v>
       </c>
       <c r="D5">
-        <v>1.024562859891592</v>
+        <v>1.004487564794872</v>
       </c>
       <c r="E5">
-        <v>1.022838937570022</v>
+        <v>1.00349758868192</v>
       </c>
       <c r="F5">
-        <v>1.033602587035742</v>
+        <v>1.007292929261273</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029933626966795</v>
+        <v>1.041354704870219</v>
       </c>
       <c r="J5">
-        <v>1.02658679043125</v>
+        <v>1.016246744619303</v>
       </c>
       <c r="K5">
-        <v>1.027023679372222</v>
+        <v>1.014308880062019</v>
       </c>
       <c r="L5">
-        <v>1.025304132570289</v>
+        <v>1.013330437848594</v>
       </c>
       <c r="M5">
-        <v>1.036040719908201</v>
+        <v>1.017081712270676</v>
       </c>
       <c r="N5">
-        <v>1.012928164051019</v>
+        <v>1.00938176663395</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022126759624015</v>
+        <v>0.9974147354282071</v>
       </c>
       <c r="D6">
-        <v>1.02459956806495</v>
+        <v>1.004644956047103</v>
       </c>
       <c r="E6">
-        <v>1.022873427741769</v>
+        <v>1.003644935606153</v>
       </c>
       <c r="F6">
-        <v>1.033653428161946</v>
+        <v>1.007511504252906</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029938696317892</v>
+        <v>1.041390840738647</v>
       </c>
       <c r="J6">
-        <v>1.026610838792959</v>
+        <v>1.016350988325538</v>
       </c>
       <c r="K6">
-        <v>1.027051482344123</v>
+        <v>1.014426968285727</v>
       </c>
       <c r="L6">
-        <v>1.02532970638611</v>
+        <v>1.013438544227683</v>
       </c>
       <c r="M6">
-        <v>1.036082707728859</v>
+        <v>1.017260433114675</v>
       </c>
       <c r="N6">
-        <v>1.012936200282912</v>
+        <v>1.009416929756948</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021847050335772</v>
+        <v>0.9961346332494159</v>
       </c>
       <c r="D7">
-        <v>1.024347211807863</v>
+        <v>1.003559562191224</v>
       </c>
       <c r="E7">
-        <v>1.022636327306234</v>
+        <v>1.002628910587927</v>
       </c>
       <c r="F7">
-        <v>1.033303877686303</v>
+        <v>1.006003626150114</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029903725559802</v>
+        <v>1.041140573767394</v>
       </c>
       <c r="J7">
-        <v>1.026445461326122</v>
+        <v>1.015631607898901</v>
       </c>
       <c r="K7">
-        <v>1.026860307063777</v>
+        <v>1.01361222834939</v>
       </c>
       <c r="L7">
-        <v>1.025153862777075</v>
+        <v>1.012692719353885</v>
       </c>
       <c r="M7">
-        <v>1.035793986705858</v>
+        <v>1.016027151421406</v>
       </c>
       <c r="N7">
-        <v>1.012880931653674</v>
+        <v>1.00917425071128</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020678750431262</v>
+        <v>0.9906767068559632</v>
       </c>
       <c r="D8">
-        <v>1.023293810459198</v>
+        <v>0.9989423908990147</v>
       </c>
       <c r="E8">
-        <v>1.021646803196521</v>
+        <v>0.9983094406726792</v>
       </c>
       <c r="F8">
-        <v>1.031843881181392</v>
+        <v>0.9995747129024465</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029754743121663</v>
+        <v>1.040049231209159</v>
       </c>
       <c r="J8">
-        <v>1.025753808722151</v>
+        <v>1.012558858659268</v>
       </c>
       <c r="K8">
-        <v>1.026061312955064</v>
+        <v>1.010136707255713</v>
       </c>
       <c r="L8">
-        <v>1.024419041324744</v>
+        <v>1.009512360459818</v>
       </c>
       <c r="M8">
-        <v>1.034587063394048</v>
+        <v>1.010760448055132</v>
       </c>
       <c r="N8">
-        <v>1.012649671690531</v>
+        <v>1.008137189514066</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018623291498596</v>
+        <v>0.9806240268895353</v>
       </c>
       <c r="D9">
-        <v>1.021442976816771</v>
+        <v>0.9904814584889904</v>
       </c>
       <c r="E9">
-        <v>1.019908947326655</v>
+        <v>0.9904046191115736</v>
       </c>
       <c r="F9">
-        <v>1.02927523705095</v>
+        <v>0.9877314026203515</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029481655546126</v>
+        <v>1.03794853899035</v>
       </c>
       <c r="J9">
-        <v>1.024533576495511</v>
+        <v>1.006880056331779</v>
       </c>
       <c r="K9">
-        <v>1.024653784370856</v>
+        <v>1.003730878552054</v>
       </c>
       <c r="L9">
-        <v>1.023124925432931</v>
+        <v>1.003655317015124</v>
       </c>
       <c r="M9">
-        <v>1.032459909061177</v>
+        <v>1.001026715701687</v>
       </c>
       <c r="N9">
-        <v>1.012241258678141</v>
+        <v>1.006218930665516</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017255223530733</v>
+        <v>0.9735985649685721</v>
       </c>
       <c r="D10">
-        <v>1.020212796640013</v>
+        <v>0.9846003042363929</v>
       </c>
       <c r="E10">
-        <v>1.018754368387555</v>
+        <v>0.9849177545359347</v>
       </c>
       <c r="F10">
-        <v>1.027565561875635</v>
+        <v>0.9794500158471674</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029292525111905</v>
+        <v>1.03642153509844</v>
       </c>
       <c r="J10">
-        <v>1.023719167971025</v>
+        <v>1.002900296680327</v>
       </c>
       <c r="K10">
-        <v>1.023715765844001</v>
+        <v>0.9992532852750827</v>
       </c>
       <c r="L10">
-        <v>1.022262736734586</v>
+        <v>0.9995647698449734</v>
       </c>
       <c r="M10">
-        <v>1.031041568873264</v>
+        <v>0.9942004912469953</v>
       </c>
       <c r="N10">
-        <v>1.011968397678806</v>
+        <v>1.004873689018634</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.016663378751254</v>
+        <v>0.9704721636254374</v>
       </c>
       <c r="D11">
-        <v>1.01968101187794</v>
+        <v>0.9819913246976952</v>
       </c>
       <c r="E11">
-        <v>1.018255387271605</v>
+        <v>0.9824856644578316</v>
       </c>
       <c r="F11">
-        <v>1.026825911843994</v>
+        <v>0.9757628990042828</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029208958121526</v>
+        <v>1.035728578844058</v>
       </c>
       <c r="J11">
-        <v>1.023366313355069</v>
+        <v>1.001127103203209</v>
       </c>
       <c r="K11">
-        <v>1.023309685975716</v>
+        <v>0.9972610414270426</v>
       </c>
       <c r="L11">
-        <v>1.021889544130142</v>
+        <v>0.997745610470085</v>
       </c>
       <c r="M11">
-        <v>1.03042736182162</v>
+        <v>0.9911568381688456</v>
       </c>
       <c r="N11">
-        <v>1.011850111460998</v>
+        <v>1.004274144177888</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.016443623024017</v>
+        <v>0.9692975171698061</v>
       </c>
       <c r="D12">
-        <v>1.019483618618724</v>
+        <v>0.9810123704296613</v>
       </c>
       <c r="E12">
-        <v>1.018070188976194</v>
+        <v>0.9815733930016787</v>
       </c>
       <c r="F12">
-        <v>1.02655127093686</v>
+        <v>0.9743772391895581</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029177666832016</v>
+        <v>1.035466253489546</v>
       </c>
       <c r="J12">
-        <v>1.023235216739752</v>
+        <v>1.000460597822336</v>
       </c>
       <c r="K12">
-        <v>1.023158864151213</v>
+        <v>0.9965126142368983</v>
       </c>
       <c r="L12">
-        <v>1.021750945952768</v>
+        <v>0.9970623422051899</v>
       </c>
       <c r="M12">
-        <v>1.030199209917015</v>
+        <v>0.9900123641170961</v>
       </c>
       <c r="N12">
-        <v>1.011806154674258</v>
+        <v>1.004048766843018</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.016490757656948</v>
+        <v>0.9695500991157403</v>
       </c>
       <c r="D13">
-        <v>1.019525953999397</v>
+        <v>0.9812228139661875</v>
       </c>
       <c r="E13">
-        <v>1.018109908032195</v>
+        <v>0.9817694876933472</v>
       </c>
       <c r="F13">
-        <v>1.026610177901975</v>
+        <v>0.9746752115657129</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029184390261307</v>
+        <v>1.035522748979173</v>
       </c>
       <c r="J13">
-        <v>1.02326333878351</v>
+        <v>1.000603927343691</v>
       </c>
       <c r="K13">
-        <v>1.02319121527977</v>
+        <v>0.9966735420133167</v>
       </c>
       <c r="L13">
-        <v>1.021780674712588</v>
+        <v>0.9972092531893545</v>
       </c>
       <c r="M13">
-        <v>1.03024814963299</v>
+        <v>0.9902585001113445</v>
       </c>
       <c r="N13">
-        <v>1.011815584454437</v>
+        <v>1.004097234303325</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016645212000317</v>
+        <v>0.970375343731995</v>
       </c>
       <c r="D14">
-        <v>1.019664692522038</v>
+        <v>0.9819106081742156</v>
       </c>
       <c r="E14">
-        <v>1.018240075746311</v>
+        <v>0.9824104396826689</v>
       </c>
       <c r="F14">
-        <v>1.026803207939031</v>
+        <v>0.9756486937724003</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029206376687175</v>
+        <v>1.035706996494926</v>
       </c>
       <c r="J14">
-        <v>1.023355477489004</v>
+        <v>1.001072172224062</v>
       </c>
       <c r="K14">
-        <v>1.023297218698493</v>
+        <v>0.9971993503219688</v>
       </c>
       <c r="L14">
-        <v>1.02187808710336</v>
+        <v>0.9976892874648426</v>
       </c>
       <c r="M14">
-        <v>1.030408502875986</v>
+        <v>0.991062524058693</v>
       </c>
       <c r="N14">
-        <v>1.011846478385623</v>
+        <v>1.004255569796896</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.016740387284824</v>
+        <v>0.9708820120936061</v>
       </c>
       <c r="D15">
-        <v>1.019750191871263</v>
+        <v>0.9823330587801609</v>
       </c>
       <c r="E15">
-        <v>1.018320295694195</v>
+        <v>0.9828041605157044</v>
       </c>
       <c r="F15">
-        <v>1.026922153117028</v>
+        <v>0.9762463270019062</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029219890031374</v>
+        <v>1.035819859149881</v>
       </c>
       <c r="J15">
-        <v>1.02341224314536</v>
+        <v>1.001359620299724</v>
       </c>
       <c r="K15">
-        <v>1.023362532832067</v>
+        <v>0.9975221903251197</v>
       </c>
       <c r="L15">
-        <v>1.021938109060873</v>
+        <v>0.9979840408748633</v>
       </c>
       <c r="M15">
-        <v>1.030507300746005</v>
+        <v>0.9915560418125918</v>
       </c>
       <c r="N15">
-        <v>1.011865510514166</v>
+        <v>1.004352766748534</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.017294513732736</v>
+        <v>0.9738042191945003</v>
       </c>
       <c r="D16">
-        <v>1.020248108339631</v>
+        <v>0.9847720979740092</v>
       </c>
       <c r="E16">
-        <v>1.018787504449456</v>
+        <v>0.9850779428956828</v>
       </c>
       <c r="F16">
-        <v>1.027614663745351</v>
+        <v>0.9796925102737949</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029298035983574</v>
+        <v>1.036466841915554</v>
       </c>
       <c r="J16">
-        <v>1.023742581415</v>
+        <v>1.003016895460473</v>
       </c>
       <c r="K16">
-        <v>1.02374271797812</v>
+        <v>0.9993843454960023</v>
       </c>
       <c r="L16">
-        <v>1.022287507352063</v>
+        <v>0.999684462283532</v>
       </c>
       <c r="M16">
-        <v>1.031082330619603</v>
+        <v>0.9944005766642312</v>
       </c>
       <c r="N16">
-        <v>1.011976245118737</v>
+        <v>1.004913109743172</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.017642247267453</v>
+        <v>0.9756141911302729</v>
       </c>
       <c r="D17">
-        <v>1.020560677792003</v>
+        <v>0.9862850018005757</v>
       </c>
       <c r="E17">
-        <v>1.019080829949031</v>
+        <v>0.9864888706412491</v>
       </c>
       <c r="F17">
-        <v>1.028049231763005</v>
+        <v>0.9818264997965308</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029346607479901</v>
+        <v>1.03686406636842</v>
       </c>
       <c r="J17">
-        <v>1.023949738204661</v>
+        <v>1.004042845297068</v>
       </c>
       <c r="K17">
-        <v>1.023981222467091</v>
+        <v>1.000537855311967</v>
       </c>
       <c r="L17">
-        <v>1.022506714083413</v>
+        <v>1.000738020076286</v>
       </c>
       <c r="M17">
-        <v>1.031443016861081</v>
+        <v>0.9961608606276937</v>
       </c>
       <c r="N17">
-        <v>1.012045669955724</v>
+        <v>1.005259953050449</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017845126166322</v>
+        <v>0.9766618297280184</v>
       </c>
       <c r="D18">
-        <v>1.020743080178659</v>
+        <v>0.9871614668525316</v>
       </c>
       <c r="E18">
-        <v>1.019252014203698</v>
+        <v>0.9873064453030334</v>
       </c>
       <c r="F18">
-        <v>1.028302770688478</v>
+        <v>0.9830615170235381</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029374777032457</v>
+        <v>1.037092708305378</v>
       </c>
       <c r="J18">
-        <v>1.024070548898951</v>
+        <v>1.004636472467964</v>
       </c>
       <c r="K18">
-        <v>1.024120346554072</v>
+        <v>1.001205552139505</v>
       </c>
       <c r="L18">
-        <v>1.022634587177117</v>
+        <v>1.001347943339056</v>
       </c>
       <c r="M18">
-        <v>1.031653393574545</v>
+        <v>0.9971791797547312</v>
       </c>
       <c r="N18">
-        <v>1.012086151180967</v>
+        <v>1.005460624593076</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.017914311385814</v>
+        <v>0.9770176958949696</v>
       </c>
       <c r="D19">
-        <v>1.020805289209792</v>
+        <v>0.9874593177243964</v>
       </c>
       <c r="E19">
-        <v>1.019310399249774</v>
+        <v>0.9875843146965311</v>
       </c>
       <c r="F19">
-        <v>1.028389231544927</v>
+        <v>0.983481006288184</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029384354735458</v>
+        <v>1.037170156237175</v>
       </c>
       <c r="J19">
-        <v>1.024111738743428</v>
+        <v>1.004838081739937</v>
       </c>
       <c r="K19">
-        <v>1.024167785674495</v>
+        <v>1.001432361584961</v>
       </c>
       <c r="L19">
-        <v>1.022678190859033</v>
+        <v>1.001555141591775</v>
       </c>
       <c r="M19">
-        <v>1.031725125657066</v>
+        <v>0.9975249925031674</v>
       </c>
       <c r="N19">
-        <v>1.012099951998584</v>
+        <v>1.005528774331845</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.017604933383788</v>
+        <v>0.9754208396400816</v>
       </c>
       <c r="D20">
-        <v>1.020527133151624</v>
+        <v>0.9861233041383298</v>
       </c>
       <c r="E20">
-        <v>1.019049349325899</v>
+        <v>0.986338052596371</v>
       </c>
       <c r="F20">
-        <v>1.028002600234295</v>
+        <v>0.9815985527646784</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029341412906997</v>
+        <v>1.036821764784828</v>
       </c>
       <c r="J20">
-        <v>1.023927514340648</v>
+        <v>1.003933268778435</v>
       </c>
       <c r="K20">
-        <v>1.023955632310617</v>
+        <v>1.000414627586904</v>
       </c>
       <c r="L20">
-        <v>1.022483193870283</v>
+        <v>1.000625461473212</v>
       </c>
       <c r="M20">
-        <v>1.031404319203467</v>
+        <v>0.9959728753127303</v>
       </c>
       <c r="N20">
-        <v>1.01203822268096</v>
+        <v>1.00522291012715</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.016599726780447</v>
+        <v>0.9701327044131817</v>
       </c>
       <c r="D21">
-        <v>1.019623833739801</v>
+        <v>0.9817083462766507</v>
       </c>
       <c r="E21">
-        <v>1.018201740570865</v>
+        <v>0.9822219442047532</v>
       </c>
       <c r="F21">
-        <v>1.026746362695224</v>
+        <v>0.9753624794798165</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029199909152124</v>
+        <v>1.035652877642516</v>
       </c>
       <c r="J21">
-        <v>1.023328345776958</v>
+        <v>1.000934505839413</v>
       </c>
       <c r="K21">
-        <v>1.02326600293006</v>
+        <v>0.9970447485879181</v>
       </c>
       <c r="L21">
-        <v>1.021849400961967</v>
+        <v>0.9975481407333298</v>
       </c>
       <c r="M21">
-        <v>1.030361283061721</v>
+        <v>0.990826149569586</v>
       </c>
       <c r="N21">
-        <v>1.011837381442673</v>
+        <v>1.004209018907043</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.015968187116833</v>
+        <v>0.9667301580391097</v>
       </c>
       <c r="D22">
-        <v>1.019056676903777</v>
+        <v>0.978875156173485</v>
       </c>
       <c r="E22">
-        <v>1.017669657862973</v>
+        <v>0.979582341148347</v>
       </c>
       <c r="F22">
-        <v>1.025957083720356</v>
+        <v>0.9713479691124335</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029109489363877</v>
+        <v>1.03488933764477</v>
       </c>
       <c r="J22">
-        <v>1.022951447545468</v>
+        <v>0.9990033781936489</v>
       </c>
       <c r="K22">
-        <v>1.022832488931914</v>
+        <v>0.9948770464348566</v>
       </c>
       <c r="L22">
-        <v>1.021451038991794</v>
+        <v>0.9955694248953489</v>
       </c>
       <c r="M22">
-        <v>1.029705438427794</v>
+        <v>0.9875092290739511</v>
       </c>
       <c r="N22">
-        <v>1.011710988937483</v>
+        <v>1.003555976568556</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01630293301425</v>
+        <v>0.9685415199128613</v>
       </c>
       <c r="D23">
-        <v>1.019357262766423</v>
+        <v>0.9803826898091814</v>
       </c>
       <c r="E23">
-        <v>1.017951644641509</v>
+        <v>0.9809866927653107</v>
       </c>
       <c r="F23">
-        <v>1.026375441551112</v>
+        <v>0.9734853290667536</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029157559969292</v>
+        <v>1.035296873362227</v>
       </c>
       <c r="J23">
-        <v>1.023151264921867</v>
+        <v>1.000031563090381</v>
       </c>
       <c r="K23">
-        <v>1.023062294653332</v>
+        <v>0.9960309625965205</v>
       </c>
       <c r="L23">
-        <v>1.021662205661634</v>
+        <v>0.9966226627255924</v>
       </c>
       <c r="M23">
-        <v>1.030053118337501</v>
+        <v>0.9892755232072418</v>
       </c>
       <c r="N23">
-        <v>1.011778002839771</v>
+        <v>1.003903684197497</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.017621793761639</v>
+        <v>0.9755082317979056</v>
       </c>
       <c r="D24">
-        <v>1.020542290265381</v>
+        <v>0.9861963868154974</v>
       </c>
       <c r="E24">
-        <v>1.019063573778911</v>
+        <v>0.9864062174217292</v>
       </c>
       <c r="F24">
-        <v>1.028023670820896</v>
+        <v>0.9817015821356947</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029343760609568</v>
+        <v>1.036840888470628</v>
       </c>
       <c r="J24">
-        <v>1.023937556411157</v>
+        <v>1.003982796473125</v>
       </c>
       <c r="K24">
-        <v>1.023967195374789</v>
+        <v>1.000470324703731</v>
       </c>
       <c r="L24">
-        <v>1.022493821600518</v>
+        <v>1.00067633604834</v>
       </c>
       <c r="M24">
-        <v>1.031421805026055</v>
+        <v>0.9960578437666712</v>
       </c>
       <c r="N24">
-        <v>1.012041587824396</v>
+        <v>1.005239653277729</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.019154287071616</v>
+        <v>0.9832775320280129</v>
       </c>
       <c r="D25">
-        <v>1.021920813970251</v>
+        <v>0.9927095048378506</v>
       </c>
       <c r="E25">
-        <v>1.020357527310487</v>
+        <v>0.9924849290646256</v>
       </c>
       <c r="F25">
-        <v>1.029938809669431</v>
+        <v>0.9908581118525724</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029553503844934</v>
+        <v>1.038513370423014</v>
       </c>
       <c r="J25">
-        <v>1.024849202084467</v>
+        <v>1.008381083868147</v>
       </c>
       <c r="K25">
-        <v>1.025017610098457</v>
+        <v>1.005422060551484</v>
       </c>
       <c r="L25">
-        <v>1.023459392093332</v>
+        <v>1.005201037929518</v>
       </c>
       <c r="M25">
-        <v>1.033009873658841</v>
+        <v>1.003600021205201</v>
       </c>
       <c r="N25">
-        <v>1.012346948047582</v>
+        <v>1.006726138344477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9892431606847333</v>
+        <v>0.9945129304246232</v>
       </c>
       <c r="D2">
-        <v>0.997732459574161</v>
+        <v>1.011715778548695</v>
       </c>
       <c r="E2">
-        <v>0.9971782079665999</v>
+        <v>1.008494978896209</v>
       </c>
       <c r="F2">
-        <v>0.9978860855766714</v>
+        <v>1.012260667177387</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039756466638764</v>
+        <v>1.038808876046548</v>
       </c>
       <c r="J2">
-        <v>1.011750437137771</v>
+        <v>1.016859006632254</v>
       </c>
       <c r="K2">
-        <v>1.00922347549305</v>
+        <v>1.023014271710725</v>
       </c>
       <c r="L2">
-        <v>1.008676995324948</v>
+        <v>1.019837220341164</v>
       </c>
       <c r="M2">
-        <v>1.0093749493576</v>
+        <v>1.023551793715071</v>
       </c>
       <c r="N2">
-        <v>1.007864228144587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009116274700684</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.027211930452651</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.027343105911905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.993451051975214</v>
+        <v>1.002012573137598</v>
       </c>
       <c r="D3">
-        <v>1.001287246373024</v>
+        <v>1.017896824856107</v>
       </c>
       <c r="E3">
-        <v>1.00050258346334</v>
+        <v>1.015043011209351</v>
       </c>
       <c r="F3">
-        <v>1.002842625025612</v>
+        <v>1.019597215928401</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040608740943407</v>
+        <v>1.041799885200243</v>
       </c>
       <c r="J3">
-        <v>1.014121854134143</v>
+        <v>1.022448523336758</v>
       </c>
       <c r="K3">
-        <v>1.011903683095483</v>
+        <v>1.028305721197567</v>
       </c>
       <c r="L3">
-        <v>1.011129037676805</v>
+        <v>1.025486965114501</v>
       </c>
       <c r="M3">
-        <v>1.013439262686632</v>
+        <v>1.029985339856074</v>
       </c>
       <c r="N3">
-        <v>1.008664797884361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011018575950344</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.032303728290766</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.031082040320734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9961197605630023</v>
+        <v>1.006654917956425</v>
       </c>
       <c r="D4">
-        <v>1.003546957317166</v>
+        <v>1.021716458254796</v>
       </c>
       <c r="E4">
-        <v>1.002617112698983</v>
+        <v>1.019086128381673</v>
       </c>
       <c r="F4">
-        <v>1.00598610729803</v>
+        <v>1.024093650905996</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041137652801104</v>
+        <v>1.043560850544954</v>
       </c>
       <c r="J4">
-        <v>1.015623246780192</v>
+        <v>1.025889908724335</v>
       </c>
       <c r="K4">
-        <v>1.013602761364835</v>
+        <v>1.03155966376291</v>
       </c>
       <c r="L4">
-        <v>1.01268405376932</v>
+        <v>1.028959531310299</v>
       </c>
       <c r="M4">
-        <v>1.016012818200357</v>
+        <v>1.033909729722831</v>
       </c>
       <c r="N4">
-        <v>1.00917142986072</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012189509947718</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.035409648730289</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.033383821975531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.997229179951704</v>
+        <v>1.008567557465477</v>
       </c>
       <c r="D5">
-        <v>1.004487564794872</v>
+        <v>1.023290804647114</v>
       </c>
       <c r="E5">
-        <v>1.00349758868192</v>
+        <v>1.020749803710808</v>
       </c>
       <c r="F5">
-        <v>1.007292929261273</v>
+        <v>1.025935050129919</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041354704870219</v>
+        <v>1.044263366615488</v>
       </c>
       <c r="J5">
-        <v>1.016246744619303</v>
+        <v>1.027305182426578</v>
       </c>
       <c r="K5">
-        <v>1.014308880062019</v>
+        <v>1.032898264505575</v>
       </c>
       <c r="L5">
-        <v>1.013330437848594</v>
+        <v>1.030385596357095</v>
       </c>
       <c r="M5">
-        <v>1.017081712270676</v>
+        <v>1.035513209190623</v>
       </c>
       <c r="N5">
-        <v>1.00938176663395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01267199799896</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.036678703128457</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.034337572678949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9974147354282071</v>
+        <v>1.008894731952929</v>
       </c>
       <c r="D6">
-        <v>1.004644956047103</v>
+        <v>1.023562573353353</v>
       </c>
       <c r="E6">
-        <v>1.003644935606153</v>
+        <v>1.021034505815421</v>
       </c>
       <c r="F6">
-        <v>1.007511504252906</v>
+        <v>1.026248333469978</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041390840738647</v>
+        <v>1.044379948479805</v>
       </c>
       <c r="J6">
-        <v>1.016350988325538</v>
+        <v>1.027549071998594</v>
       </c>
       <c r="K6">
-        <v>1.014426968285727</v>
+        <v>1.033130465080141</v>
       </c>
       <c r="L6">
-        <v>1.013438544227683</v>
+        <v>1.030630446498613</v>
       </c>
       <c r="M6">
-        <v>1.017260433114675</v>
+        <v>1.035786612644255</v>
       </c>
       <c r="N6">
-        <v>1.009416929756948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012756373232451</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.036895084753087</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.034510570307171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9961346332494159</v>
+        <v>1.006704057854102</v>
       </c>
       <c r="D7">
-        <v>1.003559562191224</v>
+        <v>1.021763726311365</v>
       </c>
       <c r="E7">
-        <v>1.002628910587927</v>
+        <v>1.019129552154518</v>
       </c>
       <c r="F7">
-        <v>1.006003626150114</v>
+        <v>1.024137952971897</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041140573767394</v>
+        <v>1.04357256214089</v>
       </c>
       <c r="J7">
-        <v>1.015631607898901</v>
+        <v>1.025931785504879</v>
       </c>
       <c r="K7">
-        <v>1.01361222834939</v>
+        <v>1.031603475176305</v>
       </c>
       <c r="L7">
-        <v>1.012692719353885</v>
+        <v>1.028999529147999</v>
       </c>
       <c r="M7">
-        <v>1.016027151421406</v>
+        <v>1.033950621032984</v>
       </c>
       <c r="N7">
-        <v>1.00917425071128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012207162427797</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.035442011690539</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.033435085708182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9906767068559632</v>
+        <v>0.9971241222609262</v>
       </c>
       <c r="D8">
-        <v>0.9989423908990147</v>
+        <v>1.013877754231956</v>
       </c>
       <c r="E8">
-        <v>0.9983094406726792</v>
+        <v>1.010777923511368</v>
       </c>
       <c r="F8">
-        <v>0.9995747129024465</v>
+        <v>1.014820669113886</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040049231209159</v>
+        <v>1.039860925355363</v>
       </c>
       <c r="J8">
-        <v>1.012558858659268</v>
+        <v>1.018816077795397</v>
       </c>
       <c r="K8">
-        <v>1.010136707255713</v>
+        <v>1.024872967365155</v>
       </c>
       <c r="L8">
-        <v>1.009512360459818</v>
+        <v>1.02181385361321</v>
       </c>
       <c r="M8">
-        <v>1.010760448055132</v>
+        <v>1.025803558656379</v>
       </c>
       <c r="N8">
-        <v>1.008137189514066</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009786894231916</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.028994082786025</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.028680630028527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9806240268895353</v>
+        <v>0.9783511616104066</v>
       </c>
       <c r="D9">
-        <v>0.9904814584889904</v>
+        <v>0.9983497089695665</v>
       </c>
       <c r="E9">
-        <v>0.9904046191115736</v>
+        <v>0.9943142136222541</v>
       </c>
       <c r="F9">
-        <v>0.9877314026203515</v>
+        <v>0.996150186441488</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03794853899035</v>
+        <v>1.031789286430693</v>
       </c>
       <c r="J9">
-        <v>1.006880056331779</v>
+        <v>1.004692260236481</v>
       </c>
       <c r="K9">
-        <v>1.003730878552054</v>
+        <v>1.011469617859525</v>
       </c>
       <c r="L9">
-        <v>1.003655317015124</v>
+        <v>1.007500217281087</v>
       </c>
       <c r="M9">
-        <v>1.001026715701687</v>
+        <v>1.009306034525734</v>
       </c>
       <c r="N9">
-        <v>1.006218930665516</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.004974776737312</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.015937060308862</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.01919991780574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9735985649685721</v>
+        <v>0.9642236081260014</v>
       </c>
       <c r="D10">
-        <v>0.9846003042363929</v>
+        <v>0.9866103265298726</v>
       </c>
       <c r="E10">
-        <v>0.9849177545359347</v>
+        <v>0.9818433915346582</v>
       </c>
       <c r="F10">
-        <v>0.9794500158471674</v>
+        <v>0.9817422440799377</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03642153509844</v>
+        <v>1.025023338583607</v>
       </c>
       <c r="J10">
-        <v>1.002900296680327</v>
+        <v>0.9939322713726364</v>
       </c>
       <c r="K10">
-        <v>0.9992532852750827</v>
+        <v>1.001225618527175</v>
       </c>
       <c r="L10">
-        <v>0.9995647698449734</v>
+        <v>0.9965483943133998</v>
       </c>
       <c r="M10">
-        <v>0.9942004912469953</v>
+        <v>0.9964491627306391</v>
       </c>
       <c r="N10">
-        <v>1.004873689018634</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.001326892948561</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.005814827040031</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.011973596126573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9704721636254374</v>
+        <v>0.9581680100743942</v>
       </c>
       <c r="D11">
-        <v>0.9819913246976952</v>
+        <v>0.9816102675765968</v>
       </c>
       <c r="E11">
-        <v>0.9824856644578316</v>
+        <v>0.9765349902209959</v>
       </c>
       <c r="F11">
-        <v>0.9757628990042828</v>
+        <v>0.9755526522512438</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035728578844058</v>
+        <v>1.021734610230077</v>
       </c>
       <c r="J11">
-        <v>1.001127103203209</v>
+        <v>0.9893908873556508</v>
       </c>
       <c r="K11">
-        <v>0.9972610414270426</v>
+        <v>0.9968875247954897</v>
       </c>
       <c r="L11">
-        <v>0.997745610470085</v>
+        <v>0.9919134172385509</v>
       </c>
       <c r="M11">
-        <v>0.9911568381688456</v>
+        <v>0.9909508210991462</v>
       </c>
       <c r="N11">
-        <v>1.004274144177888</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9999393108228303</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.001918751089664</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.008940130173449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9692975171698061</v>
+        <v>0.9559711065303702</v>
       </c>
       <c r="D12">
-        <v>0.9810123704296613</v>
+        <v>0.9797950519396926</v>
       </c>
       <c r="E12">
-        <v>0.9815733930016787</v>
+        <v>0.9746176385384328</v>
       </c>
       <c r="F12">
-        <v>0.9743772391895581</v>
+        <v>0.973312867785611</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035466253489546</v>
+        <v>1.020455536530818</v>
       </c>
       <c r="J12">
-        <v>1.000460597822336</v>
+        <v>0.9877632396019883</v>
       </c>
       <c r="K12">
-        <v>0.9965126142368983</v>
+        <v>0.995319861594765</v>
       </c>
       <c r="L12">
-        <v>0.9970623422051899</v>
+        <v>0.9902478342528827</v>
       </c>
       <c r="M12">
-        <v>0.9900123641170961</v>
+        <v>0.9889698554783408</v>
       </c>
       <c r="N12">
-        <v>1.004048766843018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9995075335129722</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.000691650153108</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.007831663386377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9695500991157403</v>
+        <v>0.9567925287775773</v>
       </c>
       <c r="D13">
-        <v>0.9812228139661875</v>
+        <v>0.9804927947960737</v>
       </c>
       <c r="E13">
-        <v>0.9817694876933472</v>
+        <v>0.9753705885514975</v>
       </c>
       <c r="F13">
-        <v>0.9746752115657129</v>
+        <v>0.9742134861351419</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035522748979173</v>
+        <v>1.020793306293137</v>
       </c>
       <c r="J13">
-        <v>1.000603927343691</v>
+        <v>0.9884453659530885</v>
       </c>
       <c r="K13">
-        <v>0.9966735420133167</v>
+        <v>0.9959581871436897</v>
       </c>
       <c r="L13">
-        <v>0.9972092531893545</v>
+        <v>0.990939687378952</v>
       </c>
       <c r="M13">
-        <v>0.9902585001113445</v>
+        <v>0.9898062113113305</v>
       </c>
       <c r="N13">
-        <v>1.004097234303325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9998447715357047</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.001639431467846</v>
+      </c>
+      <c r="Q13">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R13">
+        <v>1.008280426969454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.970375343731995</v>
+        <v>0.9587278875537831</v>
       </c>
       <c r="D14">
-        <v>0.9819106081742156</v>
+        <v>0.9821144499571016</v>
       </c>
       <c r="E14">
-        <v>0.9824104396826689</v>
+        <v>0.9770998724909484</v>
       </c>
       <c r="F14">
-        <v>0.9756486937724003</v>
+        <v>0.9762577179567267</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035706996494926</v>
+        <v>1.021756336267599</v>
       </c>
       <c r="J14">
-        <v>1.001072172224062</v>
+        <v>0.9899627419863437</v>
       </c>
       <c r="K14">
-        <v>0.9971993503219688</v>
+        <v>0.9973991553770599</v>
       </c>
       <c r="L14">
-        <v>0.9976892874648426</v>
+        <v>0.9924845261879991</v>
       </c>
       <c r="M14">
-        <v>0.991062524058693</v>
+        <v>0.9916592896399956</v>
       </c>
       <c r="N14">
-        <v>1.004255569796896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.000426211544363</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.003282645423003</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.009300787990337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9708820120936061</v>
+        <v>0.9598568568454783</v>
       </c>
       <c r="D15">
-        <v>0.9823330587801609</v>
+        <v>0.983060542103022</v>
       </c>
       <c r="E15">
-        <v>0.9828041605157044</v>
+        <v>0.9781045764729952</v>
       </c>
       <c r="F15">
-        <v>0.9762463270019062</v>
+        <v>0.9774396174528615</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035819859149881</v>
+        <v>1.022328946743145</v>
       </c>
       <c r="J15">
-        <v>1.001359620299724</v>
+        <v>0.9908386711358929</v>
       </c>
       <c r="K15">
-        <v>0.9975221903251197</v>
+        <v>0.9982353926992197</v>
       </c>
       <c r="L15">
-        <v>0.9979840408748633</v>
+        <v>0.9933772686096733</v>
       </c>
       <c r="M15">
-        <v>0.9915560418125918</v>
+        <v>0.9927255365800778</v>
       </c>
       <c r="N15">
-        <v>1.004352766748534</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.000737590100723</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.004163883928876</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.009898154219494</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,81 +1175,105 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9738042191945003</v>
+        <v>0.9660398506184642</v>
       </c>
       <c r="D16">
-        <v>0.9847720979740092</v>
+        <v>0.9882272983296426</v>
       </c>
       <c r="E16">
-        <v>0.9850779428956828</v>
+        <v>0.9835925057901164</v>
       </c>
       <c r="F16">
-        <v>0.9796925102737949</v>
+        <v>0.983863097667833</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036466841915554</v>
+        <v>1.025464278846814</v>
       </c>
       <c r="J16">
-        <v>1.003016895460473</v>
+        <v>0.9955874567933486</v>
       </c>
       <c r="K16">
-        <v>0.9993843454960023</v>
+        <v>1.002775102772247</v>
       </c>
       <c r="L16">
-        <v>0.999684462283532</v>
+        <v>0.9982268893341233</v>
       </c>
       <c r="M16">
-        <v>0.9944005766642312</v>
+        <v>0.9984923972047253</v>
       </c>
       <c r="N16">
-        <v>1.004913109743172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.002322626746408</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.008682160081235</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.013111329225159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9756141911302729</v>
+        <v>0.9696919122591473</v>
       </c>
       <c r="D17">
-        <v>0.9862850018005757</v>
+        <v>0.9912715823778419</v>
       </c>
       <c r="E17">
-        <v>0.9864888706412491</v>
+        <v>0.9868210877243391</v>
       </c>
       <c r="F17">
-        <v>0.9818264997965308</v>
+        <v>0.9876106814918703</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03686406636842</v>
+        <v>1.027286665224198</v>
       </c>
       <c r="J17">
-        <v>1.004042845297068</v>
+        <v>0.9983667587628171</v>
       </c>
       <c r="K17">
-        <v>1.000537855311967</v>
+        <v>1.005434402987424</v>
       </c>
       <c r="L17">
-        <v>1.000738020076286</v>
+        <v>1.001064205399769</v>
       </c>
       <c r="M17">
-        <v>0.9961608606276937</v>
+        <v>1.001839484418199</v>
       </c>
       <c r="N17">
-        <v>1.005259953050449</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.003211977998535</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.011195602464381</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.01499429471326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9766618297280184</v>
+        <v>0.9716082715995451</v>
       </c>
       <c r="D18">
-        <v>0.9871614668525316</v>
+        <v>0.9928538023961904</v>
       </c>
       <c r="E18">
-        <v>0.9873064453030334</v>
+        <v>0.9884975553179247</v>
       </c>
       <c r="F18">
-        <v>0.9830615170235381</v>
+        <v>0.9895361009115488</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037092708305378</v>
+        <v>1.028281210023706</v>
       </c>
       <c r="J18">
-        <v>1.004636472467964</v>
+        <v>0.99978852264578</v>
       </c>
       <c r="K18">
-        <v>1.001205552139505</v>
+        <v>1.006797039282607</v>
       </c>
       <c r="L18">
-        <v>1.001347943339056</v>
+        <v>1.002517834375785</v>
       </c>
       <c r="M18">
-        <v>0.9971791797547312</v>
+        <v>1.003537932930221</v>
       </c>
       <c r="N18">
-        <v>1.005460624593076</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.003606185003602</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.01229439911281</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.015945796493611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9770176958949696</v>
+        <v>0.9719962086440328</v>
       </c>
       <c r="D19">
-        <v>0.9874593177243964</v>
+        <v>0.9931545225375799</v>
       </c>
       <c r="E19">
-        <v>0.9875843146965311</v>
+        <v>0.9888028640269739</v>
       </c>
       <c r="F19">
-        <v>0.983481006288184</v>
+        <v>0.9898554374540727</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037170156237175</v>
+        <v>1.028571057121054</v>
       </c>
       <c r="J19">
-        <v>1.004838081739937</v>
+        <v>1.000019474585418</v>
       </c>
       <c r="K19">
-        <v>1.001432361584961</v>
+        <v>1.007027289166744</v>
       </c>
       <c r="L19">
-        <v>1.001555141591775</v>
+        <v>1.002752116631178</v>
       </c>
       <c r="M19">
-        <v>0.9975249925031674</v>
+        <v>1.003786109789315</v>
       </c>
       <c r="N19">
-        <v>1.005528774331845</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.003576140923926</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.012155662164431</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.016115171262954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9754208396400816</v>
+        <v>0.9680668042363683</v>
       </c>
       <c r="D20">
-        <v>0.9861233041383298</v>
+        <v>0.9898270045709563</v>
       </c>
       <c r="E20">
-        <v>0.986338052596371</v>
+        <v>0.9852460632380141</v>
       </c>
       <c r="F20">
-        <v>0.9815985527646784</v>
+        <v>0.9856827701255858</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036821764784828</v>
+        <v>1.026892449465857</v>
       </c>
       <c r="J20">
-        <v>1.003933268778435</v>
+        <v>0.9968867253022704</v>
       </c>
       <c r="K20">
-        <v>1.000414627586904</v>
+        <v>1.004051123990681</v>
       </c>
       <c r="L20">
-        <v>1.000625461473212</v>
+        <v>0.9995534006666293</v>
       </c>
       <c r="M20">
-        <v>0.9959728753127303</v>
+        <v>0.9999821308581691</v>
       </c>
       <c r="N20">
-        <v>1.00522291012715</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.002340151225285</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.008599938447221</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.014014856640095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9701327044131817</v>
+        <v>0.956751985482998</v>
       </c>
       <c r="D21">
-        <v>0.9817083462766507</v>
+        <v>0.9803776222401153</v>
       </c>
       <c r="E21">
-        <v>0.9822219442047532</v>
+        <v>0.9751989815309368</v>
       </c>
       <c r="F21">
-        <v>0.9753624794798165</v>
+        <v>0.9739508881440695</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035652877642516</v>
+        <v>1.021232478937502</v>
       </c>
       <c r="J21">
-        <v>1.000934505839413</v>
+        <v>0.9881761779221115</v>
       </c>
       <c r="K21">
-        <v>0.9970447485879181</v>
+        <v>0.9957405329900303</v>
       </c>
       <c r="L21">
-        <v>0.9975481407333298</v>
+        <v>0.9906659594377265</v>
       </c>
       <c r="M21">
-        <v>0.990826149569586</v>
+        <v>0.9894431651379652</v>
       </c>
       <c r="N21">
-        <v>1.004209018907043</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9993580455978739</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.00021617875261</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.00814202424098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9667301580391097</v>
+        <v>0.949028973968901</v>
       </c>
       <c r="D22">
-        <v>0.978875156173485</v>
+        <v>0.9738980013762217</v>
       </c>
       <c r="E22">
-        <v>0.979582341148347</v>
+        <v>0.9683097734204317</v>
       </c>
       <c r="F22">
-        <v>0.9713479691124335</v>
+        <v>0.9658240906478101</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03488933764477</v>
+        <v>1.017155231283669</v>
       </c>
       <c r="J22">
-        <v>0.9990033781936489</v>
+        <v>0.9821816122778294</v>
       </c>
       <c r="K22">
-        <v>0.9948770464348566</v>
+        <v>0.9900049052262658</v>
       </c>
       <c r="L22">
-        <v>0.9955694248953489</v>
+        <v>0.9845362910015043</v>
       </c>
       <c r="M22">
-        <v>0.9875092290739511</v>
+        <v>0.9821044038436256</v>
       </c>
       <c r="N22">
-        <v>1.003555976568556</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9973105931850823</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>0.9944076637273697</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.004072411909877</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9685415199128613</v>
+        <v>0.953163774286016</v>
       </c>
       <c r="D23">
-        <v>0.9803826898091814</v>
+        <v>0.9773642418665206</v>
       </c>
       <c r="E23">
-        <v>0.9809866927653107</v>
+        <v>0.9720018026627941</v>
       </c>
       <c r="F23">
-        <v>0.9734853290667536</v>
+        <v>0.9701948737120856</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035296873362227</v>
+        <v>1.019371049258743</v>
       </c>
       <c r="J23">
-        <v>1.000031563090381</v>
+        <v>0.9853916739758006</v>
       </c>
       <c r="K23">
-        <v>0.9960309625965205</v>
+        <v>0.9930742975572427</v>
       </c>
       <c r="L23">
-        <v>0.9966226627255924</v>
+        <v>0.9878228699892891</v>
       </c>
       <c r="M23">
-        <v>0.9892755232072418</v>
+        <v>0.9860537131031242</v>
       </c>
       <c r="N23">
-        <v>1.003903684197497</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9984027816351002</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>0.9975334872036048</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.006232737787873</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9755082317979056</v>
+        <v>0.9681476457522313</v>
       </c>
       <c r="D24">
-        <v>0.9861963868154974</v>
+        <v>0.9898794775753358</v>
       </c>
       <c r="E24">
-        <v>0.9864062174217292</v>
+        <v>0.9853096079522318</v>
       </c>
       <c r="F24">
-        <v>0.9817015821356947</v>
+        <v>0.9857610367431898</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036840888470628</v>
+        <v>1.026965766575956</v>
       </c>
       <c r="J24">
-        <v>1.003982796473125</v>
+        <v>0.9969294648735734</v>
       </c>
       <c r="K24">
-        <v>1.000470324703731</v>
+        <v>1.004086682920766</v>
       </c>
       <c r="L24">
-        <v>1.00067633604834</v>
+        <v>0.9995997100554308</v>
       </c>
       <c r="M24">
-        <v>0.9960578437666712</v>
+        <v>1.000042905467639</v>
       </c>
       <c r="N24">
-        <v>1.005239653277729</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.00233529532069</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.008605612046856</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.014011766939129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9832775320280129</v>
+        <v>0.9835040116683177</v>
       </c>
       <c r="D25">
-        <v>0.9927095048378506</v>
+        <v>1.002631112997402</v>
       </c>
       <c r="E25">
-        <v>0.9924849290646256</v>
+        <v>0.9988471232296979</v>
       </c>
       <c r="F25">
-        <v>0.9908581118525724</v>
+        <v>1.001322943641001</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038513370423014</v>
+        <v>1.034092805943007</v>
       </c>
       <c r="J25">
-        <v>1.008381083868147</v>
+        <v>1.008599576693992</v>
       </c>
       <c r="K25">
-        <v>1.005422060551484</v>
+        <v>1.015188721174931</v>
       </c>
       <c r="L25">
-        <v>1.005201037929518</v>
+        <v>1.011463362527013</v>
       </c>
       <c r="M25">
-        <v>1.003600021205201</v>
+        <v>1.013900757269041</v>
       </c>
       <c r="N25">
-        <v>1.006726138344477</v>
+        <v>1.006312397191975</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.019573594990393</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.021858905062992</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_2/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9945129304246232</v>
+        <v>0.9961047194811817</v>
       </c>
       <c r="D2">
-        <v>1.011715778548695</v>
+        <v>1.013105789031692</v>
       </c>
       <c r="E2">
-        <v>1.008494978896209</v>
+        <v>1.009845715256945</v>
       </c>
       <c r="F2">
-        <v>1.012260667177387</v>
+        <v>1.013423301555324</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.038808876046548</v>
+        <v>1.038944625766869</v>
       </c>
       <c r="J2">
-        <v>1.016859006632254</v>
+        <v>1.018402565221641</v>
       </c>
       <c r="K2">
-        <v>1.023014271710725</v>
+        <v>1.024385509649624</v>
       </c>
       <c r="L2">
-        <v>1.019837220341164</v>
+        <v>1.021169566827859</v>
       </c>
       <c r="M2">
-        <v>1.023551793715071</v>
+        <v>1.024698743146122</v>
       </c>
       <c r="N2">
-        <v>1.009116274700684</v>
+        <v>1.011842647127273</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.027211930452651</v>
+        <v>1.028119680575613</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.027343105911905</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.028321620700235</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.01846151720487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002012573137598</v>
+        <v>1.002777865849675</v>
       </c>
       <c r="D3">
-        <v>1.017896824856107</v>
+        <v>1.018373493692369</v>
       </c>
       <c r="E3">
-        <v>1.015043011209351</v>
+        <v>1.01568285476719</v>
       </c>
       <c r="F3">
-        <v>1.019597215928401</v>
+        <v>1.020080061659489</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.041799885200243</v>
+        <v>1.041854700351718</v>
       </c>
       <c r="J3">
-        <v>1.022448523336758</v>
+        <v>1.023193088832845</v>
       </c>
       <c r="K3">
-        <v>1.028305721197567</v>
+        <v>1.028776558225081</v>
       </c>
       <c r="L3">
-        <v>1.025486965114501</v>
+        <v>1.026118927220837</v>
       </c>
       <c r="M3">
-        <v>1.029985339856074</v>
+        <v>1.030462302709332</v>
       </c>
       <c r="N3">
-        <v>1.011018575950344</v>
+        <v>1.013132336099619</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.032303728290766</v>
+        <v>1.03268121666528</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.031082040320734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.031423564650813</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019533090065506</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006654917956425</v>
+        <v>1.006921835075858</v>
       </c>
       <c r="D4">
-        <v>1.021716458254796</v>
+        <v>1.021638817588305</v>
       </c>
       <c r="E4">
-        <v>1.019086128381673</v>
+        <v>1.019297031400076</v>
       </c>
       <c r="F4">
-        <v>1.024093650905996</v>
+        <v>1.024167662148634</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043560850544954</v>
+        <v>1.043569120204745</v>
       </c>
       <c r="J4">
-        <v>1.025889908724335</v>
+        <v>1.02615012174574</v>
       </c>
       <c r="K4">
-        <v>1.03155966376291</v>
+        <v>1.031482911699042</v>
       </c>
       <c r="L4">
-        <v>1.028959531310299</v>
+        <v>1.029168005966208</v>
       </c>
       <c r="M4">
-        <v>1.033909729722831</v>
+        <v>1.033982898899112</v>
       </c>
       <c r="N4">
-        <v>1.012189509947718</v>
+        <v>1.013928412750784</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.035409648730289</v>
+        <v>1.035467557637876</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033383821975531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03333820799332</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020189500393646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008567557465477</v>
+        <v>1.00863162554299</v>
       </c>
       <c r="D5">
-        <v>1.023290804647114</v>
+        <v>1.022986950320571</v>
       </c>
       <c r="E5">
-        <v>1.020749803710808</v>
+        <v>1.020786013218393</v>
       </c>
       <c r="F5">
-        <v>1.025935050129919</v>
+        <v>1.025842894770535</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044263366615488</v>
+        <v>1.044253133259021</v>
       </c>
       <c r="J5">
-        <v>1.027305182426578</v>
+        <v>1.027367692731727</v>
       </c>
       <c r="K5">
-        <v>1.032898264505575</v>
+        <v>1.032597789114905</v>
       </c>
       <c r="L5">
-        <v>1.030385596357095</v>
+        <v>1.030421400900316</v>
       </c>
       <c r="M5">
-        <v>1.035513209190623</v>
+        <v>1.035422071878842</v>
       </c>
       <c r="N5">
-        <v>1.01267199799896</v>
+        <v>1.014256881439248</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.036678703128457</v>
+        <v>1.036606573668032</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.034337572678949</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034134467744889</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02045963561165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008894731952929</v>
+        <v>1.008923838536348</v>
       </c>
       <c r="D6">
-        <v>1.023562573353353</v>
+        <v>1.023219901691335</v>
       </c>
       <c r="E6">
-        <v>1.021034505815421</v>
+        <v>1.021040553580229</v>
       </c>
       <c r="F6">
-        <v>1.026248333469978</v>
+        <v>1.026127603123361</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044379948479805</v>
+        <v>1.044366555631705</v>
       </c>
       <c r="J6">
-        <v>1.027549071998594</v>
+        <v>1.027577474770418</v>
       </c>
       <c r="K6">
-        <v>1.033130465080141</v>
+        <v>1.032791585382514</v>
       </c>
       <c r="L6">
-        <v>1.030630446498613</v>
+        <v>1.030636426959472</v>
       </c>
       <c r="M6">
-        <v>1.035786612644255</v>
+        <v>1.035667209353632</v>
       </c>
       <c r="N6">
-        <v>1.012756373232451</v>
+        <v>1.014314306953708</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.036895084753087</v>
+        <v>1.036800584572296</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.034510570307171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034281177156262</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020507373579895</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006704057854102</v>
+        <v>1.006977058892837</v>
       </c>
       <c r="D7">
-        <v>1.021763726311365</v>
+        <v>1.021689444325887</v>
       </c>
       <c r="E7">
-        <v>1.019129552154518</v>
+        <v>1.019345582111696</v>
       </c>
       <c r="F7">
-        <v>1.024137952971897</v>
+        <v>1.02421564465448</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04357256214089</v>
+        <v>1.043581242261432</v>
       </c>
       <c r="J7">
-        <v>1.025931785504879</v>
+        <v>1.026197933101606</v>
       </c>
       <c r="K7">
-        <v>1.031603475176305</v>
+        <v>1.031530042968527</v>
       </c>
       <c r="L7">
-        <v>1.028999529147999</v>
+        <v>1.02921307281938</v>
       </c>
       <c r="M7">
-        <v>1.033950621032984</v>
+        <v>1.034027429168222</v>
       </c>
       <c r="N7">
-        <v>1.012207162427797</v>
+        <v>1.013970409463112</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.035442011690539</v>
+        <v>1.035502800607663</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033435085708182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033393814377771</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02020422257536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9971241222609262</v>
+        <v>0.9984622499216629</v>
       </c>
       <c r="D8">
-        <v>1.013877754231956</v>
+        <v>1.014977076549634</v>
       </c>
       <c r="E8">
-        <v>1.010777923511368</v>
+        <v>1.011910611658731</v>
       </c>
       <c r="F8">
-        <v>1.014820669113886</v>
+        <v>1.015770179896774</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.039860925355363</v>
+        <v>1.039970684789266</v>
       </c>
       <c r="J8">
-        <v>1.018816077795397</v>
+        <v>1.020115153269729</v>
       </c>
       <c r="K8">
-        <v>1.024872967365155</v>
+        <v>1.025957924671135</v>
       </c>
       <c r="L8">
-        <v>1.02181385361321</v>
+        <v>1.022931627390345</v>
       </c>
       <c r="M8">
-        <v>1.025803558656379</v>
+        <v>1.02674068859584</v>
       </c>
       <c r="N8">
-        <v>1.009786894231916</v>
+        <v>1.012388650204923</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.028994082786025</v>
+        <v>1.029735769994892</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.028680630028527</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.029458949919215</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018852327624954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9783511616104066</v>
+        <v>0.9818678955424075</v>
       </c>
       <c r="D9">
-        <v>0.9983497089695665</v>
+        <v>1.001826386251445</v>
       </c>
       <c r="E9">
-        <v>0.9943142136222541</v>
+        <v>0.9973198112998769</v>
       </c>
       <c r="F9">
-        <v>0.996150186441488</v>
+        <v>0.9989028450941339</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.031789286430693</v>
+        <v>1.032134506254091</v>
       </c>
       <c r="J9">
-        <v>1.004692260236481</v>
+        <v>1.008077603787207</v>
       </c>
       <c r="K9">
-        <v>1.011469617859525</v>
+        <v>1.014889900949973</v>
       </c>
       <c r="L9">
-        <v>1.007500217281087</v>
+        <v>1.01045652288327</v>
       </c>
       <c r="M9">
-        <v>1.009306034525734</v>
+        <v>1.012013747987245</v>
       </c>
       <c r="N9">
-        <v>1.004974776737312</v>
+        <v>1.009156091728153</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.015937060308862</v>
+        <v>1.018080106919486</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.01919991780574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.02162939190287</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.016124304583733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9642236081260014</v>
+        <v>0.9695648489462082</v>
       </c>
       <c r="D10">
-        <v>0.9866103265298726</v>
+        <v>0.9920292414622995</v>
       </c>
       <c r="E10">
-        <v>0.9818433915346582</v>
+        <v>0.986416834392307</v>
       </c>
       <c r="F10">
-        <v>0.9817422440799377</v>
+        <v>0.9860220920656481</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.025023338583607</v>
+        <v>1.025602972761889</v>
       </c>
       <c r="J10">
-        <v>0.9939322713726364</v>
+        <v>0.999040291899481</v>
       </c>
       <c r="K10">
-        <v>1.001225618527175</v>
+        <v>1.006543917347895</v>
       </c>
       <c r="L10">
-        <v>0.9965483943133998</v>
+        <v>1.001035745753657</v>
       </c>
       <c r="M10">
-        <v>0.9964491627306391</v>
+        <v>1.000648393024171</v>
       </c>
       <c r="N10">
-        <v>1.001326892948561</v>
+        <v>1.006857312244514</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.005814827040031</v>
+        <v>1.009138174519733</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.011973596126573</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.01574693630229</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.01405561757678</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9581680100743942</v>
+        <v>0.9643366791466036</v>
       </c>
       <c r="D11">
-        <v>0.9816102675765968</v>
+        <v>0.9879012567502965</v>
       </c>
       <c r="E11">
-        <v>0.9765349902209959</v>
+        <v>0.9818092870149705</v>
       </c>
       <c r="F11">
-        <v>0.9755526522512438</v>
+        <v>0.9805321873982414</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.021734610230077</v>
+        <v>1.022437303488702</v>
       </c>
       <c r="J11">
-        <v>0.9893908873556508</v>
+        <v>0.9952722196619044</v>
       </c>
       <c r="K11">
-        <v>0.9968875247954897</v>
+        <v>1.003055002250208</v>
       </c>
       <c r="L11">
-        <v>0.9919134172385509</v>
+        <v>0.9970826050093634</v>
       </c>
       <c r="M11">
-        <v>0.9909508210991462</v>
+        <v>0.9958308197634316</v>
       </c>
       <c r="N11">
-        <v>0.9999393108228303</v>
+        <v>1.006179343547682</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.001918751089664</v>
+        <v>1.005778782713858</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.008940130173449</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.013317093834382</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.013260488025078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9559711065303702</v>
+        <v>0.9624192724435827</v>
       </c>
       <c r="D12">
-        <v>0.9797950519396926</v>
+        <v>0.9863869945242547</v>
       </c>
       <c r="E12">
-        <v>0.9746176385384328</v>
+        <v>0.9801230838320133</v>
       </c>
       <c r="F12">
-        <v>0.973312867785611</v>
+        <v>0.9785330805344205</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.020455536530818</v>
+        <v>1.021204634652507</v>
       </c>
       <c r="J12">
-        <v>0.9877632396019883</v>
+        <v>0.9939038987522149</v>
       </c>
       <c r="K12">
-        <v>0.995319861594765</v>
+        <v>1.001779729434549</v>
       </c>
       <c r="L12">
-        <v>0.9902478342528827</v>
+        <v>0.9956412657970336</v>
       </c>
       <c r="M12">
-        <v>0.9889698554783408</v>
+        <v>0.9940834421583158</v>
       </c>
       <c r="N12">
-        <v>0.9995075335129722</v>
+        <v>1.005989945435116</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.000691650153108</v>
+        <v>1.004734968985196</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.007831663386377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.012415402357094</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.012994401900301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9567925287775773</v>
+        <v>0.9630554821200563</v>
       </c>
       <c r="D13">
-        <v>0.9804927947960737</v>
+        <v>0.9869092846927076</v>
       </c>
       <c r="E13">
-        <v>0.9753705885514975</v>
+        <v>0.980707869449817</v>
       </c>
       <c r="F13">
-        <v>0.9742134861351419</v>
+        <v>0.9792826462962794</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.020793306293137</v>
+        <v>1.021517795541915</v>
       </c>
       <c r="J13">
-        <v>0.9884453659530885</v>
+        <v>0.994411400501</v>
       </c>
       <c r="K13">
-        <v>0.9959581871436897</v>
+        <v>1.002246760946287</v>
       </c>
       <c r="L13">
-        <v>0.990939687378952</v>
+        <v>0.9961689384878867</v>
       </c>
       <c r="M13">
-        <v>0.9898062113113305</v>
+        <v>0.9947724109819295</v>
       </c>
       <c r="N13">
-        <v>0.9998447715357047</v>
+        <v>1.006163132450808</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.001639431467846</v>
+        <v>1.005565158654793</v>
       </c>
       <c r="Q13">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.008280426969454</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.012742802145511</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.013152260842643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9587278875537831</v>
+        <v>0.9646558038995988</v>
       </c>
       <c r="D14">
-        <v>0.9821144499571016</v>
+        <v>0.9881969726033352</v>
       </c>
       <c r="E14">
-        <v>0.9770998724909484</v>
+        <v>0.9821437077711413</v>
       </c>
       <c r="F14">
-        <v>0.9762577179567267</v>
+        <v>0.981048531553102</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.021756336267599</v>
+        <v>1.022432804817754</v>
       </c>
       <c r="J14">
-        <v>0.9899627419863437</v>
+        <v>0.995614500618712</v>
       </c>
       <c r="K14">
-        <v>0.9973991553770599</v>
+        <v>1.003362229202291</v>
       </c>
       <c r="L14">
-        <v>0.9924845261879991</v>
+        <v>0.9974278339722494</v>
       </c>
       <c r="M14">
-        <v>0.9916592896399956</v>
+        <v>0.996354369989767</v>
       </c>
       <c r="N14">
-        <v>1.000426211544363</v>
+        <v>1.006449618503415</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.003282645423003</v>
+        <v>1.006993534348163</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.009300787990337</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.01353311419213</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.013454821435048</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9598568568454783</v>
+        <v>0.9656047797730797</v>
       </c>
       <c r="D15">
-        <v>0.983060542103022</v>
+        <v>0.9889603452624843</v>
       </c>
       <c r="E15">
-        <v>0.9781045764729952</v>
+        <v>0.9829926244443129</v>
       </c>
       <c r="F15">
-        <v>0.9774396174528615</v>
+        <v>0.9820801867573198</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.022328946743145</v>
+        <v>1.022979523177135</v>
       </c>
       <c r="J15">
-        <v>0.9908386711358929</v>
+        <v>0.9963216666070074</v>
       </c>
       <c r="K15">
-        <v>0.9982353926992197</v>
+        <v>1.004020395794077</v>
       </c>
       <c r="L15">
-        <v>0.9933772686096733</v>
+        <v>0.9981688071321728</v>
       </c>
       <c r="M15">
-        <v>0.9927255365800778</v>
+        <v>0.99727428884264</v>
       </c>
       <c r="N15">
-        <v>1.000737590100723</v>
+        <v>1.006603936193673</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.004163883928876</v>
+        <v>1.007759023288076</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.009898154219494</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.014005105673246</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.013623829270426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9660398506184642</v>
+        <v>0.9708866405891935</v>
       </c>
       <c r="D16">
-        <v>0.9882272983296426</v>
+        <v>0.9931927419289316</v>
       </c>
       <c r="E16">
-        <v>0.9835925057901164</v>
+        <v>0.9877083691409181</v>
       </c>
       <c r="F16">
-        <v>0.983863097667833</v>
+        <v>0.9877496235393443</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.025464278846814</v>
+        <v>1.025988686093169</v>
       </c>
       <c r="J16">
-        <v>0.9955874567933486</v>
+        <v>1.000224275397549</v>
       </c>
       <c r="K16">
-        <v>1.002775102772247</v>
+        <v>1.007648958202151</v>
       </c>
       <c r="L16">
-        <v>0.9982268893341233</v>
+        <v>1.002265814620512</v>
       </c>
       <c r="M16">
-        <v>0.9984923972047253</v>
+        <v>1.002306302081773</v>
       </c>
       <c r="N16">
-        <v>1.002322626746408</v>
+        <v>1.007419931150755</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.008682160081235</v>
+        <v>1.011696610868746</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.013111329225159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.016574249761785</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.014514956432843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9696919122591473</v>
+        <v>0.9740549672833887</v>
       </c>
       <c r="D17">
-        <v>0.9912715823778419</v>
+        <v>0.9957237560179595</v>
       </c>
       <c r="E17">
-        <v>0.9868210877243391</v>
+        <v>0.9905253695808151</v>
       </c>
       <c r="F17">
-        <v>0.9876106814918703</v>
+        <v>0.9910918709532046</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.027286665224198</v>
+        <v>1.027746406356539</v>
       </c>
       <c r="J17">
-        <v>0.9983667587628171</v>
+        <v>1.002548026508384</v>
       </c>
       <c r="K17">
-        <v>1.005434402987424</v>
+        <v>1.00980718103171</v>
       </c>
       <c r="L17">
-        <v>1.001064205399769</v>
+        <v>1.004701588146808</v>
       </c>
       <c r="M17">
-        <v>1.001839484418199</v>
+        <v>1.005257915814434</v>
       </c>
       <c r="N17">
-        <v>1.003211977998535</v>
+        <v>1.007913559164861</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.011195602464381</v>
+        <v>1.01389776434037</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.01499429471326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.018103119434451</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.015029542150227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9716082715995451</v>
+        <v>0.9757581816991459</v>
       </c>
       <c r="D18">
-        <v>0.9928538023961904</v>
+        <v>0.9970683925808158</v>
       </c>
       <c r="E18">
-        <v>0.9884975553179247</v>
+        <v>0.9920247487687923</v>
       </c>
       <c r="F18">
-        <v>0.9895361009115488</v>
+        <v>0.9928357370713202</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.028281210023706</v>
+        <v>1.028711932695987</v>
       </c>
       <c r="J18">
-        <v>0.99978852264578</v>
+        <v>1.003769368328945</v>
       </c>
       <c r="K18">
-        <v>1.006797039282607</v>
+        <v>1.010937921990038</v>
       </c>
       <c r="L18">
-        <v>1.002517834375785</v>
+        <v>1.005982580250622</v>
       </c>
       <c r="M18">
-        <v>1.003537932930221</v>
+        <v>1.006779291641604</v>
       </c>
       <c r="N18">
-        <v>1.003606185003602</v>
+        <v>1.00814552159655</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.01229439911281</v>
+        <v>1.014857154136859</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.015945796493611</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.018889527130571</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.015273597485593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9719962086440328</v>
+        <v>0.9761542772259754</v>
       </c>
       <c r="D19">
-        <v>0.9931545225375799</v>
+        <v>0.9973613849098689</v>
       </c>
       <c r="E19">
-        <v>0.9888028640269739</v>
+        <v>0.9923446978016279</v>
       </c>
       <c r="F19">
-        <v>0.9898554374540727</v>
+        <v>0.9931568579497762</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.028571057121054</v>
+        <v>1.02900043770112</v>
       </c>
       <c r="J19">
-        <v>1.000019474585418</v>
+        <v>1.004009336619796</v>
       </c>
       <c r="K19">
-        <v>1.007027289166744</v>
+        <v>1.011161031338652</v>
       </c>
       <c r="L19">
-        <v>1.002752116631178</v>
+        <v>1.00623163232186</v>
       </c>
       <c r="M19">
-        <v>1.003786109789315</v>
+        <v>1.007029583764159</v>
       </c>
       <c r="N19">
-        <v>1.003576140923926</v>
+        <v>1.008132585917</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.012155662164431</v>
+        <v>1.014720976344362</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.016115171262954</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.019054456338723</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.01528274049357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9680668042363683</v>
+        <v>0.9728573215131504</v>
       </c>
       <c r="D20">
-        <v>0.9898270045709563</v>
+        <v>0.9946738483826866</v>
       </c>
       <c r="E20">
-        <v>0.9852460632380141</v>
+        <v>0.9893447520217959</v>
       </c>
       <c r="F20">
-        <v>0.9856827701255858</v>
+        <v>0.9895035276459432</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.026892449465857</v>
+        <v>1.027398650401751</v>
       </c>
       <c r="J20">
-        <v>0.9968867253022704</v>
+        <v>1.001476187419029</v>
       </c>
       <c r="K20">
-        <v>1.004051123990681</v>
+        <v>1.008811002771844</v>
       </c>
       <c r="L20">
-        <v>0.9995534006666293</v>
+        <v>1.003577584915444</v>
       </c>
       <c r="M20">
-        <v>0.9999821308581691</v>
+        <v>1.003733490517824</v>
       </c>
       <c r="N20">
-        <v>1.002340151225285</v>
+        <v>1.007413587905022</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.008599938447221</v>
+        <v>1.011568862716866</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.014014856640095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.017397280961845</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.01462312309556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.956751985482998</v>
+        <v>0.963270907031474</v>
       </c>
       <c r="D21">
-        <v>0.9803776222401153</v>
+        <v>0.9869983354152482</v>
       </c>
       <c r="E21">
-        <v>0.9751989815309368</v>
+        <v>0.9807909919880861</v>
       </c>
       <c r="F21">
-        <v>0.9739508881440695</v>
+        <v>0.9792148161367603</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.021232478937502</v>
+        <v>1.021979461586889</v>
       </c>
       <c r="J21">
-        <v>0.9881761779221115</v>
+        <v>0.9943887733866931</v>
       </c>
       <c r="K21">
-        <v>0.9957405329900303</v>
+        <v>1.002230287128517</v>
       </c>
       <c r="L21">
-        <v>0.9906659594377265</v>
+        <v>0.99614565815644</v>
       </c>
       <c r="M21">
-        <v>0.9894431651379652</v>
+        <v>0.9946009679441619</v>
       </c>
       <c r="N21">
-        <v>0.9993580455978739</v>
+        <v>1.005940535310723</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.00021617875261</v>
+        <v>1.004298466541255</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.00814202424098</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.012748043932918</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.012985935399342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.949028973968901</v>
+        <v>0.9567771409724302</v>
       </c>
       <c r="D22">
-        <v>0.9738980013762217</v>
+        <v>0.9817731442477683</v>
       </c>
       <c r="E22">
-        <v>0.9683097734204317</v>
+        <v>0.9749667070165622</v>
       </c>
       <c r="F22">
-        <v>0.9658240906478101</v>
+        <v>0.9721342632693986</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.017155231283669</v>
+        <v>1.0180999484039</v>
       </c>
       <c r="J22">
-        <v>0.9821816122778294</v>
+        <v>0.9895390477034832</v>
       </c>
       <c r="K22">
-        <v>0.9900049052262658</v>
+        <v>0.9977145374660842</v>
       </c>
       <c r="L22">
-        <v>0.9845362910015043</v>
+        <v>0.9910509424362522</v>
       </c>
       <c r="M22">
-        <v>0.9821044038436256</v>
+        <v>0.9882787224050577</v>
       </c>
       <c r="N22">
-        <v>0.9973105931850823</v>
+        <v>1.004909267478678</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>0.9944076637273697</v>
+        <v>0.9992945441667861</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.004072411909877</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.009539849149028</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.011858222628043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.953163774286016</v>
+        <v>0.9602273615893926</v>
       </c>
       <c r="D23">
-        <v>0.9773642418665206</v>
+        <v>0.9845456303287938</v>
       </c>
       <c r="E23">
-        <v>0.9720018026627941</v>
+        <v>0.9780649850416311</v>
       </c>
       <c r="F23">
-        <v>0.9701948737120856</v>
+        <v>0.9759221857473157</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.019371049258743</v>
+        <v>1.020203524393479</v>
       </c>
       <c r="J23">
-        <v>0.9853916739758006</v>
+        <v>0.992112104548092</v>
       </c>
       <c r="K23">
-        <v>0.9930742975572427</v>
+        <v>1.000109512459087</v>
       </c>
       <c r="L23">
-        <v>0.9878228699892891</v>
+        <v>0.9937606527794338</v>
       </c>
       <c r="M23">
-        <v>0.9860537131031242</v>
+        <v>0.9916619361588477</v>
       </c>
       <c r="N23">
-        <v>0.9984027816351002</v>
+        <v>1.005411328834305</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>0.9975334872036048</v>
+        <v>1.001972290618226</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.006232737787873</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.011222343162825</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.012452198618464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9681476457522313</v>
+        <v>0.9729370482855852</v>
       </c>
       <c r="D24">
-        <v>0.9898794775753358</v>
+        <v>0.9947223671719333</v>
       </c>
       <c r="E24">
-        <v>0.9853096079522318</v>
+        <v>0.9894087227350041</v>
       </c>
       <c r="F24">
-        <v>0.9857610367431898</v>
+        <v>0.9895800017925916</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.026965766575956</v>
+        <v>1.027471251466031</v>
       </c>
       <c r="J24">
-        <v>0.9969294648735734</v>
+        <v>1.001518190965283</v>
       </c>
       <c r="K24">
-        <v>1.004086682920766</v>
+        <v>1.008842802216575</v>
       </c>
       <c r="L24">
-        <v>0.9995997100554308</v>
+        <v>1.003624421509107</v>
       </c>
       <c r="M24">
-        <v>1.000042905467639</v>
+        <v>1.003792609108777</v>
       </c>
       <c r="N24">
-        <v>1.00233529532069</v>
+        <v>1.007408796917232</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.008605612046856</v>
+        <v>1.011573383579803</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.014011766939129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.017388936031641</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.014621171153013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9835040116683177</v>
+        <v>0.9863854775602239</v>
       </c>
       <c r="D25">
-        <v>1.002631112997402</v>
+        <v>1.005425128059903</v>
       </c>
       <c r="E25">
-        <v>0.9988471232296979</v>
+        <v>1.001306258572116</v>
       </c>
       <c r="F25">
-        <v>1.001322943641001</v>
+        <v>1.003549338538671</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.034092805943007</v>
+        <v>1.034365321590744</v>
       </c>
       <c r="J25">
-        <v>1.008599576693992</v>
+        <v>1.011379875089951</v>
       </c>
       <c r="K25">
-        <v>1.015188721174931</v>
+        <v>1.017939805645102</v>
       </c>
       <c r="L25">
-        <v>1.011463362527013</v>
+        <v>1.013884330346436</v>
       </c>
       <c r="M25">
-        <v>1.013900757269041</v>
+        <v>1.016092804339954</v>
       </c>
       <c r="N25">
-        <v>1.006312397191975</v>
+        <v>1.010015084634494</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.019573594990393</v>
+        <v>1.021308503379448</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.021858905062992</v>
+        <v>1.023817904124983</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.016882698559153</v>
       </c>
     </row>
   </sheetData>
